--- a/Referentiedata/VERA - Referentiedata - 2022-07-15.xlsx
+++ b/Referentiedata/VERA - Referentiedata - 2022-07-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VERA\VERA-Standaard\Referentiedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F0F287-3ED1-4DA2-98EE-26E17A39736D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FBDC16-D267-4F62-B287-CAA5310B4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3771" yWindow="3771" windowWidth="24686" windowHeight="13106" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="823" yWindow="2580" windowWidth="24694" windowHeight="15214" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VERA referentiedata" sheetId="14" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8662" uniqueCount="4343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8674" uniqueCount="4347">
   <si>
     <t>Referentiedatasoort</t>
   </si>
@@ -13228,6 +13228,18 @@
   </si>
   <si>
     <t>Overige ruimte; is de bovenste verdieping direct onder het dak van een gebouw met een vaste trap zoals gedefinieerd voor het bepalen van de woningwaardering. De term wordt vooral gebruikt bij gebouwen met een puntdak. De bovenste verdieping van een gebouw met plat dak wordt meestal geen zolder genoemd. Een ruimte mag als vertrek worden gezien indien deze een vast trap heeft, de vloer begaanbaar en het dak beschoten is. Zolders zonder vaste trap leggen we niet vast als vertrek. Indien een woning een zolder heeft met een vlizotrap kan dit in de advertentietekst worden gemeld.</t>
+  </si>
+  <si>
+    <t>PUNTENBEREKENINGSOORT</t>
+  </si>
+  <si>
+    <t>Maandelijkse herberekening</t>
+  </si>
+  <si>
+    <t>Koppelen inschrijving</t>
+  </si>
+  <si>
+    <t>Intrekken gebeurtenis of sanctie</t>
   </si>
 </sst>
 </file>
@@ -14019,8 +14031,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}" name="Tabel1" displayName="Tabel1" ref="A1:K1385" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:K1385" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}" name="Tabel1" displayName="Tabel1" ref="A1:K1390" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:K1390" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K1385">
     <sortCondition ref="A2:A1385"/>
     <sortCondition ref="D2:D1385"/>
@@ -14396,11 +14408,11 @@
   <sheetPr codeName="Blad1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K1385"/>
+  <dimension ref="A1:K1390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1199" sqref="A1199"/>
+      <pane ySplit="1" topLeftCell="A1383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1390" sqref="A1390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -45580,6 +45592,95 @@
       </c>
       <c r="J1385" s="13"/>
       <c r="K1385" s="13"/>
+    </row>
+    <row r="1386" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1386" s="10" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B1386" s="10"/>
+      <c r="C1386" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1386" s="11" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E1386" s="11"/>
+      <c r="F1386" s="11"/>
+      <c r="G1386" s="11"/>
+      <c r="H1386" s="10"/>
+      <c r="I1386" s="10"/>
+      <c r="J1386" s="10"/>
+      <c r="K1386" s="10"/>
+    </row>
+    <row r="1387" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1387" s="10" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B1387" s="10"/>
+      <c r="C1387" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1387" s="11" t="s">
+        <v>4344</v>
+      </c>
+      <c r="E1387" s="11"/>
+      <c r="F1387" s="11"/>
+      <c r="G1387" s="11"/>
+      <c r="H1387" s="10"/>
+      <c r="I1387" s="10"/>
+      <c r="J1387" s="10"/>
+      <c r="K1387" s="10"/>
+    </row>
+    <row r="1388" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1388" s="10" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B1388" s="10"/>
+      <c r="C1388" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D1388" s="11" t="s">
+        <v>4345</v>
+      </c>
+      <c r="E1388" s="11"/>
+      <c r="F1388" s="11"/>
+      <c r="G1388" s="11"/>
+      <c r="H1388" s="10"/>
+      <c r="I1388" s="10"/>
+      <c r="J1388" s="10"/>
+      <c r="K1388" s="10"/>
+    </row>
+    <row r="1389" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1389" s="10" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B1389" s="10"/>
+      <c r="C1389" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="D1389" s="11" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E1389" s="11"/>
+      <c r="F1389" s="11"/>
+      <c r="G1389" s="11"/>
+      <c r="H1389" s="10"/>
+      <c r="I1389" s="10"/>
+      <c r="J1389" s="10"/>
+      <c r="K1389" s="10"/>
+    </row>
+    <row r="1390" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1390" s="10"/>
+      <c r="B1390" s="10"/>
+      <c r="C1390" s="10"/>
+      <c r="D1390" s="11"/>
+      <c r="E1390" s="11"/>
+      <c r="F1390" s="11"/>
+      <c r="G1390" s="11"/>
+      <c r="H1390" s="10"/>
+      <c r="I1390" s="10"/>
+      <c r="J1390" s="10"/>
+      <c r="K1390" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Referentiedata/VERA - Referentiedata - 2022-07-15.xlsx
+++ b/Referentiedata/VERA - Referentiedata - 2022-07-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VERA\VERA-Standaard\Referentiedata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FBDC16-D267-4F62-B287-CAA5310B4C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADE2F00-0490-47E5-8C4F-393AD972681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="823" yWindow="2580" windowWidth="24694" windowHeight="15214" tabRatio="768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14033,9 +14033,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}" name="Tabel1" displayName="Tabel1" ref="A1:K1390" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:K1390" xr:uid="{27388343-0A0E-446E-86B4-9C4356EB993E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K1385">
-    <sortCondition ref="A2:A1385"/>
-    <sortCondition ref="D2:D1385"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K1390">
+    <sortCondition ref="A2:A1390"/>
+    <sortCondition ref="D2:D1390"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{845F9FC6-EA7E-42C8-9954-6B75834B5282}" name="Referentiedatasoort" dataDxfId="19"/>
@@ -14411,8 +14411,8 @@
   <dimension ref="A1:K1390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1383" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1390" sqref="A1390"/>
+      <pane ySplit="1" topLeftCell="A1374" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1386" sqref="A1386:D1389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -38937,89 +38937,72 @@
     </row>
     <row r="1097" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1097" s="10" t="s">
-        <v>3795</v>
+        <v>4343</v>
       </c>
       <c r="C1097" s="10" t="s">
-        <v>3776</v>
+        <v>979</v>
       </c>
       <c r="D1097" s="11" t="s">
-        <v>3777</v>
-      </c>
-      <c r="E1097" s="11" t="s">
-        <v>3777</v>
-      </c>
+        <v>4346</v>
+      </c>
+      <c r="E1097" s="11"/>
       <c r="F1097" s="11"/>
       <c r="G1097" s="11"/>
-      <c r="I1097" s="10" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1098" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1098" s="10" t="s">
-        <v>3795</v>
+        <v>4343</v>
       </c>
       <c r="C1098" s="10" t="s">
-        <v>3780</v>
+        <v>1156</v>
       </c>
       <c r="D1098" s="11" t="s">
-        <v>3781</v>
-      </c>
-      <c r="E1098" s="26" t="s">
-        <v>3781</v>
-      </c>
+        <v>4345</v>
+      </c>
+      <c r="E1098" s="11"/>
       <c r="F1098" s="11"/>
       <c r="G1098" s="11"/>
-      <c r="I1098" s="10" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1099" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1099" s="24" t="s">
-        <v>3795</v>
-      </c>
-      <c r="B1099" s="24"/>
-      <c r="C1099" s="24" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D1099" s="53" t="s">
-        <v>4085</v>
-      </c>
-      <c r="E1099" s="26" t="s">
-        <v>4085</v>
-      </c>
+      <c r="A1099" s="10" t="s">
+        <v>4343</v>
+      </c>
+      <c r="C1099" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1099" s="11" t="s">
+        <v>4344</v>
+      </c>
+      <c r="E1099" s="11"/>
       <c r="F1099" s="11"/>
       <c r="G1099" s="11"/>
     </row>
     <row r="1100" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1100" s="24" t="s">
-        <v>3795</v>
-      </c>
-      <c r="B1100" s="24"/>
-      <c r="C1100" s="24" t="s">
-        <v>4087</v>
-      </c>
-      <c r="D1100" s="26" t="s">
-        <v>4086</v>
-      </c>
-      <c r="E1100" s="26" t="s">
-        <v>4086</v>
-      </c>
+      <c r="A1100" s="10" t="s">
+        <v>4343</v>
+      </c>
+      <c r="C1100" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1100" s="11" t="s">
+        <v>4050</v>
+      </c>
+      <c r="E1100" s="11"/>
       <c r="F1100" s="11"/>
       <c r="G1100" s="11"/>
     </row>
     <row r="1101" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1101" s="24" t="s">
+      <c r="A1101" s="10" t="s">
         <v>3795</v>
       </c>
-      <c r="B1101" s="24"/>
-      <c r="C1101" s="24" t="s">
-        <v>3770</v>
-      </c>
-      <c r="D1101" s="26" t="s">
-        <v>3771</v>
-      </c>
-      <c r="E1101" s="26" t="s">
-        <v>3771</v>
+      <c r="C1101" s="10" t="s">
+        <v>3776</v>
+      </c>
+      <c r="D1101" s="11" t="s">
+        <v>3777</v>
+      </c>
+      <c r="E1101" s="11" t="s">
+        <v>3777</v>
       </c>
       <c r="F1101" s="11"/>
       <c r="G1101" s="11"/>
@@ -39028,18 +39011,17 @@
       </c>
     </row>
     <row r="1102" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1102" s="24" t="s">
+      <c r="A1102" s="10" t="s">
         <v>3795</v>
       </c>
-      <c r="B1102" s="24"/>
-      <c r="C1102" s="24" t="s">
-        <v>3772</v>
-      </c>
-      <c r="D1102" s="26" t="s">
-        <v>3773</v>
+      <c r="C1102" s="10" t="s">
+        <v>3780</v>
+      </c>
+      <c r="D1102" s="11" t="s">
+        <v>3781</v>
       </c>
       <c r="E1102" s="26" t="s">
-        <v>3773</v>
+        <v>3781</v>
       </c>
       <c r="F1102" s="11"/>
       <c r="G1102" s="11"/>
@@ -39053,19 +39035,16 @@
       </c>
       <c r="B1103" s="24"/>
       <c r="C1103" s="24" t="s">
-        <v>3774</v>
-      </c>
-      <c r="D1103" s="26" t="s">
-        <v>3775</v>
+        <v>1641</v>
+      </c>
+      <c r="D1103" s="53" t="s">
+        <v>4085</v>
       </c>
       <c r="E1103" s="26" t="s">
-        <v>3775</v>
+        <v>4085</v>
       </c>
       <c r="F1103" s="11"/>
       <c r="G1103" s="11"/>
-      <c r="I1103" s="10" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1104" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1104" s="24" t="s">
@@ -39073,19 +39052,16 @@
       </c>
       <c r="B1104" s="24"/>
       <c r="C1104" s="24" t="s">
-        <v>3768</v>
+        <v>4087</v>
       </c>
       <c r="D1104" s="26" t="s">
-        <v>3769</v>
+        <v>4086</v>
       </c>
       <c r="E1104" s="26" t="s">
-        <v>3769</v>
+        <v>4086</v>
       </c>
       <c r="F1104" s="11"/>
       <c r="G1104" s="11"/>
-      <c r="I1104" s="10" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="1105" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1105" s="24" t="s">
@@ -39093,13 +39069,13 @@
       </c>
       <c r="B1105" s="24"/>
       <c r="C1105" s="24" t="s">
-        <v>3782</v>
+        <v>3770</v>
       </c>
       <c r="D1105" s="26" t="s">
-        <v>3783</v>
+        <v>3771</v>
       </c>
       <c r="E1105" s="26" t="s">
-        <v>3783</v>
+        <v>3771</v>
       </c>
       <c r="F1105" s="11"/>
       <c r="G1105" s="11"/>
@@ -39113,22 +39089,19 @@
       </c>
       <c r="B1106" s="24"/>
       <c r="C1106" s="24" t="s">
-        <v>3786</v>
+        <v>3772</v>
       </c>
       <c r="D1106" s="26" t="s">
-        <v>3787</v>
+        <v>3773</v>
       </c>
       <c r="E1106" s="26" t="s">
-        <v>3787</v>
-      </c>
-      <c r="F1106" s="26"/>
-      <c r="G1106" s="26"/>
-      <c r="H1106" s="24"/>
+        <v>3773</v>
+      </c>
+      <c r="F1106" s="11"/>
+      <c r="G1106" s="11"/>
       <c r="I1106" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J1106" s="24"/>
-      <c r="K1106" s="24"/>
     </row>
     <row r="1107" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1107" s="46" t="s">
@@ -39136,13 +39109,13 @@
       </c>
       <c r="B1107" s="24"/>
       <c r="C1107" s="24" t="s">
-        <v>3784</v>
+        <v>3774</v>
       </c>
       <c r="D1107" s="26" t="s">
-        <v>3785</v>
+        <v>3775</v>
       </c>
       <c r="E1107" s="26" t="s">
-        <v>3785</v>
+        <v>3775</v>
       </c>
       <c r="F1107" s="11"/>
       <c r="G1107" s="11"/>
@@ -39154,14 +39127,15 @@
       <c r="A1108" s="46" t="s">
         <v>3795</v>
       </c>
-      <c r="C1108" s="10" t="s">
-        <v>3778</v>
-      </c>
-      <c r="D1108" s="11" t="s">
-        <v>3779</v>
+      <c r="B1108" s="24"/>
+      <c r="C1108" s="24" t="s">
+        <v>3768</v>
+      </c>
+      <c r="D1108" s="26" t="s">
+        <v>3769</v>
       </c>
       <c r="E1108" s="26" t="s">
-        <v>3779</v>
+        <v>3769</v>
       </c>
       <c r="F1108" s="11"/>
       <c r="G1108" s="11"/>
@@ -39170,110 +39144,100 @@
       </c>
     </row>
     <row r="1109" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1109" s="25" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B1109" s="35"/>
-      <c r="C1109" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1109" s="35" t="s">
-        <v>1824</v>
-      </c>
-      <c r="E1109" s="37" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F1109" s="12"/>
-      <c r="G1109" s="12"/>
-      <c r="H1109" s="13"/>
-      <c r="I1109" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1109" s="13"/>
-      <c r="K1109" s="13"/>
-    </row>
-    <row r="1110" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1110" s="35" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B1110" s="35"/>
-      <c r="C1110" s="35" t="s">
-        <v>595</v>
-      </c>
-      <c r="D1110" s="35" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E1110" s="37" t="s">
-        <v>1827</v>
-      </c>
-      <c r="F1110" s="12"/>
-      <c r="G1110" s="12"/>
-      <c r="H1110" s="13"/>
-      <c r="I1110" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1110" s="13"/>
-      <c r="K1110" s="13"/>
+      <c r="A1109" s="46" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B1109" s="24"/>
+      <c r="C1109" s="24" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D1109" s="26" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E1109" s="26" t="s">
+        <v>3783</v>
+      </c>
+      <c r="F1109" s="11"/>
+      <c r="G1109" s="11"/>
+      <c r="I1109" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1110" s="24" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B1110" s="24"/>
+      <c r="C1110" s="24" t="s">
+        <v>3786</v>
+      </c>
+      <c r="D1110" s="26" t="s">
+        <v>3787</v>
+      </c>
+      <c r="E1110" s="26" t="s">
+        <v>3787</v>
+      </c>
+      <c r="F1110" s="26"/>
+      <c r="G1110" s="26"/>
+      <c r="H1110" s="24"/>
+      <c r="I1110" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1110" s="24"/>
+      <c r="K1110" s="24"/>
     </row>
     <row r="1111" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1111" s="24" t="s">
-        <v>1828</v>
+        <v>3795</v>
       </c>
       <c r="B1111" s="24"/>
       <c r="C1111" s="24" t="s">
-        <v>513</v>
+        <v>3784</v>
       </c>
       <c r="D1111" s="26" t="s">
-        <v>3792</v>
+        <v>3785</v>
       </c>
       <c r="E1111" s="26" t="s">
-        <v>3792</v>
-      </c>
-      <c r="F1111" s="26"/>
-      <c r="G1111" s="26"/>
-      <c r="H1111" s="24"/>
+        <v>3785</v>
+      </c>
+      <c r="F1111" s="11"/>
+      <c r="G1111" s="11"/>
       <c r="I1111" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1111" s="24"/>
-      <c r="K1111" s="24"/>
-    </row>
-    <row r="1112" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1112" s="35" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B1112" s="35"/>
-      <c r="C1112" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1112" s="35" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E1112" s="37" t="s">
-        <v>1830</v>
-      </c>
-      <c r="F1112" s="12"/>
-      <c r="G1112" s="12"/>
-      <c r="H1112" s="13"/>
-      <c r="I1112" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1112" s="13"/>
-      <c r="K1112" s="13"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1112" s="24" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C1112" s="10" t="s">
+        <v>3778</v>
+      </c>
+      <c r="D1112" s="11" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1112" s="26" t="s">
+        <v>3779</v>
+      </c>
+      <c r="F1112" s="11"/>
+      <c r="G1112" s="11"/>
+      <c r="I1112" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1113" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1113" s="35" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="B1113" s="35"/>
       <c r="C1113" s="35" t="s">
-        <v>686</v>
+        <v>177</v>
       </c>
       <c r="D1113" s="35" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
       <c r="E1113" s="37" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="F1113" s="12"/>
       <c r="G1113" s="12"/>
@@ -39286,17 +39250,17 @@
     </row>
     <row r="1114" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1114" s="35" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
       <c r="B1114" s="35"/>
       <c r="C1114" s="35" t="s">
-        <v>1833</v>
+        <v>595</v>
       </c>
       <c r="D1114" s="35" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="E1114" s="37" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="F1114" s="12"/>
       <c r="G1114" s="12"/>
@@ -39308,27 +39272,27 @@
       <c r="K1114" s="13"/>
     </row>
     <row r="1115" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1115" s="35" t="s">
+      <c r="A1115" s="24" t="s">
         <v>1828</v>
       </c>
-      <c r="B1115" s="35"/>
-      <c r="C1115" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1115" s="35" t="s">
-        <v>1836</v>
-      </c>
-      <c r="E1115" s="37" t="s">
-        <v>1837</v>
-      </c>
-      <c r="F1115" s="12"/>
-      <c r="G1115" s="12"/>
-      <c r="H1115" s="13"/>
-      <c r="I1115" s="13" t="s">
+      <c r="B1115" s="24"/>
+      <c r="C1115" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1115" s="26" t="s">
+        <v>3792</v>
+      </c>
+      <c r="E1115" s="26" t="s">
+        <v>3792</v>
+      </c>
+      <c r="F1115" s="26"/>
+      <c r="G1115" s="26"/>
+      <c r="H1115" s="24"/>
+      <c r="I1115" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J1115" s="13"/>
-      <c r="K1115" s="13"/>
+      <c r="J1115" s="24"/>
+      <c r="K1115" s="24"/>
     </row>
     <row r="1116" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1116" s="35" t="s">
@@ -39336,13 +39300,13 @@
       </c>
       <c r="B1116" s="35"/>
       <c r="C1116" s="35" t="s">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="D1116" s="35" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E1116" s="37" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
       <c r="F1116" s="12"/>
       <c r="G1116" s="12"/>
@@ -39359,13 +39323,13 @@
       </c>
       <c r="B1117" s="35"/>
       <c r="C1117" s="35" t="s">
-        <v>1840</v>
+        <v>686</v>
       </c>
       <c r="D1117" s="35" t="s">
-        <v>1841</v>
+        <v>1831</v>
       </c>
       <c r="E1117" s="37" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
       <c r="F1117" s="12"/>
       <c r="G1117" s="12"/>
@@ -39376,19 +39340,19 @@
       <c r="J1117" s="13"/>
       <c r="K1117" s="13"/>
     </row>
-    <row r="1118" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1118" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1118" s="35" t="s">
-        <v>1843</v>
+        <v>1828</v>
       </c>
       <c r="B1118" s="35"/>
       <c r="C1118" s="35" t="s">
-        <v>1844</v>
+        <v>1833</v>
       </c>
       <c r="D1118" s="35" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="E1118" s="37" t="s">
-        <v>1846</v>
+        <v>1835</v>
       </c>
       <c r="F1118" s="12"/>
       <c r="G1118" s="12"/>
@@ -39401,17 +39365,17 @@
     </row>
     <row r="1119" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1119" s="25" t="s">
-        <v>1843</v>
+        <v>1828</v>
       </c>
       <c r="B1119" s="35"/>
       <c r="C1119" s="35" t="s">
-        <v>1847</v>
+        <v>369</v>
       </c>
       <c r="D1119" s="35" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="E1119" s="37" t="s">
-        <v>1849</v>
+        <v>1837</v>
       </c>
       <c r="F1119" s="12"/>
       <c r="G1119" s="12"/>
@@ -39422,19 +39386,19 @@
       <c r="J1119" s="13"/>
       <c r="K1119" s="13"/>
     </row>
-    <row r="1120" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1120" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1120" s="25" t="s">
-        <v>1843</v>
+        <v>1828</v>
       </c>
       <c r="B1120" s="35"/>
       <c r="C1120" s="35" t="s">
-        <v>1850</v>
+        <v>274</v>
       </c>
       <c r="D1120" s="35" t="s">
-        <v>1851</v>
+        <v>1838</v>
       </c>
       <c r="E1120" s="37" t="s">
-        <v>1852</v>
+        <v>1839</v>
       </c>
       <c r="F1120" s="12"/>
       <c r="G1120" s="12"/>
@@ -39445,19 +39409,19 @@
       <c r="J1120" s="13"/>
       <c r="K1120" s="13"/>
     </row>
-    <row r="1121" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1121" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1121" s="25" t="s">
-        <v>1843</v>
+        <v>1828</v>
       </c>
       <c r="B1121" s="35"/>
       <c r="C1121" s="35" t="s">
-        <v>1853</v>
+        <v>1840</v>
       </c>
       <c r="D1121" s="35" t="s">
-        <v>1854</v>
+        <v>1841</v>
       </c>
       <c r="E1121" s="37" t="s">
-        <v>1855</v>
+        <v>1842</v>
       </c>
       <c r="F1121" s="12"/>
       <c r="G1121" s="12"/>
@@ -39468,168 +39432,172 @@
       <c r="J1121" s="13"/>
       <c r="K1121" s="13"/>
     </row>
-    <row r="1122" spans="1:11" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.4">
-      <c r="A1122" s="46" t="s">
-        <v>3655</v>
-      </c>
-      <c r="B1122" s="24"/>
-      <c r="C1122" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1122" s="26" t="s">
-        <v>3656</v>
-      </c>
-      <c r="E1122" s="26" t="s">
-        <v>3660</v>
-      </c>
-      <c r="F1122" s="11"/>
-      <c r="G1122" s="11"/>
-      <c r="I1122" s="10" t="s">
-        <v>140</v>
-      </c>
+    <row r="1122" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1122" s="25" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1122" s="35"/>
+      <c r="C1122" s="35" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D1122" s="35" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E1122" s="37" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F1122" s="12"/>
+      <c r="G1122" s="12"/>
+      <c r="H1122" s="13"/>
+      <c r="I1122" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1122" s="13"/>
+      <c r="K1122" s="13"/>
     </row>
     <row r="1123" spans="1:11" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1123" s="24" t="s">
-        <v>3655</v>
-      </c>
-      <c r="B1123" s="24"/>
-      <c r="C1123" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="D1123" s="26" t="s">
-        <v>3657</v>
-      </c>
-      <c r="E1123" s="26" t="s">
-        <v>3659</v>
-      </c>
-      <c r="F1123" s="11"/>
-      <c r="G1123" s="11"/>
-      <c r="I1123" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="A1123" s="35" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1123" s="35"/>
+      <c r="C1123" s="35" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D1123" s="35" t="s">
+        <v>1848</v>
+      </c>
+      <c r="E1123" s="37" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F1123" s="12"/>
+      <c r="G1123" s="12"/>
+      <c r="H1123" s="13"/>
+      <c r="I1123" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1123" s="13"/>
+      <c r="K1123" s="13"/>
     </row>
     <row r="1124" spans="1:11" s="10" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1124" s="24" t="s">
-        <v>3655</v>
-      </c>
-      <c r="B1124" s="24"/>
-      <c r="C1124" s="24" t="s">
-        <v>1968</v>
-      </c>
-      <c r="D1124" s="26" t="s">
-        <v>3658</v>
-      </c>
-      <c r="E1124" s="26" t="s">
-        <v>3661</v>
-      </c>
-      <c r="F1124" s="11"/>
-      <c r="G1124" s="11"/>
-      <c r="I1124" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1124" s="35" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1124" s="35"/>
+      <c r="C1124" s="35" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D1124" s="35" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E1124" s="37" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F1124" s="12"/>
+      <c r="G1124" s="12"/>
+      <c r="H1124" s="13"/>
+      <c r="I1124" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1124" s="13"/>
+      <c r="K1124" s="13"/>
+    </row>
+    <row r="1125" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1125" s="35" t="s">
-        <v>1856</v>
+        <v>1843</v>
       </c>
       <c r="B1125" s="35"/>
       <c r="C1125" s="35" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D1125" s="37" t="s">
-        <v>1858</v>
+        <v>1853</v>
+      </c>
+      <c r="D1125" s="35" t="s">
+        <v>1854</v>
       </c>
       <c r="E1125" s="37" t="s">
-        <v>4280</v>
+        <v>1855</v>
       </c>
       <c r="F1125" s="12"/>
       <c r="G1125" s="12"/>
       <c r="H1125" s="13"/>
       <c r="I1125" s="13" t="s">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="J1125" s="13"/>
       <c r="K1125" s="13"/>
     </row>
-    <row r="1126" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1126" s="35" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B1126" s="35"/>
-      <c r="C1126" s="35" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D1126" s="37" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E1126" s="37" t="s">
-        <v>4280</v>
-      </c>
-      <c r="F1126" s="12"/>
-      <c r="G1126" s="12"/>
-      <c r="H1126" s="13"/>
-      <c r="I1126" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1126" s="13"/>
-      <c r="K1126" s="13"/>
-    </row>
-    <row r="1127" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1127" s="35" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B1127" s="35"/>
-      <c r="C1127" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1127" s="37" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E1127" s="37" t="s">
-        <v>4280</v>
-      </c>
-      <c r="F1127" s="12"/>
-      <c r="G1127" s="12"/>
-      <c r="H1127" s="13"/>
-      <c r="I1127" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1127" s="13"/>
-      <c r="K1127" s="13"/>
-    </row>
-    <row r="1128" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1128" s="13" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B1128" s="13"/>
-      <c r="C1128" s="13" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D1128" s="12" t="s">
-        <v>1860</v>
-      </c>
-      <c r="E1128" s="37"/>
-      <c r="F1128" s="12"/>
-      <c r="G1128" s="12"/>
-      <c r="H1128" s="13"/>
-      <c r="I1128" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1128" s="13"/>
-      <c r="K1128" s="13"/>
+    <row r="1126" spans="1:11" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.4">
+      <c r="A1126" s="24" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B1126" s="24"/>
+      <c r="C1126" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1126" s="26" t="s">
+        <v>3656</v>
+      </c>
+      <c r="E1126" s="26" t="s">
+        <v>3660</v>
+      </c>
+      <c r="F1126" s="11"/>
+      <c r="G1126" s="11"/>
+      <c r="I1126" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:11" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A1127" s="24" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B1127" s="24"/>
+      <c r="C1127" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1127" s="26" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E1127" s="26" t="s">
+        <v>3659</v>
+      </c>
+      <c r="F1127" s="11"/>
+      <c r="G1127" s="11"/>
+      <c r="I1127" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:11" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A1128" s="24" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B1128" s="24"/>
+      <c r="C1128" s="24" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D1128" s="26" t="s">
+        <v>3658</v>
+      </c>
+      <c r="E1128" s="26" t="s">
+        <v>3661</v>
+      </c>
+      <c r="F1128" s="11"/>
+      <c r="G1128" s="11"/>
+      <c r="I1128" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="1129" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1129" s="35" t="s">
-        <v>1859</v>
-      </c>
-      <c r="B1129" s="13"/>
-      <c r="C1129" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1129" s="12" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E1129" s="37"/>
+        <v>1856</v>
+      </c>
+      <c r="B1129" s="35"/>
+      <c r="C1129" s="35" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D1129" s="37" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E1129" s="37" t="s">
+        <v>4280</v>
+      </c>
       <c r="F1129" s="12"/>
       <c r="G1129" s="12"/>
       <c r="H1129" s="13"/>
@@ -39641,17 +39609,17 @@
     </row>
     <row r="1130" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1130" s="35" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="B1130" s="35"/>
       <c r="C1130" s="35" t="s">
-        <v>1627</v>
+        <v>1075</v>
       </c>
       <c r="D1130" s="37" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="E1130" s="37" t="s">
-        <v>1863</v>
+        <v>4280</v>
       </c>
       <c r="F1130" s="12"/>
       <c r="G1130" s="12"/>
@@ -39664,16 +39632,18 @@
     </row>
     <row r="1131" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1131" s="35" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="B1131" s="35"/>
       <c r="C1131" s="35" t="s">
-        <v>322</v>
+        <v>59</v>
       </c>
       <c r="D1131" s="37" t="s">
-        <v>1864</v>
-      </c>
-      <c r="E1131" s="37"/>
+        <v>1195</v>
+      </c>
+      <c r="E1131" s="37" t="s">
+        <v>4280</v>
+      </c>
       <c r="F1131" s="12"/>
       <c r="G1131" s="12"/>
       <c r="H1131" s="13"/>
@@ -39684,15 +39654,15 @@
       <c r="K1131" s="13"/>
     </row>
     <row r="1132" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1132" s="35" t="s">
+      <c r="A1132" s="13" t="s">
         <v>1859</v>
       </c>
-      <c r="B1132" s="35"/>
-      <c r="C1132" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="D1132" s="37" t="s">
-        <v>1865</v>
+      <c r="B1132" s="13"/>
+      <c r="C1132" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1132" s="12" t="s">
+        <v>1860</v>
       </c>
       <c r="E1132" s="37"/>
       <c r="F1132" s="12"/>
@@ -39704,143 +39674,144 @@
       <c r="J1132" s="13"/>
       <c r="K1132" s="13"/>
     </row>
-    <row r="1133" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1133" s="24" t="s">
-        <v>4102</v>
-      </c>
-      <c r="C1133" s="10" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D1133" s="11" t="s">
-        <v>1877</v>
-      </c>
-      <c r="E1133" s="11" t="s">
-        <v>3611</v>
-      </c>
-      <c r="F1133" s="11"/>
-      <c r="G1133" s="11"/>
-      <c r="H1133" s="10" t="s">
-        <v>4105</v>
-      </c>
+    <row r="1133" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1133" s="35" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1133" s="13"/>
+      <c r="C1133" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1133" s="12" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E1133" s="37"/>
+      <c r="F1133" s="12"/>
+      <c r="G1133" s="12"/>
+      <c r="H1133" s="13"/>
       <c r="I1133" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="1134" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1134" s="24" t="s">
-        <v>4102</v>
-      </c>
-      <c r="D1134" s="11"/>
-      <c r="E1134" s="11" t="s">
-        <v>4104</v>
-      </c>
-      <c r="F1134" s="11"/>
-      <c r="G1134" s="11"/>
-      <c r="H1134" s="10" t="s">
-        <v>4106</v>
-      </c>
+      <c r="J1133" s="13"/>
+      <c r="K1133" s="13"/>
+    </row>
+    <row r="1134" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1134" s="35" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1134" s="35"/>
+      <c r="C1134" s="35" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D1134" s="37" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E1134" s="37" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F1134" s="12"/>
+      <c r="G1134" s="12"/>
+      <c r="H1134" s="13"/>
       <c r="I1134" s="13" t="s">
         <v>114</v>
       </c>
+      <c r="J1134" s="13"/>
+      <c r="K1134" s="13"/>
     </row>
     <row r="1135" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1135" s="24" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B1135" s="24"/>
-      <c r="C1135" s="24" t="s">
-        <v>3675</v>
-      </c>
-      <c r="D1135" s="26" t="s">
-        <v>3670</v>
-      </c>
-      <c r="E1135" s="26" t="s">
-        <v>3677</v>
-      </c>
-      <c r="F1135" s="11"/>
-      <c r="G1135" s="11"/>
-      <c r="I1135" s="10" t="s">
+      <c r="A1135" s="35" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1135" s="35"/>
+      <c r="C1135" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1135" s="37" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E1135" s="37"/>
+      <c r="F1135" s="12"/>
+      <c r="G1135" s="12"/>
+      <c r="H1135" s="13"/>
+      <c r="I1135" s="13" t="s">
         <v>114</v>
       </c>
+      <c r="J1135" s="13"/>
+      <c r="K1135" s="13"/>
     </row>
     <row r="1136" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1136" s="55" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B1136" s="55"/>
-      <c r="C1136" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1136" s="56" t="s">
-        <v>1867</v>
-      </c>
-      <c r="E1136" s="56" t="s">
-        <v>4240</v>
-      </c>
-      <c r="F1136" s="20"/>
-      <c r="G1136" s="20"/>
-      <c r="H1136" s="54"/>
-      <c r="I1136" s="54" t="s">
+      <c r="A1136" s="35" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1136" s="35"/>
+      <c r="C1136" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1136" s="37" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E1136" s="37"/>
+      <c r="F1136" s="12"/>
+      <c r="G1136" s="12"/>
+      <c r="H1136" s="13"/>
+      <c r="I1136" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1136" s="54"/>
-      <c r="K1136" s="54"/>
-    </row>
-    <row r="1137" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1137" s="65" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B1137" s="65"/>
-      <c r="C1137" s="65" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D1137" s="66" t="s">
-        <v>3672</v>
-      </c>
-      <c r="E1137" s="67" t="s">
-        <v>4267</v>
-      </c>
-      <c r="F1137" s="68"/>
-      <c r="G1137" s="68"/>
-      <c r="H1137" s="69"/>
-      <c r="I1137" s="69" t="s">
+      <c r="J1136" s="13"/>
+      <c r="K1136" s="13"/>
+    </row>
+    <row r="1137" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1137" s="24" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C1137" s="10" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D1137" s="11" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E1137" s="11" t="s">
+        <v>3611</v>
+      </c>
+      <c r="F1137" s="11"/>
+      <c r="G1137" s="11"/>
+      <c r="H1137" s="10" t="s">
+        <v>4105</v>
+      </c>
+      <c r="I1137" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1137" s="69"/>
-      <c r="K1137" s="69"/>
-    </row>
-    <row r="1138" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="1138" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1138" s="24" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B1138" s="24"/>
-      <c r="C1138" s="24" t="s">
-        <v>3719</v>
-      </c>
-      <c r="D1138" s="26" t="s">
-        <v>3727</v>
-      </c>
-      <c r="E1138" s="47" t="s">
-        <v>3728</v>
+        <v>4102</v>
+      </c>
+      <c r="D1138" s="11"/>
+      <c r="E1138" s="11" t="s">
+        <v>4104</v>
       </c>
       <c r="F1138" s="11"/>
       <c r="G1138" s="11"/>
-      <c r="I1138" s="10" t="s">
+      <c r="H1138" s="10" t="s">
+        <v>4106</v>
+      </c>
+      <c r="I1138" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="1139" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1139" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1139" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="C1139" s="10" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1139" s="11" t="s">
-        <v>4095</v>
-      </c>
-      <c r="E1139" s="11" t="s">
-        <v>4241</v>
+      <c r="B1139" s="24"/>
+      <c r="C1139" s="24" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D1139" s="26" t="s">
+        <v>3670</v>
+      </c>
+      <c r="E1139" s="26" t="s">
+        <v>3677</v>
       </c>
       <c r="F1139" s="11"/>
       <c r="G1139" s="11"/>
@@ -39849,64 +39820,64 @@
       </c>
     </row>
     <row r="1140" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1140" s="35" t="s">
+      <c r="A1140" s="55" t="s">
         <v>1866</v>
       </c>
-      <c r="B1140" s="35"/>
-      <c r="C1140" s="35" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D1140" s="37" t="s">
-        <v>1868</v>
-      </c>
-      <c r="E1140" s="28" t="s">
-        <v>3604</v>
-      </c>
-      <c r="F1140" s="12"/>
-      <c r="G1140" s="12"/>
-      <c r="H1140" s="13"/>
-      <c r="I1140" s="13" t="s">
+      <c r="B1140" s="55"/>
+      <c r="C1140" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1140" s="56" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E1140" s="56" t="s">
+        <v>4240</v>
+      </c>
+      <c r="F1140" s="20"/>
+      <c r="G1140" s="20"/>
+      <c r="H1140" s="54"/>
+      <c r="I1140" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="J1140" s="13"/>
-      <c r="K1140" s="13"/>
-    </row>
-    <row r="1141" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1141" s="55" t="s">
+      <c r="J1140" s="54"/>
+      <c r="K1140" s="54"/>
+    </row>
+    <row r="1141" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A1141" s="65" t="s">
         <v>1866</v>
       </c>
-      <c r="B1141" s="55"/>
-      <c r="C1141" s="55" t="s">
-        <v>916</v>
-      </c>
-      <c r="D1141" s="56" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E1141" s="56" t="s">
-        <v>3605</v>
-      </c>
-      <c r="F1141" s="20"/>
-      <c r="G1141" s="20"/>
-      <c r="H1141" s="54"/>
-      <c r="I1141" s="54" t="s">
+      <c r="B1141" s="65"/>
+      <c r="C1141" s="65" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D1141" s="66" t="s">
+        <v>3672</v>
+      </c>
+      <c r="E1141" s="67" t="s">
+        <v>4267</v>
+      </c>
+      <c r="F1141" s="68"/>
+      <c r="G1141" s="68"/>
+      <c r="H1141" s="69"/>
+      <c r="I1141" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="J1141" s="54"/>
-      <c r="K1141" s="54"/>
-    </row>
-    <row r="1142" spans="1:11" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="J1141" s="69"/>
+      <c r="K1141" s="69"/>
+    </row>
+    <row r="1142" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1142" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1142" s="24"/>
       <c r="C1142" s="24" t="s">
-        <v>3607</v>
+        <v>3719</v>
       </c>
       <c r="D1142" s="26" t="s">
-        <v>3606</v>
-      </c>
-      <c r="E1142" s="28" t="s">
-        <v>3608</v>
+        <v>3727</v>
+      </c>
+      <c r="E1142" s="47" t="s">
+        <v>3728</v>
       </c>
       <c r="F1142" s="11"/>
       <c r="G1142" s="11"/>
@@ -39914,230 +39885,235 @@
         <v>114</v>
       </c>
     </row>
-    <row r="1143" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1143" s="64" t="s">
+    <row r="1143" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1143" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1143" s="64"/>
-      <c r="C1143" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1143" s="63" t="s">
-        <v>4268</v>
-      </c>
-      <c r="E1143" s="63" t="s">
-        <v>4269</v>
-      </c>
-      <c r="F1143" s="62"/>
-      <c r="G1143" s="62"/>
-      <c r="H1143" s="61"/>
-      <c r="I1143" s="61" t="s">
+      <c r="C1143" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1143" s="11" t="s">
+        <v>4095</v>
+      </c>
+      <c r="E1143" s="11" t="s">
+        <v>4241</v>
+      </c>
+      <c r="F1143" s="11"/>
+      <c r="G1143" s="11"/>
+      <c r="I1143" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1143" s="61"/>
-      <c r="K1143" s="61"/>
-    </row>
-    <row r="1144" spans="1:11" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="1144" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1144" s="35" t="s">
         <v>1866</v>
       </c>
       <c r="B1144" s="35"/>
       <c r="C1144" s="35" t="s">
-        <v>1891</v>
+        <v>1104</v>
       </c>
       <c r="D1144" s="37" t="s">
-        <v>1892</v>
+        <v>1868</v>
       </c>
       <c r="E1144" s="28" t="s">
-        <v>3643</v>
+        <v>3604</v>
       </c>
       <c r="F1144" s="12"/>
       <c r="G1144" s="12"/>
       <c r="H1144" s="13"/>
-      <c r="I1144" s="10" t="s">
+      <c r="I1144" s="13" t="s">
         <v>114</v>
       </c>
       <c r="J1144" s="13"/>
       <c r="K1144" s="13"/>
     </row>
-    <row r="1145" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1145" s="35" t="s">
+    <row r="1145" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1145" s="55" t="s">
         <v>1866</v>
       </c>
-      <c r="B1145" s="35"/>
-      <c r="C1145" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1145" s="37" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E1145" s="28" t="s">
-        <v>3644</v>
-      </c>
-      <c r="F1145" s="12"/>
-      <c r="G1145" s="12"/>
-      <c r="H1145" s="13"/>
-      <c r="I1145" s="13" t="s">
+      <c r="B1145" s="55"/>
+      <c r="C1145" s="55" t="s">
+        <v>916</v>
+      </c>
+      <c r="D1145" s="56" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E1145" s="56" t="s">
+        <v>3605</v>
+      </c>
+      <c r="F1145" s="20"/>
+      <c r="G1145" s="20"/>
+      <c r="H1145" s="54"/>
+      <c r="I1145" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="J1145" s="13"/>
-      <c r="K1145" s="13"/>
+      <c r="J1145" s="54"/>
+      <c r="K1145" s="54"/>
     </row>
     <row r="1146" spans="1:11" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A1146" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="C1146" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1146" s="11" t="s">
-        <v>4313</v>
-      </c>
-      <c r="E1146" s="11" t="s">
-        <v>4314</v>
+      <c r="B1146" s="24"/>
+      <c r="C1146" s="24" t="s">
+        <v>3607</v>
+      </c>
+      <c r="D1146" s="26" t="s">
+        <v>3606</v>
+      </c>
+      <c r="E1146" s="28" t="s">
+        <v>3608</v>
       </c>
       <c r="F1146" s="11"/>
       <c r="G1146" s="11"/>
-    </row>
-    <row r="1147" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1147" s="35" t="s">
+      <c r="I1146" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A1147" s="64" t="s">
         <v>1866</v>
       </c>
-      <c r="B1147" s="35"/>
-      <c r="C1147" s="35" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D1147" s="37" t="s">
-        <v>1872</v>
-      </c>
-      <c r="E1147" s="28" t="s">
-        <v>3609</v>
-      </c>
-      <c r="F1147" s="12"/>
-      <c r="G1147" s="12"/>
-      <c r="H1147" s="13"/>
-      <c r="I1147" s="13" t="s">
+      <c r="B1147" s="64"/>
+      <c r="C1147" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1147" s="63" t="s">
+        <v>4268</v>
+      </c>
+      <c r="E1147" s="63" t="s">
+        <v>4269</v>
+      </c>
+      <c r="F1147" s="62"/>
+      <c r="G1147" s="62"/>
+      <c r="H1147" s="61"/>
+      <c r="I1147" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="J1147" s="13"/>
-      <c r="K1147" s="13"/>
-    </row>
-    <row r="1148" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1148" s="55" t="s">
+      <c r="J1147" s="61"/>
+      <c r="K1147" s="61"/>
+    </row>
+    <row r="1148" spans="1:11" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A1148" s="35" t="s">
         <v>1866</v>
       </c>
-      <c r="B1148" s="54"/>
-      <c r="C1148" s="54" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1148" s="20" t="s">
-        <v>1873</v>
-      </c>
-      <c r="E1148" s="56" t="s">
-        <v>3673</v>
-      </c>
-      <c r="F1148" s="20"/>
-      <c r="G1148" s="20"/>
-      <c r="H1148" s="54"/>
-      <c r="I1148" s="54" t="s">
+      <c r="B1148" s="35"/>
+      <c r="C1148" s="35" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D1148" s="37" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E1148" s="28" t="s">
+        <v>3643</v>
+      </c>
+      <c r="F1148" s="12"/>
+      <c r="G1148" s="12"/>
+      <c r="H1148" s="13"/>
+      <c r="I1148" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1148" s="54"/>
-      <c r="K1148" s="54"/>
-    </row>
-    <row r="1149" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="J1148" s="13"/>
+      <c r="K1148" s="13"/>
+    </row>
+    <row r="1149" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1149" s="35" t="s">
         <v>1866</v>
       </c>
       <c r="B1149" s="35"/>
       <c r="C1149" s="35" t="s">
-        <v>1893</v>
+        <v>447</v>
       </c>
       <c r="D1149" s="37" t="s">
-        <v>1894</v>
-      </c>
-      <c r="E1149" s="37" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F1149" s="11"/>
-      <c r="G1149" s="11"/>
-      <c r="I1149" s="10" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E1149" s="28" t="s">
+        <v>3644</v>
+      </c>
+      <c r="F1149" s="12"/>
+      <c r="G1149" s="12"/>
+      <c r="H1149" s="13"/>
+      <c r="I1149" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="1150" spans="1:11" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="J1149" s="13"/>
+      <c r="K1149" s="13"/>
+    </row>
+    <row r="1150" spans="1:11" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A1150" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1150" s="24"/>
-      <c r="C1150" s="24" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D1150" s="26" t="s">
-        <v>1626</v>
-      </c>
-      <c r="E1150" s="26" t="s">
-        <v>3646</v>
+      <c r="C1150" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1150" s="11" t="s">
+        <v>4313</v>
+      </c>
+      <c r="E1150" s="11" t="s">
+        <v>4314</v>
       </c>
       <c r="F1150" s="11"/>
       <c r="G1150" s="11"/>
-      <c r="I1150" s="10" t="s">
+    </row>
+    <row r="1151" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1151" s="35" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1151" s="35"/>
+      <c r="C1151" s="35" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D1151" s="37" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E1151" s="28" t="s">
+        <v>3609</v>
+      </c>
+      <c r="F1151" s="12"/>
+      <c r="G1151" s="12"/>
+      <c r="H1151" s="13"/>
+      <c r="I1151" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="1151" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1151" s="24" t="s">
+      <c r="J1151" s="13"/>
+      <c r="K1151" s="13"/>
+    </row>
+    <row r="1152" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1152" s="55" t="s">
         <v>1866</v>
       </c>
-      <c r="B1151" s="24"/>
-      <c r="C1151" s="24" t="s">
-        <v>3617</v>
-      </c>
-      <c r="D1151" s="26" t="s">
-        <v>3618</v>
-      </c>
-      <c r="E1151" s="26" t="s">
-        <v>3619</v>
-      </c>
-      <c r="F1151" s="11"/>
-      <c r="G1151" s="11"/>
-      <c r="I1151" s="10" t="s">
+      <c r="B1152" s="54"/>
+      <c r="C1152" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1152" s="20" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E1152" s="56" t="s">
+        <v>3673</v>
+      </c>
+      <c r="F1152" s="20"/>
+      <c r="G1152" s="20"/>
+      <c r="H1152" s="54"/>
+      <c r="I1152" s="54" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="1152" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1152" s="24" t="s">
+      <c r="J1152" s="54"/>
+      <c r="K1152" s="54"/>
+    </row>
+    <row r="1153" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1153" s="35" t="s">
         <v>1866</v>
       </c>
-      <c r="B1152" s="24"/>
-      <c r="C1152" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1152" s="26" t="s">
-        <v>4242</v>
-      </c>
-      <c r="E1152" s="26" t="s">
-        <v>4243</v>
-      </c>
-      <c r="F1152" s="11"/>
-      <c r="G1152" s="11"/>
-      <c r="I1152" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1153" s="24" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B1153" s="24"/>
-      <c r="C1153" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="D1153" s="26" t="s">
-        <v>4244</v>
-      </c>
-      <c r="E1153" s="26" t="s">
-        <v>4245</v>
+      <c r="B1153" s="35"/>
+      <c r="C1153" s="35" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D1153" s="37" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E1153" s="37" t="s">
+        <v>1895</v>
       </c>
       <c r="F1153" s="11"/>
       <c r="G1153" s="11"/>
@@ -40145,217 +40121,211 @@
         <v>114</v>
       </c>
     </row>
-    <row r="1154" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1154" spans="1:11" s="10" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A1154" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1154" s="24"/>
       <c r="C1154" s="24" t="s">
-        <v>351</v>
+        <v>1625</v>
       </c>
       <c r="D1154" s="26" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E1154" s="37" t="s">
-        <v>3645</v>
-      </c>
-      <c r="F1154" s="12"/>
-      <c r="G1154" s="12"/>
-      <c r="H1154" s="13"/>
-      <c r="I1154" s="13" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E1154" s="26" t="s">
+        <v>3646</v>
+      </c>
+      <c r="F1154" s="11"/>
+      <c r="G1154" s="11"/>
+      <c r="I1154" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1154" s="13"/>
-      <c r="K1154" s="13"/>
-    </row>
-    <row r="1155" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="1155" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1155" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1155" s="24"/>
       <c r="C1155" s="24" t="s">
-        <v>503</v>
+        <v>3617</v>
       </c>
       <c r="D1155" s="26" t="s">
-        <v>4246</v>
-      </c>
-      <c r="E1155" s="37" t="s">
-        <v>4247</v>
-      </c>
-      <c r="F1155" s="12"/>
-      <c r="G1155" s="12"/>
-      <c r="H1155" s="13"/>
-      <c r="I1155" s="13" t="s">
+        <v>3618</v>
+      </c>
+      <c r="E1155" s="26" t="s">
+        <v>3619</v>
+      </c>
+      <c r="F1155" s="11"/>
+      <c r="G1155" s="11"/>
+      <c r="I1155" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1155" s="13"/>
-      <c r="K1155" s="13"/>
     </row>
     <row r="1156" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1156" s="55" t="s">
+      <c r="A1156" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1156" s="55"/>
-      <c r="C1156" s="55" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D1156" s="56" t="s">
-        <v>1875</v>
-      </c>
-      <c r="E1156" s="56" t="s">
-        <v>3610</v>
-      </c>
-      <c r="F1156" s="20"/>
-      <c r="G1156" s="20"/>
-      <c r="H1156" s="54"/>
-      <c r="I1156" s="54" t="s">
+      <c r="B1156" s="24"/>
+      <c r="C1156" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1156" s="26" t="s">
+        <v>4242</v>
+      </c>
+      <c r="E1156" s="26" t="s">
+        <v>4243</v>
+      </c>
+      <c r="F1156" s="11"/>
+      <c r="G1156" s="11"/>
+      <c r="I1156" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1156" s="54"/>
-      <c r="K1156" s="54"/>
-    </row>
-    <row r="1157" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1157" s="35" t="s">
+    </row>
+    <row r="1157" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1157" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1157" s="35"/>
-      <c r="C1157" s="35" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D1157" s="37" t="s">
-        <v>1877</v>
-      </c>
-      <c r="E1157" s="37" t="s">
-        <v>4103</v>
-      </c>
-      <c r="F1157" s="12"/>
-      <c r="G1157" s="12"/>
-      <c r="H1157" s="13"/>
-      <c r="I1157" s="13" t="s">
+      <c r="B1157" s="24"/>
+      <c r="C1157" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1157" s="26" t="s">
+        <v>4244</v>
+      </c>
+      <c r="E1157" s="26" t="s">
+        <v>4245</v>
+      </c>
+      <c r="F1157" s="11"/>
+      <c r="G1157" s="11"/>
+      <c r="I1157" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1157" s="13"/>
-      <c r="K1157" s="13"/>
-    </row>
-    <row r="1158" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="1158" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1158" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1158" s="24"/>
       <c r="C1158" s="24" t="s">
-        <v>3722</v>
+        <v>351</v>
       </c>
       <c r="D1158" s="26" t="s">
-        <v>3723</v>
-      </c>
-      <c r="E1158" s="47" t="s">
-        <v>3724</v>
-      </c>
-      <c r="F1158" s="11"/>
-      <c r="G1158" s="11"/>
-      <c r="I1158" s="10" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E1158" s="37" t="s">
+        <v>3645</v>
+      </c>
+      <c r="F1158" s="12"/>
+      <c r="G1158" s="12"/>
+      <c r="H1158" s="13"/>
+      <c r="I1158" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="1159" spans="1:11" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="J1158" s="13"/>
+      <c r="K1158" s="13"/>
+    </row>
+    <row r="1159" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1159" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1159" s="24"/>
       <c r="C1159" s="24" t="s">
-        <v>30</v>
+        <v>503</v>
       </c>
       <c r="D1159" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1159" s="26" t="s">
-        <v>3620</v>
-      </c>
-      <c r="F1159" s="11"/>
-      <c r="G1159" s="11"/>
-      <c r="I1159" s="10" t="s">
+        <v>4246</v>
+      </c>
+      <c r="E1159" s="37" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F1159" s="12"/>
+      <c r="G1159" s="12"/>
+      <c r="H1159" s="13"/>
+      <c r="I1159" s="13" t="s">
         <v>114</v>
       </c>
+      <c r="J1159" s="13"/>
+      <c r="K1159" s="13"/>
     </row>
     <row r="1160" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1160" s="24" t="s">
+      <c r="A1160" s="55" t="s">
         <v>1866</v>
       </c>
-      <c r="B1160" s="24"/>
-      <c r="C1160" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="D1160" s="26" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E1160" s="57" t="s">
-        <v>4248</v>
-      </c>
-      <c r="F1160" s="11"/>
-      <c r="G1160" s="11"/>
-      <c r="I1160" s="10" t="s">
+      <c r="B1160" s="55"/>
+      <c r="C1160" s="55" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D1160" s="56" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E1160" s="56" t="s">
+        <v>3610</v>
+      </c>
+      <c r="F1160" s="20"/>
+      <c r="G1160" s="20"/>
+      <c r="H1160" s="54"/>
+      <c r="I1160" s="54" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="1161" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1161" s="55" t="s">
+      <c r="J1160" s="54"/>
+      <c r="K1160" s="54"/>
+    </row>
+    <row r="1161" spans="1:11" s="10" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A1161" s="35" t="s">
         <v>1866</v>
       </c>
-      <c r="B1161" s="55"/>
-      <c r="C1161" s="55" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D1161" s="56" t="s">
-        <v>1879</v>
-      </c>
-      <c r="E1161" s="56" t="s">
-        <v>4238</v>
-      </c>
-      <c r="F1161" s="20"/>
-      <c r="G1161" s="20"/>
-      <c r="H1161" s="54"/>
-      <c r="I1161" s="54" t="s">
+      <c r="B1161" s="35"/>
+      <c r="C1161" s="35" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D1161" s="37" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E1161" s="37" t="s">
+        <v>4103</v>
+      </c>
+      <c r="F1161" s="12"/>
+      <c r="G1161" s="12"/>
+      <c r="H1161" s="13"/>
+      <c r="I1161" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1161" s="54"/>
-      <c r="K1161" s="54"/>
+      <c r="J1161" s="13"/>
+      <c r="K1161" s="13"/>
     </row>
     <row r="1162" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1162" s="55" t="s">
+      <c r="A1162" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1162" s="55"/>
-      <c r="C1162" s="55" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D1162" s="56" t="s">
-        <v>1881</v>
-      </c>
-      <c r="E1162" s="56" t="s">
-        <v>3612</v>
-      </c>
-      <c r="F1162" s="20"/>
-      <c r="G1162" s="20"/>
-      <c r="H1162" s="54"/>
-      <c r="I1162" s="54" t="s">
+      <c r="B1162" s="24"/>
+      <c r="C1162" s="24" t="s">
+        <v>3722</v>
+      </c>
+      <c r="D1162" s="26" t="s">
+        <v>3723</v>
+      </c>
+      <c r="E1162" s="47" t="s">
+        <v>3724</v>
+      </c>
+      <c r="F1162" s="11"/>
+      <c r="G1162" s="11"/>
+      <c r="I1162" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1162" s="54"/>
-      <c r="K1162" s="54"/>
-    </row>
-    <row r="1163" spans="1:11" s="10" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="1163" spans="1:11" s="10" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A1163" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1163" s="24"/>
       <c r="C1163" s="24" t="s">
-        <v>1156</v>
+        <v>30</v>
       </c>
       <c r="D1163" s="26" t="s">
-        <v>3621</v>
+        <v>167</v>
       </c>
       <c r="E1163" s="26" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="F1163" s="11"/>
       <c r="G1163" s="11"/>
@@ -40363,88 +40333,85 @@
         <v>114</v>
       </c>
     </row>
-    <row r="1164" spans="1:11" s="10" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1164" s="35" t="s">
+    <row r="1164" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1164" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1164" s="35"/>
-      <c r="C1164" s="35" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D1164" s="37" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E1164" s="28" t="s">
-        <v>3613</v>
-      </c>
-      <c r="F1164" s="12"/>
-      <c r="G1164" s="12"/>
-      <c r="H1164" s="13"/>
-      <c r="I1164" s="13" t="s">
+      <c r="B1164" s="24"/>
+      <c r="C1164" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1164" s="26" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E1164" s="57" t="s">
+        <v>4248</v>
+      </c>
+      <c r="F1164" s="11"/>
+      <c r="G1164" s="11"/>
+      <c r="I1164" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1164" s="13"/>
-      <c r="K1164" s="13"/>
-    </row>
-    <row r="1165" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1165" s="35" t="s">
+    </row>
+    <row r="1165" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1165" s="55" t="s">
         <v>1866</v>
       </c>
-      <c r="B1165" s="35"/>
-      <c r="C1165" s="35" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D1165" s="37" t="s">
-        <v>1882</v>
-      </c>
-      <c r="E1165" s="37" t="s">
-        <v>1883</v>
-      </c>
-      <c r="F1165" s="12"/>
-      <c r="G1165" s="12"/>
-      <c r="H1165" s="13"/>
-      <c r="I1165" s="13" t="s">
+      <c r="B1165" s="55"/>
+      <c r="C1165" s="55" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D1165" s="56" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E1165" s="56" t="s">
+        <v>4238</v>
+      </c>
+      <c r="F1165" s="20"/>
+      <c r="G1165" s="20"/>
+      <c r="H1165" s="54"/>
+      <c r="I1165" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="J1165" s="13"/>
-      <c r="K1165" s="13"/>
-    </row>
-    <row r="1166" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1166" s="24" t="s">
+      <c r="J1165" s="54"/>
+      <c r="K1165" s="54"/>
+    </row>
+    <row r="1166" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1166" s="55" t="s">
         <v>1866</v>
       </c>
-      <c r="B1166" s="24"/>
-      <c r="C1166" s="24" t="s">
-        <v>3639</v>
-      </c>
-      <c r="D1166" s="26" t="s">
-        <v>3640</v>
-      </c>
-      <c r="E1166" s="26" t="s">
-        <v>3641</v>
-      </c>
-      <c r="F1166" s="11"/>
-      <c r="G1166" s="11"/>
-      <c r="H1166" s="10"/>
-      <c r="I1166" s="10" t="s">
+      <c r="B1166" s="55"/>
+      <c r="C1166" s="55" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D1166" s="56" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E1166" s="56" t="s">
+        <v>3612</v>
+      </c>
+      <c r="F1166" s="20"/>
+      <c r="G1166" s="20"/>
+      <c r="H1166" s="54"/>
+      <c r="I1166" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="J1166" s="10"/>
-      <c r="K1166" s="10"/>
-    </row>
-    <row r="1167" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J1166" s="54"/>
+      <c r="K1166" s="54"/>
+    </row>
+    <row r="1167" spans="1:11" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A1167" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1167" s="24"/>
       <c r="C1167" s="24" t="s">
-        <v>3637</v>
+        <v>1156</v>
       </c>
       <c r="D1167" s="26" t="s">
-        <v>1624</v>
+        <v>3621</v>
       </c>
       <c r="E1167" s="26" t="s">
-        <v>3638</v>
+        <v>3622</v>
       </c>
       <c r="F1167" s="11"/>
       <c r="G1167" s="11"/>
@@ -40455,19 +40422,19 @@
       <c r="J1167" s="10"/>
       <c r="K1167" s="10"/>
     </row>
-    <row r="1168" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1168" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1168" s="35" t="s">
         <v>1866</v>
       </c>
       <c r="B1168" s="35"/>
       <c r="C1168" s="35" t="s">
-        <v>1884</v>
+        <v>1627</v>
       </c>
       <c r="D1168" s="37" t="s">
-        <v>1885</v>
+        <v>1628</v>
       </c>
       <c r="E1168" s="28" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="F1168" s="12"/>
       <c r="G1168" s="12"/>
@@ -40478,42 +40445,42 @@
       <c r="J1168" s="13"/>
       <c r="K1168" s="13"/>
     </row>
-    <row r="1169" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1169" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1169" s="35" t="s">
         <v>1866</v>
       </c>
-      <c r="B1169" s="10"/>
-      <c r="C1169" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="D1169" s="11" t="s">
-        <v>4148</v>
-      </c>
-      <c r="E1169" s="11" t="s">
-        <v>4149</v>
-      </c>
-      <c r="F1169" s="11"/>
-      <c r="G1169" s="11"/>
-      <c r="H1169" s="10"/>
-      <c r="I1169" s="10" t="s">
+      <c r="B1169" s="35"/>
+      <c r="C1169" s="35" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D1169" s="37" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E1169" s="37" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F1169" s="12"/>
+      <c r="G1169" s="12"/>
+      <c r="H1169" s="13"/>
+      <c r="I1169" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1169" s="10"/>
-      <c r="K1169" s="10"/>
-    </row>
-    <row r="1170" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J1169" s="13"/>
+      <c r="K1169" s="13"/>
+    </row>
+    <row r="1170" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1170" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1170" s="24"/>
       <c r="C1170" s="24" t="s">
-        <v>125</v>
+        <v>3639</v>
       </c>
       <c r="D1170" s="26" t="s">
-        <v>3674</v>
+        <v>3640</v>
       </c>
       <c r="E1170" s="26" t="s">
-        <v>3679</v>
+        <v>3641</v>
       </c>
       <c r="F1170" s="11"/>
       <c r="G1170" s="11"/>
@@ -40530,55 +40497,59 @@
       </c>
       <c r="B1171" s="24"/>
       <c r="C1171" s="24" t="s">
-        <v>3867</v>
+        <v>3637</v>
       </c>
       <c r="D1171" s="26" t="s">
-        <v>3868</v>
-      </c>
-      <c r="E1171" s="43"/>
+        <v>1624</v>
+      </c>
+      <c r="E1171" s="26" t="s">
+        <v>3638</v>
+      </c>
       <c r="F1171" s="11"/>
       <c r="G1171" s="11"/>
       <c r="H1171" s="10"/>
-      <c r="I1171" s="10"/>
+      <c r="I1171" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="J1171" s="10"/>
       <c r="K1171" s="10"/>
     </row>
     <row r="1172" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1172" s="24" t="s">
+      <c r="A1172" s="35" t="s">
         <v>1866</v>
       </c>
-      <c r="B1172" s="24"/>
-      <c r="C1172" s="24" t="s">
-        <v>4249</v>
-      </c>
-      <c r="D1172" s="26" t="s">
-        <v>4251</v>
-      </c>
-      <c r="E1172" s="57" t="s">
-        <v>4252</v>
-      </c>
-      <c r="F1172" s="11"/>
-      <c r="G1172" s="11"/>
-      <c r="H1172" s="10"/>
-      <c r="I1172" s="10" t="s">
+      <c r="B1172" s="35"/>
+      <c r="C1172" s="35" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D1172" s="37" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E1172" s="28" t="s">
+        <v>3614</v>
+      </c>
+      <c r="F1172" s="12"/>
+      <c r="G1172" s="12"/>
+      <c r="H1172" s="13"/>
+      <c r="I1172" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1172" s="10"/>
-      <c r="K1172" s="10"/>
+      <c r="J1172" s="13"/>
+      <c r="K1172" s="13"/>
     </row>
     <row r="1173" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1173" s="24" t="s">
+      <c r="A1173" s="35" t="s">
         <v>1866</v>
       </c>
-      <c r="B1173" s="24"/>
-      <c r="C1173" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1173" s="26" t="s">
-        <v>4250</v>
-      </c>
-      <c r="E1173" s="57" t="s">
-        <v>4253</v>
+      <c r="B1173" s="10"/>
+      <c r="C1173" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1173" s="11" t="s">
+        <v>4148</v>
+      </c>
+      <c r="E1173" s="11" t="s">
+        <v>4149</v>
       </c>
       <c r="F1173" s="11"/>
       <c r="G1173" s="11"/>
@@ -40595,13 +40566,13 @@
       </c>
       <c r="B1174" s="24"/>
       <c r="C1174" s="24" t="s">
-        <v>1833</v>
+        <v>125</v>
       </c>
       <c r="D1174" s="26" t="s">
-        <v>3725</v>
-      </c>
-      <c r="E1174" s="47" t="s">
-        <v>3726</v>
+        <v>3674</v>
+      </c>
+      <c r="E1174" s="26" t="s">
+        <v>3679</v>
       </c>
       <c r="F1174" s="11"/>
       <c r="G1174" s="11"/>
@@ -40613,41 +40584,37 @@
       <c r="K1174" s="10"/>
     </row>
     <row r="1175" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1175" s="55" t="s">
+      <c r="A1175" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1175" s="55"/>
-      <c r="C1175" s="55" t="s">
-        <v>581</v>
-      </c>
-      <c r="D1175" s="56" t="s">
-        <v>1886</v>
-      </c>
-      <c r="E1175" s="56" t="s">
-        <v>4238</v>
-      </c>
-      <c r="F1175" s="20"/>
-      <c r="G1175" s="20"/>
-      <c r="H1175" s="54"/>
-      <c r="I1175" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1175" s="54"/>
-      <c r="K1175" s="54"/>
-    </row>
-    <row r="1176" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B1175" s="24"/>
+      <c r="C1175" s="24" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D1175" s="26" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E1175" s="43"/>
+      <c r="F1175" s="11"/>
+      <c r="G1175" s="11"/>
+      <c r="H1175" s="10"/>
+      <c r="I1175" s="10"/>
+      <c r="J1175" s="10"/>
+      <c r="K1175" s="10"/>
+    </row>
+    <row r="1176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1176" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1176" s="24"/>
       <c r="C1176" s="24" t="s">
-        <v>3623</v>
+        <v>4249</v>
       </c>
       <c r="D1176" s="26" t="s">
-        <v>3624</v>
-      </c>
-      <c r="E1176" s="26" t="s">
-        <v>3625</v>
+        <v>4251</v>
+      </c>
+      <c r="E1176" s="57" t="s">
+        <v>4252</v>
       </c>
       <c r="F1176" s="11"/>
       <c r="G1176" s="11"/>
@@ -40658,42 +40625,42 @@
       <c r="J1176" s="10"/>
       <c r="K1176" s="10"/>
     </row>
-    <row r="1177" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1177" s="35" t="s">
+    <row r="1177" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1177" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1177" s="35"/>
-      <c r="C1177" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1177" s="37" t="s">
-        <v>1887</v>
-      </c>
-      <c r="E1177" s="28" t="s">
-        <v>3615</v>
-      </c>
-      <c r="F1177" s="12"/>
-      <c r="G1177" s="12"/>
-      <c r="H1177" s="13"/>
-      <c r="I1177" s="13" t="s">
+      <c r="B1177" s="24"/>
+      <c r="C1177" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1177" s="26" t="s">
+        <v>4250</v>
+      </c>
+      <c r="E1177" s="57" t="s">
+        <v>4253</v>
+      </c>
+      <c r="F1177" s="11"/>
+      <c r="G1177" s="11"/>
+      <c r="H1177" s="10"/>
+      <c r="I1177" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1177" s="13"/>
-      <c r="K1177" s="13"/>
-    </row>
-    <row r="1178" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="J1177" s="10"/>
+      <c r="K1177" s="10"/>
+    </row>
+    <row r="1178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1178" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1178" s="24"/>
       <c r="C1178" s="24" t="s">
-        <v>3626</v>
+        <v>1833</v>
       </c>
       <c r="D1178" s="26" t="s">
-        <v>3627</v>
-      </c>
-      <c r="E1178" s="26" t="s">
-        <v>3628</v>
+        <v>3725</v>
+      </c>
+      <c r="E1178" s="47" t="s">
+        <v>3726</v>
       </c>
       <c r="F1178" s="11"/>
       <c r="G1178" s="11"/>
@@ -40710,13 +40677,13 @@
       </c>
       <c r="B1179" s="55"/>
       <c r="C1179" s="55" t="s">
-        <v>1888</v>
+        <v>581</v>
       </c>
       <c r="D1179" s="56" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="E1179" s="56" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="F1179" s="20"/>
       <c r="G1179" s="20"/>
@@ -40727,65 +40694,65 @@
       <c r="J1179" s="54"/>
       <c r="K1179" s="54"/>
     </row>
-    <row r="1180" spans="1:11" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="A1180" s="35" t="s">
+    <row r="1180" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1180" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1180" s="35"/>
-      <c r="C1180" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1180" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1180" s="28" t="s">
-        <v>3616</v>
-      </c>
-      <c r="F1180" s="12"/>
-      <c r="G1180" s="12"/>
-      <c r="H1180" s="13"/>
-      <c r="I1180" s="13" t="s">
+      <c r="B1180" s="24"/>
+      <c r="C1180" s="24" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D1180" s="26" t="s">
+        <v>3624</v>
+      </c>
+      <c r="E1180" s="26" t="s">
+        <v>3625</v>
+      </c>
+      <c r="F1180" s="11"/>
+      <c r="G1180" s="11"/>
+      <c r="H1180" s="10"/>
+      <c r="I1180" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="J1180" s="13"/>
-      <c r="K1180" s="13"/>
-    </row>
-    <row r="1181" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1181" s="24" t="s">
+      <c r="J1180" s="10"/>
+      <c r="K1180" s="10"/>
+    </row>
+    <row r="1181" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A1181" s="35" t="s">
         <v>1866</v>
       </c>
-      <c r="B1181" s="24"/>
-      <c r="C1181" s="24" t="s">
-        <v>3676</v>
-      </c>
-      <c r="D1181" s="26" t="s">
-        <v>3671</v>
-      </c>
-      <c r="E1181" s="26" t="s">
-        <v>3678</v>
-      </c>
-      <c r="F1181" s="11"/>
-      <c r="G1181" s="11"/>
-      <c r="H1181" s="10"/>
-      <c r="I1181" s="10" t="s">
+      <c r="B1181" s="35"/>
+      <c r="C1181" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1181" s="37" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E1181" s="28" t="s">
+        <v>3615</v>
+      </c>
+      <c r="F1181" s="12"/>
+      <c r="G1181" s="12"/>
+      <c r="H1181" s="13"/>
+      <c r="I1181" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1181" s="10"/>
-      <c r="K1181" s="10"/>
-    </row>
-    <row r="1182" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J1181" s="13"/>
+      <c r="K1181" s="13"/>
+    </row>
+    <row r="1182" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1182" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1182" s="24"/>
       <c r="C1182" s="24" t="s">
-        <v>75</v>
+        <v>3626</v>
       </c>
       <c r="D1182" s="26" t="s">
-        <v>4254</v>
+        <v>3627</v>
       </c>
       <c r="E1182" s="26" t="s">
-        <v>4255</v>
+        <v>3628</v>
       </c>
       <c r="F1182" s="11"/>
       <c r="G1182" s="11"/>
@@ -40796,65 +40763,65 @@
       <c r="J1182" s="10"/>
       <c r="K1182" s="10"/>
     </row>
-    <row r="1183" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1183" s="24" t="s">
+    <row r="1183" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1183" s="55" t="s">
         <v>1866</v>
       </c>
-      <c r="B1183" s="24"/>
-      <c r="C1183" s="24" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D1183" s="26" t="s">
-        <v>3629</v>
-      </c>
-      <c r="E1183" s="26" t="s">
-        <v>3630</v>
-      </c>
-      <c r="F1183" s="11"/>
-      <c r="G1183" s="11"/>
-      <c r="H1183" s="10"/>
-      <c r="I1183" s="10" t="s">
+      <c r="B1183" s="55"/>
+      <c r="C1183" s="55" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D1183" s="56" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E1183" s="56" t="s">
+        <v>4239</v>
+      </c>
+      <c r="F1183" s="20"/>
+      <c r="G1183" s="20"/>
+      <c r="H1183" s="54"/>
+      <c r="I1183" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="J1183" s="10"/>
-      <c r="K1183" s="10"/>
-    </row>
-    <row r="1184" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A1184" s="24" t="s">
+      <c r="J1183" s="54"/>
+      <c r="K1183" s="54"/>
+    </row>
+    <row r="1184" spans="1:11" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A1184" s="35" t="s">
         <v>1866</v>
       </c>
-      <c r="B1184" s="24"/>
-      <c r="C1184" s="24" t="s">
-        <v>3631</v>
-      </c>
-      <c r="D1184" s="26" t="s">
-        <v>3632</v>
-      </c>
-      <c r="E1184" s="26" t="s">
-        <v>3642</v>
-      </c>
-      <c r="F1184" s="11"/>
-      <c r="G1184" s="11"/>
-      <c r="H1184" s="10"/>
-      <c r="I1184" s="10" t="s">
+      <c r="B1184" s="35"/>
+      <c r="C1184" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1184" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1184" s="28" t="s">
+        <v>3616</v>
+      </c>
+      <c r="F1184" s="12"/>
+      <c r="G1184" s="12"/>
+      <c r="H1184" s="13"/>
+      <c r="I1184" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1184" s="10"/>
-      <c r="K1184" s="10"/>
-    </row>
-    <row r="1185" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="A1185" s="35" t="s">
+      <c r="J1184" s="13"/>
+      <c r="K1184" s="13"/>
+    </row>
+    <row r="1185" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1185" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1185" s="24"/>
       <c r="C1185" s="24" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D1185" s="36" t="s">
-        <v>3602</v>
-      </c>
-      <c r="E1185" s="28" t="s">
-        <v>3603</v>
+        <v>3676</v>
+      </c>
+      <c r="D1185" s="26" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E1185" s="26" t="s">
+        <v>3678</v>
       </c>
       <c r="F1185" s="11"/>
       <c r="G1185" s="11"/>
@@ -40869,15 +40836,15 @@
       <c r="A1186" s="24" t="s">
         <v>1866</v>
       </c>
-      <c r="B1186" s="10"/>
-      <c r="C1186" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D1186" s="11" t="s">
-        <v>3720</v>
-      </c>
-      <c r="E1186" s="34" t="s">
-        <v>3721</v>
+      <c r="B1186" s="24"/>
+      <c r="C1186" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1186" s="26" t="s">
+        <v>4254</v>
+      </c>
+      <c r="E1186" s="26" t="s">
+        <v>4255</v>
       </c>
       <c r="F1186" s="11"/>
       <c r="G1186" s="11"/>
@@ -40888,19 +40855,19 @@
       <c r="J1186" s="10"/>
       <c r="K1186" s="10"/>
     </row>
-    <row r="1187" spans="1:11" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="1187" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1187" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1187" s="24"/>
       <c r="C1187" s="24" t="s">
-        <v>20</v>
+        <v>1070</v>
       </c>
       <c r="D1187" s="26" t="s">
-        <v>3633</v>
+        <v>3629</v>
       </c>
       <c r="E1187" s="26" t="s">
-        <v>3634</v>
+        <v>3630</v>
       </c>
       <c r="F1187" s="11"/>
       <c r="G1187" s="11"/>
@@ -40911,19 +40878,19 @@
       <c r="J1187" s="10"/>
       <c r="K1187" s="10"/>
     </row>
-    <row r="1188" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="1188" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A1188" s="24" t="s">
         <v>1866</v>
       </c>
       <c r="B1188" s="24"/>
       <c r="C1188" s="24" t="s">
-        <v>1278</v>
+        <v>3631</v>
       </c>
       <c r="D1188" s="26" t="s">
-        <v>3635</v>
+        <v>3632</v>
       </c>
       <c r="E1188" s="26" t="s">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="F1188" s="11"/>
       <c r="G1188" s="11"/>
@@ -40934,19 +40901,19 @@
       <c r="J1188" s="10"/>
       <c r="K1188" s="10"/>
     </row>
-    <row r="1189" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1189" s="24" t="s">
+    <row r="1189" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A1189" s="35" t="s">
         <v>1866</v>
       </c>
-      <c r="B1189" s="10"/>
-      <c r="C1189" s="10" t="s">
-        <v>4256</v>
-      </c>
-      <c r="D1189" s="11" t="s">
-        <v>4257</v>
-      </c>
-      <c r="E1189" s="58" t="s">
-        <v>4258</v>
+      <c r="B1189" s="24"/>
+      <c r="C1189" s="24" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D1189" s="36" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E1189" s="28" t="s">
+        <v>3603</v>
       </c>
       <c r="F1189" s="11"/>
       <c r="G1189" s="11"/>
@@ -40957,208 +40924,208 @@
       <c r="J1189" s="10"/>
       <c r="K1189" s="10"/>
     </row>
-    <row r="1190" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1190" s="35" t="s">
+    <row r="1190" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1190" s="24" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1190" s="10"/>
+      <c r="C1190" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1190" s="11" t="s">
+        <v>3720</v>
+      </c>
+      <c r="E1190" s="34" t="s">
+        <v>3721</v>
+      </c>
+      <c r="F1190" s="11"/>
+      <c r="G1190" s="11"/>
+      <c r="H1190" s="10"/>
+      <c r="I1190" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1190" s="10"/>
+      <c r="K1190" s="10"/>
+    </row>
+    <row r="1191" spans="1:11" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A1191" s="24" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1191" s="24"/>
+      <c r="C1191" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1191" s="26" t="s">
+        <v>3633</v>
+      </c>
+      <c r="E1191" s="26" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F1191" s="11"/>
+      <c r="G1191" s="11"/>
+      <c r="H1191" s="10"/>
+      <c r="I1191" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1191" s="10"/>
+      <c r="K1191" s="10"/>
+    </row>
+    <row r="1192" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A1192" s="24" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1192" s="24"/>
+      <c r="C1192" s="24" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D1192" s="26" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E1192" s="26" t="s">
+        <v>3636</v>
+      </c>
+      <c r="F1192" s="11"/>
+      <c r="G1192" s="11"/>
+      <c r="H1192" s="10"/>
+      <c r="I1192" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1192" s="10"/>
+      <c r="K1192" s="10"/>
+    </row>
+    <row r="1193" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1193" s="24" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1193" s="10"/>
+      <c r="C1193" s="10" t="s">
+        <v>4256</v>
+      </c>
+      <c r="D1193" s="11" t="s">
+        <v>4257</v>
+      </c>
+      <c r="E1193" s="58" t="s">
+        <v>4258</v>
+      </c>
+      <c r="F1193" s="11"/>
+      <c r="G1193" s="11"/>
+      <c r="H1193" s="10"/>
+      <c r="I1193" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1193" s="10"/>
+      <c r="K1193" s="10"/>
+    </row>
+    <row r="1194" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1194" s="35" t="s">
         <v>1896</v>
       </c>
-      <c r="B1190" s="13"/>
-      <c r="C1190" s="13" t="s">
+      <c r="B1194" s="13"/>
+      <c r="C1194" s="13" t="s">
         <v>1897</v>
       </c>
-      <c r="D1190" s="12" t="s">
+      <c r="D1194" s="12" t="s">
         <v>1898</v>
       </c>
-      <c r="E1190" s="12" t="s">
+      <c r="E1194" s="12" t="s">
         <v>1899</v>
       </c>
-      <c r="F1190" s="12"/>
-      <c r="G1190" s="12"/>
-      <c r="H1190" s="13"/>
-      <c r="I1190" s="13" t="s">
+      <c r="F1194" s="12"/>
+      <c r="G1194" s="12"/>
+      <c r="H1194" s="13"/>
+      <c r="I1194" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1190" s="13"/>
-      <c r="K1190" s="13"/>
-    </row>
-    <row r="1191" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1191" s="35" t="s">
+      <c r="J1194" s="13"/>
+      <c r="K1194" s="13"/>
+    </row>
+    <row r="1195" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A1195" s="35" t="s">
         <v>1896</v>
-      </c>
-      <c r="B1191" s="13"/>
-      <c r="C1191" s="13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D1191" s="12" t="s">
-        <v>1901</v>
-      </c>
-      <c r="E1191" s="12" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F1191" s="12"/>
-      <c r="G1191" s="12"/>
-      <c r="H1191" s="13"/>
-      <c r="I1191" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1191" s="13"/>
-      <c r="K1191" s="13"/>
-    </row>
-    <row r="1192" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1192" s="35" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B1192" s="13"/>
-      <c r="C1192" s="13" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D1192" s="12" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E1192" s="12" t="s">
-        <v>1905</v>
-      </c>
-      <c r="F1192" s="12"/>
-      <c r="G1192" s="12"/>
-      <c r="H1192" s="13"/>
-      <c r="I1192" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1192" s="13"/>
-      <c r="K1192" s="13"/>
-    </row>
-    <row r="1193" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1193" s="40" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B1193" s="14"/>
-      <c r="C1193" s="14" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D1193" s="14" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E1193" s="15"/>
-      <c r="F1193" s="15"/>
-      <c r="G1193" s="15"/>
-      <c r="H1193" s="14"/>
-      <c r="I1193" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1193" s="14"/>
-      <c r="K1193" s="14"/>
-    </row>
-    <row r="1194" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1194" s="40" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B1194" s="14"/>
-      <c r="C1194" s="14" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D1194" s="14" t="s">
-        <v>1910</v>
-      </c>
-      <c r="E1194" s="15"/>
-      <c r="F1194" s="15"/>
-      <c r="G1194" s="15"/>
-      <c r="H1194" s="14"/>
-      <c r="I1194" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1194" s="14"/>
-      <c r="K1194" s="14"/>
-    </row>
-    <row r="1195" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1195" s="35" t="s">
-        <v>1911</v>
       </c>
       <c r="B1195" s="13"/>
       <c r="C1195" s="13" t="s">
-        <v>12</v>
+        <v>1900</v>
       </c>
       <c r="D1195" s="12" t="s">
-        <v>1932</v>
+        <v>1901</v>
       </c>
       <c r="E1195" s="12" t="s">
-        <v>1933</v>
+        <v>1902</v>
       </c>
       <c r="F1195" s="12"/>
       <c r="G1195" s="12"/>
       <c r="H1195" s="13"/>
       <c r="I1195" s="13" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J1195" s="13"/>
       <c r="K1195" s="13"/>
     </row>
-    <row r="1196" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1196" s="35" t="s">
-        <v>1911</v>
+        <v>1896</v>
       </c>
       <c r="B1196" s="13"/>
       <c r="C1196" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="D1196" s="13" t="s">
-        <v>1912</v>
+        <v>1903</v>
+      </c>
+      <c r="D1196" s="12" t="s">
+        <v>1904</v>
       </c>
       <c r="E1196" s="12" t="s">
-        <v>1913</v>
+        <v>1905</v>
       </c>
       <c r="F1196" s="12"/>
       <c r="G1196" s="12"/>
-      <c r="H1196" s="12"/>
+      <c r="H1196" s="13"/>
       <c r="I1196" s="13" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J1196" s="13"/>
       <c r="K1196" s="13"/>
     </row>
     <row r="1197" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1197" s="24" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B1197" s="10"/>
-      <c r="C1197" s="10" t="s">
-        <v>3927</v>
-      </c>
-      <c r="D1197" s="11" t="s">
-        <v>3928</v>
-      </c>
-      <c r="E1197" s="11" t="s">
-        <v>3929</v>
-      </c>
-      <c r="F1197" s="11"/>
-      <c r="G1197" s="11"/>
-      <c r="H1197" s="10"/>
-      <c r="I1197" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1197" s="10"/>
-      <c r="K1197" s="10"/>
-    </row>
-    <row r="1198" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1198" s="13" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B1198" s="13"/>
-      <c r="C1198" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1198" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1198" s="12" t="s">
-        <v>1914</v>
-      </c>
-      <c r="F1198" s="12"/>
-      <c r="G1198" s="12"/>
-      <c r="H1198" s="12"/>
+      <c r="A1197" s="40" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1197" s="14"/>
+      <c r="C1197" s="14" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D1197" s="14" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1197" s="15"/>
+      <c r="F1197" s="15"/>
+      <c r="G1197" s="15"/>
+      <c r="H1197" s="14"/>
+      <c r="I1197" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1197" s="14"/>
+      <c r="K1197" s="14"/>
+    </row>
+    <row r="1198" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1198" s="40" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1198" s="14"/>
+      <c r="C1198" s="14" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1198" s="14" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E1198" s="15"/>
+      <c r="F1198" s="15"/>
+      <c r="G1198" s="15"/>
+      <c r="H1198" s="14"/>
       <c r="I1198" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1198" s="13"/>
-      <c r="K1198" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="J1198" s="14"/>
+      <c r="K1198" s="14"/>
     </row>
     <row r="1199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1199" s="35" t="s">
@@ -41166,36 +41133,36 @@
       </c>
       <c r="B1199" s="13"/>
       <c r="C1199" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D1199" s="13" t="s">
-        <v>666</v>
+        <v>12</v>
+      </c>
+      <c r="D1199" s="12" t="s">
+        <v>1932</v>
       </c>
       <c r="E1199" s="12" t="s">
-        <v>1915</v>
+        <v>1933</v>
       </c>
       <c r="F1199" s="12"/>
       <c r="G1199" s="12"/>
-      <c r="H1199" s="12"/>
+      <c r="H1199" s="13"/>
       <c r="I1199" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1199" s="13"/>
       <c r="K1199" s="13"/>
     </row>
-    <row r="1200" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1200" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1200" s="35" t="s">
         <v>1911</v>
       </c>
       <c r="B1200" s="13"/>
       <c r="C1200" s="13" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D1200" s="13" t="s">
-        <v>382</v>
+        <v>1912</v>
       </c>
       <c r="E1200" s="12" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="F1200" s="12"/>
       <c r="G1200" s="12"/>
@@ -41206,88 +41173,88 @@
       <c r="J1200" s="13"/>
       <c r="K1200" s="13"/>
     </row>
-    <row r="1201" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1201" s="35" t="s">
+    <row r="1201" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1201" s="24" t="s">
         <v>1911</v>
       </c>
-      <c r="B1201" s="13"/>
-      <c r="C1201" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1201" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1201" s="12" t="s">
-        <v>1917</v>
-      </c>
-      <c r="F1201" s="12"/>
-      <c r="G1201" s="12"/>
-      <c r="H1201" s="12"/>
-      <c r="I1201" s="13" t="s">
+      <c r="B1201" s="10"/>
+      <c r="C1201" s="10" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D1201" s="11" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E1201" s="11" t="s">
+        <v>3929</v>
+      </c>
+      <c r="F1201" s="11"/>
+      <c r="G1201" s="11"/>
+      <c r="H1201" s="10"/>
+      <c r="I1201" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1201" s="13"/>
-      <c r="K1201" s="13"/>
-    </row>
-    <row r="1202" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1202" s="35" t="s">
+      <c r="J1201" s="10"/>
+      <c r="K1201" s="10"/>
+    </row>
+    <row r="1202" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1202" s="13" t="s">
         <v>1911</v>
       </c>
       <c r="B1202" s="13"/>
       <c r="C1202" s="13" t="s">
-        <v>973</v>
-      </c>
-      <c r="D1202" s="12" t="s">
-        <v>1930</v>
+        <v>377</v>
+      </c>
+      <c r="D1202" s="13" t="s">
+        <v>378</v>
       </c>
       <c r="E1202" s="12" t="s">
-        <v>1931</v>
+        <v>1914</v>
       </c>
       <c r="F1202" s="12"/>
       <c r="G1202" s="12"/>
-      <c r="H1202" s="13"/>
+      <c r="H1202" s="12"/>
       <c r="I1202" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1202" s="13"/>
       <c r="K1202" s="13"/>
     </row>
-    <row r="1203" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1203" s="35" t="s">
         <v>1911</v>
       </c>
       <c r="B1203" s="13"/>
       <c r="C1203" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="D1203" s="12" t="s">
-        <v>1935</v>
-      </c>
-      <c r="E1203" s="37" t="s">
-        <v>1936</v>
+        <v>379</v>
+      </c>
+      <c r="D1203" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="E1203" s="12" t="s">
+        <v>1915</v>
       </c>
       <c r="F1203" s="12"/>
       <c r="G1203" s="12"/>
-      <c r="H1203" s="13"/>
+      <c r="H1203" s="12"/>
       <c r="I1203" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1203" s="13"/>
       <c r="K1203" s="13"/>
     </row>
-    <row r="1204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1204" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1204" s="35" t="s">
         <v>1911</v>
       </c>
       <c r="B1204" s="13"/>
       <c r="C1204" s="13" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="D1204" s="13" t="s">
-        <v>703</v>
-      </c>
-      <c r="E1204" s="37" t="s">
-        <v>1918</v>
+        <v>382</v>
+      </c>
+      <c r="E1204" s="12" t="s">
+        <v>1916</v>
       </c>
       <c r="F1204" s="12"/>
       <c r="G1204" s="12"/>
@@ -41298,19 +41265,19 @@
       <c r="J1204" s="13"/>
       <c r="K1204" s="13"/>
     </row>
-    <row r="1205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1205" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1205" s="35" t="s">
         <v>1911</v>
       </c>
-      <c r="B1205" s="35"/>
-      <c r="C1205" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="D1205" s="35" t="s">
-        <v>1919</v>
-      </c>
-      <c r="E1205" s="37" t="s">
-        <v>1920</v>
+      <c r="B1205" s="13"/>
+      <c r="C1205" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1205" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1205" s="12" t="s">
+        <v>1917</v>
       </c>
       <c r="F1205" s="12"/>
       <c r="G1205" s="12"/>
@@ -41321,118 +41288,120 @@
       <c r="J1205" s="13"/>
       <c r="K1205" s="13"/>
     </row>
-    <row r="1206" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1206" s="35" t="s">
         <v>1911</v>
       </c>
-      <c r="B1206" s="35"/>
-      <c r="C1206" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="D1206" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="E1206" s="37" t="s">
-        <v>1921</v>
+      <c r="B1206" s="13"/>
+      <c r="C1206" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="D1206" s="12" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E1206" s="12" t="s">
+        <v>1931</v>
       </c>
       <c r="F1206" s="12"/>
       <c r="G1206" s="12"/>
-      <c r="H1206" s="12"/>
+      <c r="H1206" s="13"/>
       <c r="I1206" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1206" s="13"/>
       <c r="K1206" s="13"/>
     </row>
-    <row r="1207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1207" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1207" s="35" t="s">
         <v>1911</v>
       </c>
-      <c r="B1207" s="35"/>
-      <c r="C1207" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1207" s="35" t="s">
-        <v>404</v>
+      <c r="B1207" s="13"/>
+      <c r="C1207" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1207" s="12" t="s">
+        <v>1935</v>
       </c>
       <c r="E1207" s="37" t="s">
-        <v>1922</v>
+        <v>1936</v>
       </c>
       <c r="F1207" s="12"/>
       <c r="G1207" s="12"/>
-      <c r="H1207" s="12"/>
+      <c r="H1207" s="13"/>
       <c r="I1207" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1207" s="13"/>
       <c r="K1207" s="13"/>
     </row>
-    <row r="1208" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1208" s="35" t="s">
         <v>1911</v>
       </c>
-      <c r="B1208" s="35"/>
-      <c r="C1208" s="35" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D1208" s="37" t="s">
-        <v>1937</v>
+      <c r="B1208" s="13"/>
+      <c r="C1208" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1208" s="13" t="s">
+        <v>703</v>
       </c>
       <c r="E1208" s="37" t="s">
-        <v>1938</v>
+        <v>1918</v>
       </c>
       <c r="F1208" s="12"/>
       <c r="G1208" s="12"/>
-      <c r="H1208" s="13"/>
+      <c r="H1208" s="12"/>
       <c r="I1208" s="13" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="J1208" s="13"/>
       <c r="K1208" s="13"/>
     </row>
-    <row r="1209" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1209" s="35" t="s">
         <v>1911</v>
       </c>
       <c r="B1209" s="35"/>
       <c r="C1209" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="D1209" s="37" t="s">
-        <v>419</v>
+        <v>399</v>
+      </c>
+      <c r="D1209" s="35" t="s">
+        <v>1919</v>
       </c>
       <c r="E1209" s="37" t="s">
-        <v>1934</v>
+        <v>1920</v>
       </c>
       <c r="F1209" s="12"/>
       <c r="G1209" s="12"/>
-      <c r="H1209" s="13"/>
+      <c r="H1209" s="12"/>
       <c r="I1209" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1209" s="13"/>
       <c r="K1209" s="13"/>
     </row>
-    <row r="1210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1210" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1210" s="35" t="s">
         <v>1911</v>
       </c>
       <c r="B1210" s="35"/>
       <c r="C1210" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1210" s="37" t="s">
-        <v>3860</v>
-      </c>
-      <c r="E1210" s="37"/>
+        <v>401</v>
+      </c>
+      <c r="D1210" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1210" s="37" t="s">
+        <v>1921</v>
+      </c>
       <c r="F1210" s="12"/>
       <c r="G1210" s="12"/>
-      <c r="H1210" s="13"/>
+      <c r="H1210" s="12"/>
       <c r="I1210" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1210" s="10"/>
-      <c r="K1210" s="10"/>
+      <c r="J1210" s="13"/>
+      <c r="K1210" s="13"/>
     </row>
     <row r="1211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1211" s="35" t="s">
@@ -41440,66 +41409,68 @@
       </c>
       <c r="B1211" s="35"/>
       <c r="C1211" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="D1211" s="37" t="s">
-        <v>423</v>
+        <v>403</v>
+      </c>
+      <c r="D1211" s="35" t="s">
+        <v>404</v>
       </c>
       <c r="E1211" s="37" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1211" s="12"/>
       <c r="G1211" s="12"/>
-      <c r="H1211" s="13"/>
+      <c r="H1211" s="12"/>
       <c r="I1211" s="13" t="s">
         <v>128</v>
       </c>
       <c r="J1211" s="13"/>
       <c r="K1211" s="13"/>
     </row>
-    <row r="1212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1212" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1212" s="35" t="s">
         <v>1911</v>
       </c>
       <c r="B1212" s="35"/>
       <c r="C1212" s="35" t="s">
-        <v>428</v>
+        <v>1900</v>
       </c>
       <c r="D1212" s="37" t="s">
-        <v>429</v>
+        <v>1937</v>
       </c>
       <c r="E1212" s="37" t="s">
-        <v>1924</v>
+        <v>1938</v>
       </c>
       <c r="F1212" s="12"/>
       <c r="G1212" s="12"/>
       <c r="H1212" s="13"/>
       <c r="I1212" s="13" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J1212" s="13"/>
       <c r="K1212" s="13"/>
     </row>
-    <row r="1213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1213" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1213" s="35" t="s">
         <v>1911</v>
       </c>
       <c r="B1213" s="35"/>
       <c r="C1213" s="35" t="s">
-        <v>771</v>
+        <v>418</v>
       </c>
       <c r="D1213" s="37" t="s">
-        <v>3861</v>
-      </c>
-      <c r="E1213" s="37"/>
+        <v>419</v>
+      </c>
+      <c r="E1213" s="37" t="s">
+        <v>1934</v>
+      </c>
       <c r="F1213" s="12"/>
       <c r="G1213" s="12"/>
       <c r="H1213" s="13"/>
       <c r="I1213" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1213" s="10"/>
-      <c r="K1213" s="10"/>
+      <c r="J1213" s="13"/>
+      <c r="K1213" s="13"/>
     </row>
     <row r="1214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1214" s="35" t="s">
@@ -41507,22 +41478,20 @@
       </c>
       <c r="B1214" s="35"/>
       <c r="C1214" s="35" t="s">
-        <v>1925</v>
+        <v>141</v>
       </c>
       <c r="D1214" s="37" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E1214" s="37" t="s">
-        <v>1927</v>
-      </c>
+        <v>3860</v>
+      </c>
+      <c r="E1214" s="37"/>
       <c r="F1214" s="12"/>
       <c r="G1214" s="12"/>
       <c r="H1214" s="13"/>
       <c r="I1214" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1214" s="13"/>
-      <c r="K1214" s="13"/>
+      <c r="J1214" s="10"/>
+      <c r="K1214" s="10"/>
     </row>
     <row r="1215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1215" s="35" t="s">
@@ -41530,34 +41499,36 @@
       </c>
       <c r="B1215" s="35"/>
       <c r="C1215" s="35" t="s">
-        <v>3865</v>
+        <v>422</v>
       </c>
       <c r="D1215" s="37" t="s">
-        <v>3866</v>
-      </c>
-      <c r="E1215" s="37"/>
+        <v>423</v>
+      </c>
+      <c r="E1215" s="37" t="s">
+        <v>1923</v>
+      </c>
       <c r="F1215" s="12"/>
       <c r="G1215" s="12"/>
       <c r="H1215" s="13"/>
       <c r="I1215" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J1215" s="10"/>
-      <c r="K1215" s="10"/>
-    </row>
-    <row r="1216" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="J1215" s="13"/>
+      <c r="K1215" s="13"/>
+    </row>
+    <row r="1216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1216" s="35" t="s">
         <v>1911</v>
       </c>
       <c r="B1216" s="35"/>
       <c r="C1216" s="35" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D1216" s="37" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="E1216" s="37" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="F1216" s="12"/>
       <c r="G1216" s="12"/>
@@ -41574,14 +41545,12 @@
       </c>
       <c r="B1217" s="35"/>
       <c r="C1217" s="35" t="s">
-        <v>3862</v>
+        <v>771</v>
       </c>
       <c r="D1217" s="37" t="s">
-        <v>3863</v>
-      </c>
-      <c r="E1217" s="37" t="s">
-        <v>3864</v>
-      </c>
+        <v>3861</v>
+      </c>
+      <c r="E1217" s="37"/>
       <c r="F1217" s="12"/>
       <c r="G1217" s="12"/>
       <c r="H1217" s="13"/>
@@ -41591,23 +41560,23 @@
       <c r="J1217" s="10"/>
       <c r="K1217" s="10"/>
     </row>
-    <row r="1218" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+    <row r="1218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1218" s="35" t="s">
         <v>1911</v>
       </c>
-      <c r="B1218" s="13"/>
-      <c r="C1218" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="D1218" s="13" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E1218" s="12" t="s">
-        <v>4342</v>
+      <c r="B1218" s="35"/>
+      <c r="C1218" s="35" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D1218" s="37" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E1218" s="37" t="s">
+        <v>1927</v>
       </c>
       <c r="F1218" s="12"/>
       <c r="G1218" s="12"/>
-      <c r="H1218" s="12"/>
+      <c r="H1218" s="13"/>
       <c r="I1218" s="13" t="s">
         <v>128</v>
       </c>
@@ -41615,110 +41584,108 @@
       <c r="K1218" s="13"/>
     </row>
     <row r="1219" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1219" s="24" t="s">
-        <v>3796</v>
-      </c>
-      <c r="B1219" s="10"/>
-      <c r="C1219" s="10" t="s">
-        <v>3788</v>
-      </c>
-      <c r="D1219" s="11" t="s">
-        <v>3777</v>
-      </c>
-      <c r="E1219" s="11" t="s">
-        <v>3777</v>
-      </c>
-      <c r="F1219" s="11"/>
-      <c r="G1219" s="11"/>
-      <c r="H1219" s="10"/>
-      <c r="I1219" s="10" t="s">
-        <v>15</v>
+      <c r="A1219" s="35" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1219" s="35"/>
+      <c r="C1219" s="35" t="s">
+        <v>3865</v>
+      </c>
+      <c r="D1219" s="37" t="s">
+        <v>3866</v>
+      </c>
+      <c r="E1219" s="37"/>
+      <c r="F1219" s="12"/>
+      <c r="G1219" s="12"/>
+      <c r="H1219" s="13"/>
+      <c r="I1219" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="J1219" s="10"/>
       <c r="K1219" s="10"/>
     </row>
-    <row r="1220" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1220" s="10" t="s">
-        <v>3796</v>
-      </c>
-      <c r="B1220" s="10"/>
-      <c r="C1220" s="10" t="s">
-        <v>933</v>
-      </c>
-      <c r="D1220" s="11" t="s">
-        <v>3781</v>
-      </c>
-      <c r="E1220" s="11" t="s">
-        <v>3791</v>
-      </c>
-      <c r="F1220" s="11"/>
-      <c r="G1220" s="11"/>
-      <c r="H1220" s="10"/>
-      <c r="I1220" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1220" s="10"/>
-      <c r="K1220" s="10"/>
+    <row r="1220" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A1220" s="35" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1220" s="35"/>
+      <c r="C1220" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1220" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1220" s="37" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F1220" s="12"/>
+      <c r="G1220" s="12"/>
+      <c r="H1220" s="13"/>
+      <c r="I1220" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1220" s="13"/>
+      <c r="K1220" s="13"/>
     </row>
     <row r="1221" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1221" s="10" t="s">
-        <v>3796</v>
-      </c>
-      <c r="B1221" s="10"/>
-      <c r="C1221" s="10" t="s">
-        <v>3789</v>
-      </c>
-      <c r="D1221" s="11" t="s">
-        <v>3779</v>
-      </c>
-      <c r="E1221" s="11" t="s">
-        <v>3790</v>
-      </c>
-      <c r="F1221" s="11"/>
-      <c r="G1221" s="11"/>
-      <c r="H1221" s="10"/>
-      <c r="I1221" s="10" t="s">
-        <v>15</v>
+      <c r="A1221" s="35" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1221" s="35"/>
+      <c r="C1221" s="35" t="s">
+        <v>3862</v>
+      </c>
+      <c r="D1221" s="37" t="s">
+        <v>3863</v>
+      </c>
+      <c r="E1221" s="37" t="s">
+        <v>3864</v>
+      </c>
+      <c r="F1221" s="12"/>
+      <c r="G1221" s="12"/>
+      <c r="H1221" s="13"/>
+      <c r="I1221" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="J1221" s="10"/>
       <c r="K1221" s="10"/>
     </row>
-    <row r="1222" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1222" s="10" t="s">
-        <v>3797</v>
-      </c>
-      <c r="B1222" s="10"/>
-      <c r="C1222" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1222" s="11" t="s">
-        <v>3793</v>
-      </c>
-      <c r="E1222" s="11" t="s">
-        <v>3793</v>
-      </c>
-      <c r="F1222" s="11"/>
-      <c r="G1222" s="11"/>
-      <c r="H1222" s="10"/>
-      <c r="I1222" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1222" s="10"/>
-      <c r="K1222" s="10"/>
+    <row r="1222" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+      <c r="A1222" s="35" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1222" s="13"/>
+      <c r="C1222" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1222" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E1222" s="12" t="s">
+        <v>4342</v>
+      </c>
+      <c r="F1222" s="12"/>
+      <c r="G1222" s="12"/>
+      <c r="H1222" s="12"/>
+      <c r="I1222" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1222" s="13"/>
+      <c r="K1222" s="13"/>
     </row>
     <row r="1223" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1223" s="10" t="s">
-        <v>3797</v>
+      <c r="A1223" s="24" t="s">
+        <v>3796</v>
       </c>
       <c r="B1223" s="10"/>
       <c r="C1223" s="10" t="s">
-        <v>257</v>
+        <v>3788</v>
       </c>
       <c r="D1223" s="11" t="s">
-        <v>258</v>
+        <v>3777</v>
       </c>
       <c r="E1223" s="11" t="s">
-        <v>3794</v>
+        <v>3777</v>
       </c>
       <c r="F1223" s="11"/>
       <c r="G1223" s="11"/>
@@ -41731,118 +41698,118 @@
     </row>
     <row r="1224" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1224" s="10" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="B1224" s="10"/>
       <c r="C1224" s="10" t="s">
-        <v>66</v>
+        <v>933</v>
       </c>
       <c r="D1224" s="11" t="s">
-        <v>67</v>
+        <v>3781</v>
       </c>
       <c r="E1224" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1224" s="26"/>
-      <c r="G1224" s="26"/>
-      <c r="H1224" s="24"/>
+        <v>3791</v>
+      </c>
+      <c r="F1224" s="11"/>
+      <c r="G1224" s="11"/>
+      <c r="H1224" s="10"/>
       <c r="I1224" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J1224" s="24"/>
-      <c r="K1224" s="24"/>
+      <c r="J1224" s="10"/>
+      <c r="K1224" s="10"/>
     </row>
     <row r="1225" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1225" s="13" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B1225" s="13"/>
-      <c r="C1225" s="13" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D1225" s="12" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E1225" s="12"/>
-      <c r="F1225" s="12"/>
-      <c r="G1225" s="12"/>
-      <c r="H1225" s="13" t="s">
-        <v>1942</v>
-      </c>
-      <c r="I1225" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1225" s="13"/>
-      <c r="K1225" s="13"/>
+      <c r="A1225" s="10" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B1225" s="10"/>
+      <c r="C1225" s="10" t="s">
+        <v>3789</v>
+      </c>
+      <c r="D1225" s="11" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E1225" s="11" t="s">
+        <v>3790</v>
+      </c>
+      <c r="F1225" s="11"/>
+      <c r="G1225" s="11"/>
+      <c r="H1225" s="10"/>
+      <c r="I1225" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1225" s="10"/>
+      <c r="K1225" s="10"/>
     </row>
     <row r="1226" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1226" s="13" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B1226" s="13"/>
-      <c r="C1226" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1226" s="12" t="s">
-        <v>1944</v>
-      </c>
-      <c r="E1226" s="12"/>
-      <c r="F1226" s="12"/>
-      <c r="G1226" s="12"/>
-      <c r="H1226" s="13" t="s">
-        <v>1945</v>
-      </c>
-      <c r="I1226" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1226" s="13"/>
-      <c r="K1226" s="13"/>
+      <c r="A1226" s="10" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1226" s="10"/>
+      <c r="C1226" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1226" s="11" t="s">
+        <v>3793</v>
+      </c>
+      <c r="E1226" s="11" t="s">
+        <v>3793</v>
+      </c>
+      <c r="F1226" s="11"/>
+      <c r="G1226" s="11"/>
+      <c r="H1226" s="10"/>
+      <c r="I1226" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1226" s="10"/>
+      <c r="K1226" s="10"/>
     </row>
     <row r="1227" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1227" s="13" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B1227" s="13"/>
-      <c r="C1227" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1227" s="12" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E1227" s="12"/>
-      <c r="F1227" s="12"/>
-      <c r="G1227" s="12"/>
-      <c r="H1227" s="13" t="s">
-        <v>1945</v>
-      </c>
-      <c r="I1227" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1227" s="13"/>
-      <c r="K1227" s="13"/>
+      <c r="A1227" s="10" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1227" s="10"/>
+      <c r="C1227" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1227" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1227" s="11" t="s">
+        <v>3794</v>
+      </c>
+      <c r="F1227" s="11"/>
+      <c r="G1227" s="11"/>
+      <c r="H1227" s="10"/>
+      <c r="I1227" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1227" s="10"/>
+      <c r="K1227" s="10"/>
     </row>
     <row r="1228" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1228" s="13" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B1228" s="13"/>
-      <c r="C1228" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="D1228" s="12" t="s">
-        <v>1943</v>
-      </c>
-      <c r="E1228" s="12"/>
-      <c r="F1228" s="12"/>
-      <c r="G1228" s="12"/>
-      <c r="H1228" s="13" t="s">
-        <v>1942</v>
-      </c>
-      <c r="I1228" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1228" s="13"/>
-      <c r="K1228" s="13"/>
+      <c r="A1228" s="10" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B1228" s="10"/>
+      <c r="C1228" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1228" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1228" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1228" s="26"/>
+      <c r="G1228" s="26"/>
+      <c r="H1228" s="24"/>
+      <c r="I1228" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1228" s="24"/>
+      <c r="K1228" s="24"/>
     </row>
     <row r="1229" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1229" s="13" t="s">
@@ -41850,16 +41817,16 @@
       </c>
       <c r="B1229" s="13"/>
       <c r="C1229" s="13" t="s">
-        <v>1893</v>
+        <v>1940</v>
       </c>
       <c r="D1229" s="12" t="s">
-        <v>1894</v>
+        <v>1941</v>
       </c>
       <c r="E1229" s="12"/>
       <c r="F1229" s="12"/>
       <c r="G1229" s="12"/>
       <c r="H1229" s="13" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="I1229" s="13" t="s">
         <v>114</v>
@@ -41873,16 +41840,16 @@
       </c>
       <c r="B1230" s="13"/>
       <c r="C1230" s="13" t="s">
-        <v>498</v>
+        <v>177</v>
       </c>
       <c r="D1230" s="12" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="E1230" s="12"/>
       <c r="F1230" s="12"/>
       <c r="G1230" s="12"/>
       <c r="H1230" s="13" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="I1230" s="13" t="s">
         <v>114</v>
@@ -41896,16 +41863,16 @@
       </c>
       <c r="B1231" s="13"/>
       <c r="C1231" s="13" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
       <c r="D1231" s="12" t="s">
-        <v>1954</v>
+        <v>1892</v>
       </c>
       <c r="E1231" s="12"/>
       <c r="F1231" s="12"/>
       <c r="G1231" s="12"/>
       <c r="H1231" s="13" t="s">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="I1231" s="13" t="s">
         <v>114</v>
@@ -41919,16 +41886,16 @@
       </c>
       <c r="B1232" s="13"/>
       <c r="C1232" s="13" t="s">
-        <v>1952</v>
+        <v>457</v>
       </c>
       <c r="D1232" s="12" t="s">
-        <v>1953</v>
+        <v>1943</v>
       </c>
       <c r="E1232" s="12"/>
       <c r="F1232" s="12"/>
       <c r="G1232" s="12"/>
       <c r="H1232" s="13" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="I1232" s="13" t="s">
         <v>114</v>
@@ -41942,10 +41909,10 @@
       </c>
       <c r="B1233" s="13"/>
       <c r="C1233" s="13" t="s">
-        <v>828</v>
+        <v>1893</v>
       </c>
       <c r="D1233" s="12" t="s">
-        <v>1946</v>
+        <v>1894</v>
       </c>
       <c r="E1233" s="12"/>
       <c r="F1233" s="12"/>
@@ -41965,10 +41932,10 @@
       </c>
       <c r="B1234" s="13"/>
       <c r="C1234" s="13" t="s">
-        <v>129</v>
+        <v>498</v>
       </c>
       <c r="D1234" s="12" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="E1234" s="12"/>
       <c r="F1234" s="12"/>
@@ -41988,16 +41955,16 @@
       </c>
       <c r="B1235" s="13"/>
       <c r="C1235" s="13" t="s">
-        <v>139</v>
+        <v>503</v>
       </c>
       <c r="D1235" s="12" t="s">
-        <v>1949</v>
+        <v>1954</v>
       </c>
       <c r="E1235" s="12"/>
       <c r="F1235" s="12"/>
       <c r="G1235" s="12"/>
       <c r="H1235" s="13" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="I1235" s="13" t="s">
         <v>114</v>
@@ -42006,15 +41973,15 @@
       <c r="K1235" s="13"/>
     </row>
     <row r="1236" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1236" s="35" t="s">
+      <c r="A1236" s="13" t="s">
         <v>1939</v>
       </c>
       <c r="B1236" s="13"/>
       <c r="C1236" s="13" t="s">
-        <v>75</v>
+        <v>1952</v>
       </c>
       <c r="D1236" s="12" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="E1236" s="12"/>
       <c r="F1236" s="12"/>
@@ -42029,235 +41996,243 @@
       <c r="K1236" s="13"/>
     </row>
     <row r="1237" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1237" s="10" t="s">
-        <v>4061</v>
-      </c>
-      <c r="B1237" s="10"/>
-      <c r="C1237" s="10" t="s">
-        <v>4062</v>
-      </c>
-      <c r="D1237" s="11" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E1237" s="11"/>
-      <c r="F1237" s="11"/>
-      <c r="G1237" s="11"/>
-      <c r="H1237" s="10"/>
+      <c r="A1237" s="13" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1237" s="13"/>
+      <c r="C1237" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="D1237" s="12" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E1237" s="12"/>
+      <c r="F1237" s="12"/>
+      <c r="G1237" s="12"/>
+      <c r="H1237" s="13" t="s">
+        <v>1945</v>
+      </c>
       <c r="I1237" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1237" s="10"/>
-      <c r="K1237" s="10"/>
+      <c r="J1237" s="13"/>
+      <c r="K1237" s="13"/>
     </row>
     <row r="1238" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1238" s="10" t="s">
-        <v>4061</v>
-      </c>
-      <c r="B1238" s="10"/>
-      <c r="C1238" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="D1238" s="11" t="s">
-        <v>4064</v>
-      </c>
-      <c r="E1238" s="11"/>
-      <c r="F1238" s="11"/>
-      <c r="G1238" s="11"/>
-      <c r="H1238" s="10"/>
+      <c r="A1238" s="13" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1238" s="13"/>
+      <c r="C1238" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1238" s="12" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E1238" s="12"/>
+      <c r="F1238" s="12"/>
+      <c r="G1238" s="12"/>
+      <c r="H1238" s="13" t="s">
+        <v>1948</v>
+      </c>
       <c r="I1238" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1238" s="10"/>
-      <c r="K1238" s="10"/>
+      <c r="J1238" s="13"/>
+      <c r="K1238" s="13"/>
     </row>
     <row r="1239" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1239" s="10" t="s">
-        <v>4061</v>
-      </c>
-      <c r="B1239" s="10"/>
-      <c r="C1239" s="10" t="s">
-        <v>4063</v>
-      </c>
-      <c r="D1239" s="11" t="s">
-        <v>4066</v>
-      </c>
-      <c r="E1239" s="11"/>
-      <c r="F1239" s="11"/>
-      <c r="G1239" s="11"/>
-      <c r="H1239" s="10"/>
+      <c r="A1239" s="13" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1239" s="13"/>
+      <c r="C1239" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1239" s="12" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E1239" s="12"/>
+      <c r="F1239" s="12"/>
+      <c r="G1239" s="12"/>
+      <c r="H1239" s="13" t="s">
+        <v>1948</v>
+      </c>
       <c r="I1239" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1239" s="10"/>
-      <c r="K1239" s="10"/>
+      <c r="J1239" s="13"/>
+      <c r="K1239" s="13"/>
     </row>
     <row r="1240" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1240" s="10" t="s">
-        <v>4061</v>
-      </c>
-      <c r="B1240" s="10"/>
-      <c r="C1240" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1240" s="11" t="s">
-        <v>4065</v>
-      </c>
-      <c r="E1240" s="11"/>
-      <c r="F1240" s="11"/>
-      <c r="G1240" s="11"/>
-      <c r="H1240" s="10"/>
+      <c r="A1240" s="35" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1240" s="13"/>
+      <c r="C1240" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1240" s="12" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E1240" s="12"/>
+      <c r="F1240" s="12"/>
+      <c r="G1240" s="12"/>
+      <c r="H1240" s="13" t="s">
+        <v>1948</v>
+      </c>
       <c r="I1240" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1240" s="10"/>
-      <c r="K1240" s="10"/>
+      <c r="J1240" s="13"/>
+      <c r="K1240" s="13"/>
     </row>
     <row r="1241" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1241" s="35" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1241" s="13"/>
-      <c r="C1241" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1241" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="E1241" s="12"/>
-      <c r="F1241" s="12"/>
-      <c r="G1241" s="12"/>
-      <c r="H1241" s="13"/>
+      <c r="A1241" s="10" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1241" s="10"/>
+      <c r="C1241" s="10" t="s">
+        <v>4062</v>
+      </c>
+      <c r="D1241" s="11" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1241" s="11"/>
+      <c r="F1241" s="11"/>
+      <c r="G1241" s="11"/>
+      <c r="H1241" s="10"/>
       <c r="I1241" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1241" s="13"/>
-      <c r="K1241" s="13"/>
+      <c r="J1241" s="10"/>
+      <c r="K1241" s="10"/>
     </row>
     <row r="1242" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1242" s="35" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1242" s="13"/>
-      <c r="C1242" s="13" t="s">
-        <v>1641</v>
-      </c>
-      <c r="D1242" s="12" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E1242" s="12"/>
-      <c r="F1242" s="12"/>
-      <c r="G1242" s="12"/>
-      <c r="H1242" s="13"/>
+      <c r="A1242" s="10" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1242" s="10"/>
+      <c r="C1242" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1242" s="11" t="s">
+        <v>4064</v>
+      </c>
+      <c r="E1242" s="11"/>
+      <c r="F1242" s="11"/>
+      <c r="G1242" s="11"/>
+      <c r="H1242" s="10"/>
       <c r="I1242" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1242" s="13"/>
-      <c r="K1242" s="13"/>
+      <c r="J1242" s="10"/>
+      <c r="K1242" s="10"/>
     </row>
     <row r="1243" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1243" s="13" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B1243" s="13"/>
-      <c r="C1243" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1243" s="12" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E1243" s="12"/>
-      <c r="F1243" s="12"/>
-      <c r="G1243" s="12"/>
-      <c r="H1243" s="13"/>
+      <c r="A1243" s="10" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1243" s="10"/>
+      <c r="C1243" s="10" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D1243" s="11" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E1243" s="11"/>
+      <c r="F1243" s="11"/>
+      <c r="G1243" s="11"/>
+      <c r="H1243" s="10"/>
       <c r="I1243" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="J1243" s="13"/>
-      <c r="K1243" s="13"/>
+      <c r="J1243" s="10"/>
+      <c r="K1243" s="10"/>
     </row>
     <row r="1244" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1244" s="12" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B1244" s="12"/>
-      <c r="C1244" s="13" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D1244" s="13" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E1244" s="12"/>
-      <c r="F1244" s="12"/>
-      <c r="G1244" s="12"/>
-      <c r="H1244" s="12"/>
+      <c r="A1244" s="10" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1244" s="10"/>
+      <c r="C1244" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1244" s="11" t="s">
+        <v>4065</v>
+      </c>
+      <c r="E1244" s="11"/>
+      <c r="F1244" s="11"/>
+      <c r="G1244" s="11"/>
+      <c r="H1244" s="10"/>
       <c r="I1244" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1244" s="12"/>
-      <c r="K1244" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="J1244" s="10"/>
+      <c r="K1244" s="10"/>
     </row>
     <row r="1245" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1245" s="12" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B1245" s="12"/>
+      <c r="A1245" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1245" s="13"/>
       <c r="C1245" s="13" t="s">
-        <v>1961</v>
-      </c>
-      <c r="D1245" s="13" t="s">
-        <v>1962</v>
+        <v>347</v>
+      </c>
+      <c r="D1245" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="E1245" s="12"/>
       <c r="F1245" s="12"/>
       <c r="G1245" s="12"/>
-      <c r="H1245" s="12"/>
+      <c r="H1245" s="13"/>
       <c r="I1245" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1245" s="12"/>
-      <c r="K1245" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="J1245" s="13"/>
+      <c r="K1245" s="13"/>
     </row>
     <row r="1246" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1246" s="12" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B1246" s="12"/>
+      <c r="A1246" s="35" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1246" s="13"/>
       <c r="C1246" s="13" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D1246" s="13" t="s">
-        <v>1963</v>
+        <v>1641</v>
+      </c>
+      <c r="D1246" s="12" t="s">
+        <v>1957</v>
       </c>
       <c r="E1246" s="12"/>
       <c r="F1246" s="12"/>
       <c r="G1246" s="12"/>
-      <c r="H1246" s="12"/>
+      <c r="H1246" s="13"/>
       <c r="I1246" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1246" s="12"/>
-      <c r="K1246" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="J1246" s="13"/>
+      <c r="K1246" s="13"/>
     </row>
     <row r="1247" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1247" s="12" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B1247" s="12"/>
+      <c r="A1247" s="13" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1247" s="13"/>
       <c r="C1247" s="13" t="s">
-        <v>1964</v>
-      </c>
-      <c r="D1247" s="13" t="s">
-        <v>1965</v>
+        <v>75</v>
+      </c>
+      <c r="D1247" s="12" t="s">
+        <v>1217</v>
       </c>
       <c r="E1247" s="12"/>
       <c r="F1247" s="12"/>
       <c r="G1247" s="12"/>
-      <c r="H1247" s="12"/>
+      <c r="H1247" s="13"/>
       <c r="I1247" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1247" s="12"/>
-      <c r="K1247" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="J1247" s="13"/>
+      <c r="K1247" s="13"/>
     </row>
     <row r="1248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1248" s="12" t="s">
@@ -42265,10 +42240,10 @@
       </c>
       <c r="B1248" s="12"/>
       <c r="C1248" s="13" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="D1248" s="13" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="E1248" s="12"/>
       <c r="F1248" s="12"/>
@@ -42286,10 +42261,10 @@
       </c>
       <c r="B1249" s="12"/>
       <c r="C1249" s="13" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="D1249" s="13" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="E1249" s="12"/>
       <c r="F1249" s="12"/>
@@ -42306,11 +42281,13 @@
         <v>1958</v>
       </c>
       <c r="B1250" s="12"/>
-      <c r="C1250" s="13"/>
-      <c r="D1250" s="13"/>
-      <c r="E1250" s="37" t="s">
-        <v>1970</v>
-      </c>
+      <c r="C1250" s="13" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D1250" s="13" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E1250" s="12"/>
       <c r="F1250" s="12"/>
       <c r="G1250" s="12"/>
       <c r="H1250" s="12"/>
@@ -42320,110 +42297,102 @@
       <c r="J1250" s="12"/>
       <c r="K1250" s="12"/>
     </row>
-    <row r="1251" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A1251" s="24" t="s">
-        <v>4107</v>
-      </c>
-      <c r="B1251" s="24"/>
-      <c r="C1251" s="24" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D1251" s="26" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E1251" s="26" t="s">
-        <v>1974</v>
-      </c>
-      <c r="F1251" s="11"/>
-      <c r="G1251" s="11"/>
-      <c r="H1251" s="10"/>
-      <c r="I1251" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1251" s="10"/>
-      <c r="K1251" s="10"/>
-    </row>
-    <row r="1252" spans="1:11" ht="102" x14ac:dyDescent="0.4">
-      <c r="A1252" s="10" t="s">
-        <v>4107</v>
-      </c>
-      <c r="B1252" s="10"/>
-      <c r="C1252" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D1252" s="11" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E1252" s="26" t="s">
-        <v>1976</v>
-      </c>
-      <c r="F1252" s="11"/>
-      <c r="G1252" s="11"/>
-      <c r="H1252" s="10"/>
-      <c r="I1252" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1252" s="10"/>
-      <c r="K1252" s="10"/>
-    </row>
-    <row r="1253" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A1253" s="24" t="s">
-        <v>4107</v>
-      </c>
-      <c r="B1253" s="24"/>
-      <c r="C1253" s="24" t="s">
-        <v>1977</v>
-      </c>
-      <c r="D1253" s="26" t="s">
-        <v>1978</v>
-      </c>
-      <c r="E1253" s="26" t="s">
-        <v>1979</v>
-      </c>
-      <c r="F1253" s="11"/>
-      <c r="G1253" s="11"/>
-      <c r="H1253" s="10"/>
-      <c r="I1253" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1253" s="10"/>
-      <c r="K1253" s="10"/>
-    </row>
-    <row r="1254" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A1254" s="24" t="s">
-        <v>4107</v>
-      </c>
-      <c r="B1254" s="24"/>
-      <c r="C1254" s="24" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D1254" s="26" t="s">
-        <v>1981</v>
-      </c>
-      <c r="E1254" s="26" t="s">
-        <v>1982</v>
-      </c>
-      <c r="F1254" s="11"/>
-      <c r="G1254" s="11"/>
-      <c r="H1254" s="10"/>
-      <c r="I1254" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1254" s="10"/>
-      <c r="K1254" s="10"/>
-    </row>
-    <row r="1255" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1251" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1251" s="12" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1251" s="12"/>
+      <c r="C1251" s="13" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D1251" s="13" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E1251" s="12"/>
+      <c r="F1251" s="12"/>
+      <c r="G1251" s="12"/>
+      <c r="H1251" s="12"/>
+      <c r="I1251" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1251" s="12"/>
+      <c r="K1251" s="12"/>
+    </row>
+    <row r="1252" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1252" s="12" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1252" s="12"/>
+      <c r="C1252" s="13" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D1252" s="13" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E1252" s="12"/>
+      <c r="F1252" s="12"/>
+      <c r="G1252" s="12"/>
+      <c r="H1252" s="12"/>
+      <c r="I1252" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1252" s="12"/>
+      <c r="K1252" s="12"/>
+    </row>
+    <row r="1253" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1253" s="12" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1253" s="12"/>
+      <c r="C1253" s="13" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D1253" s="13" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E1253" s="12"/>
+      <c r="F1253" s="12"/>
+      <c r="G1253" s="12"/>
+      <c r="H1253" s="12"/>
+      <c r="I1253" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1253" s="12"/>
+      <c r="K1253" s="12"/>
+    </row>
+    <row r="1254" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1254" s="12" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1254" s="12"/>
+      <c r="C1254" s="13"/>
+      <c r="D1254" s="13"/>
+      <c r="E1254" s="37" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F1254" s="12"/>
+      <c r="G1254" s="12"/>
+      <c r="H1254" s="12"/>
+      <c r="I1254" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1254" s="12"/>
+      <c r="K1254" s="12"/>
+    </row>
+    <row r="1255" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A1255" s="24" t="s">
         <v>4107</v>
       </c>
       <c r="B1255" s="24"/>
       <c r="C1255" s="24" t="s">
-        <v>860</v>
+        <v>1972</v>
       </c>
       <c r="D1255" s="26" t="s">
-        <v>1983</v>
-      </c>
-      <c r="E1255" s="26"/>
+        <v>1973</v>
+      </c>
+      <c r="E1255" s="26" t="s">
+        <v>1974</v>
+      </c>
       <c r="F1255" s="11"/>
       <c r="G1255" s="11"/>
       <c r="H1255" s="10"/>
@@ -42433,103 +42402,109 @@
       <c r="J1255" s="10"/>
       <c r="K1255" s="10"/>
     </row>
-    <row r="1256" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1256" s="35" t="s">
-        <v>1971</v>
-      </c>
-      <c r="B1256" s="35"/>
-      <c r="C1256" s="35" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D1256" s="35" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E1256" s="37" t="s">
-        <v>4111</v>
-      </c>
-      <c r="F1256" s="12"/>
-      <c r="G1256" s="12"/>
-      <c r="H1256" s="12"/>
-      <c r="I1256" s="13"/>
-      <c r="J1256" s="13"/>
-      <c r="K1256" s="13"/>
-    </row>
-    <row r="1257" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1257" s="13" t="s">
-        <v>1971</v>
-      </c>
-      <c r="B1257" s="13"/>
-      <c r="C1257" s="13" t="s">
+    <row r="1256" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+      <c r="A1256" s="10" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B1256" s="10"/>
+      <c r="C1256" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="D1257" s="13" t="s">
+      <c r="D1256" s="11" t="s">
         <v>1975</v>
       </c>
-      <c r="E1257" s="37" t="s">
-        <v>4108</v>
-      </c>
-      <c r="F1257" s="12"/>
-      <c r="G1257" s="12"/>
-      <c r="H1257" s="12"/>
-      <c r="I1257" s="13"/>
-      <c r="J1257" s="13"/>
-      <c r="K1257" s="13"/>
-    </row>
-    <row r="1258" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1258" s="35" t="s">
-        <v>1971</v>
-      </c>
-      <c r="B1258" s="35"/>
-      <c r="C1258" s="35" t="s">
+      <c r="E1256" s="26" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F1256" s="11"/>
+      <c r="G1256" s="11"/>
+      <c r="H1256" s="10"/>
+      <c r="I1256" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1256" s="10"/>
+      <c r="K1256" s="10"/>
+    </row>
+    <row r="1257" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A1257" s="24" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B1257" s="24"/>
+      <c r="C1257" s="24" t="s">
         <v>1977</v>
       </c>
-      <c r="D1258" s="35" t="s">
+      <c r="D1257" s="26" t="s">
         <v>1978</v>
       </c>
-      <c r="E1258" s="37" t="s">
-        <v>4109</v>
-      </c>
-      <c r="F1258" s="12"/>
-      <c r="G1258" s="12"/>
-      <c r="H1258" s="12"/>
-      <c r="I1258" s="13"/>
-      <c r="J1258" s="13"/>
-      <c r="K1258" s="13"/>
-    </row>
-    <row r="1259" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1259" s="35" t="s">
-        <v>1971</v>
-      </c>
-      <c r="B1259" s="35"/>
-      <c r="C1259" s="35" t="s">
+      <c r="E1257" s="26" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F1257" s="11"/>
+      <c r="G1257" s="11"/>
+      <c r="H1257" s="10"/>
+      <c r="I1257" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1257" s="10"/>
+      <c r="K1257" s="10"/>
+    </row>
+    <row r="1258" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A1258" s="24" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B1258" s="24"/>
+      <c r="C1258" s="24" t="s">
         <v>1980</v>
       </c>
-      <c r="D1259" s="35" t="s">
+      <c r="D1258" s="26" t="s">
         <v>1981</v>
       </c>
-      <c r="E1259" s="37" t="s">
-        <v>4110</v>
-      </c>
-      <c r="F1259" s="12"/>
-      <c r="G1259" s="12"/>
-      <c r="H1259" s="12"/>
-      <c r="I1259" s="13"/>
-      <c r="J1259" s="13"/>
-      <c r="K1259" s="13"/>
-    </row>
-    <row r="1260" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="E1258" s="26" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F1258" s="11"/>
+      <c r="G1258" s="11"/>
+      <c r="H1258" s="10"/>
+      <c r="I1258" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1258" s="10"/>
+      <c r="K1258" s="10"/>
+    </row>
+    <row r="1259" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1259" s="24" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B1259" s="24"/>
+      <c r="C1259" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1259" s="26" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E1259" s="26"/>
+      <c r="F1259" s="11"/>
+      <c r="G1259" s="11"/>
+      <c r="H1259" s="10"/>
+      <c r="I1259" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1259" s="10"/>
+      <c r="K1259" s="10"/>
+    </row>
+    <row r="1260" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1260" s="35" t="s">
         <v>1971</v>
       </c>
       <c r="B1260" s="35"/>
       <c r="C1260" s="35" t="s">
-        <v>860</v>
-      </c>
-      <c r="D1260" s="37" t="s">
-        <v>1983</v>
+        <v>1972</v>
+      </c>
+      <c r="D1260" s="35" t="s">
+        <v>1973</v>
       </c>
       <c r="E1260" s="37" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="F1260" s="12"/>
       <c r="G1260" s="12"/>
@@ -42539,90 +42514,86 @@
       <c r="K1260" s="13"/>
     </row>
     <row r="1261" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1261" s="35" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B1261" s="35"/>
-      <c r="C1261" s="35" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D1261" s="35" t="s">
-        <v>1985</v>
+      <c r="A1261" s="13" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1261" s="13"/>
+      <c r="C1261" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1261" s="13" t="s">
+        <v>1975</v>
       </c>
       <c r="E1261" s="37" t="s">
-        <v>1986</v>
+        <v>4108</v>
       </c>
       <c r="F1261" s="12"/>
       <c r="G1261" s="12"/>
       <c r="H1261" s="12"/>
-      <c r="I1261" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="I1261" s="13"/>
       <c r="J1261" s="13"/>
       <c r="K1261" s="13"/>
     </row>
     <row r="1262" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1262" s="35" t="s">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="B1262" s="35"/>
       <c r="C1262" s="35" t="s">
-        <v>274</v>
+        <v>1977</v>
       </c>
       <c r="D1262" s="35" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E1262" s="37"/>
+        <v>1978</v>
+      </c>
+      <c r="E1262" s="37" t="s">
+        <v>4109</v>
+      </c>
       <c r="F1262" s="12"/>
       <c r="G1262" s="12"/>
       <c r="H1262" s="12"/>
-      <c r="I1262" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="I1262" s="13"/>
       <c r="J1262" s="13"/>
       <c r="K1262" s="13"/>
     </row>
     <row r="1263" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1263" s="35" t="s">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="B1263" s="35"/>
       <c r="C1263" s="35" t="s">
-        <v>162</v>
+        <v>1980</v>
       </c>
       <c r="D1263" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1263" s="37"/>
+        <v>1981</v>
+      </c>
+      <c r="E1263" s="37" t="s">
+        <v>4110</v>
+      </c>
       <c r="F1263" s="12"/>
       <c r="G1263" s="12"/>
       <c r="H1263" s="12"/>
-      <c r="I1263" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="I1263" s="13"/>
       <c r="J1263" s="13"/>
       <c r="K1263" s="13"/>
     </row>
     <row r="1264" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1264" s="35" t="s">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="B1264" s="35"/>
       <c r="C1264" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="D1264" s="35" t="s">
-        <v>1114</v>
+        <v>860</v>
+      </c>
+      <c r="D1264" s="37" t="s">
+        <v>1983</v>
       </c>
       <c r="E1264" s="37" t="s">
-        <v>1987</v>
+        <v>4112</v>
       </c>
       <c r="F1264" s="12"/>
       <c r="G1264" s="12"/>
       <c r="H1264" s="12"/>
-      <c r="I1264" s="13" t="s">
-        <v>128</v>
-      </c>
+      <c r="I1264" s="13"/>
       <c r="J1264" s="13"/>
       <c r="K1264" s="13"/>
     </row>
@@ -42632,12 +42603,14 @@
       </c>
       <c r="B1265" s="35"/>
       <c r="C1265" s="35" t="s">
-        <v>205</v>
+        <v>1104</v>
       </c>
       <c r="D1265" s="35" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E1265" s="37"/>
+        <v>1985</v>
+      </c>
+      <c r="E1265" s="37" t="s">
+        <v>1986</v>
+      </c>
       <c r="F1265" s="12"/>
       <c r="G1265" s="12"/>
       <c r="H1265" s="12"/>
@@ -42653,10 +42626,10 @@
       </c>
       <c r="B1266" s="35"/>
       <c r="C1266" s="35" t="s">
-        <v>850</v>
+        <v>274</v>
       </c>
       <c r="D1266" s="35" t="s">
-        <v>851</v>
+        <v>1838</v>
       </c>
       <c r="E1266" s="37"/>
       <c r="F1266" s="12"/>
@@ -42674,10 +42647,10 @@
       </c>
       <c r="B1267" s="35"/>
       <c r="C1267" s="35" t="s">
-        <v>1989</v>
+        <v>162</v>
       </c>
       <c r="D1267" s="35" t="s">
-        <v>1990</v>
+        <v>163</v>
       </c>
       <c r="E1267" s="37"/>
       <c r="F1267" s="12"/>
@@ -42689,157 +42662,151 @@
       <c r="J1267" s="13"/>
       <c r="K1267" s="13"/>
     </row>
-    <row r="1268" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1268" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1268" s="35" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="B1268" s="35"/>
       <c r="C1268" s="35" t="s">
-        <v>1627</v>
+        <v>430</v>
       </c>
       <c r="D1268" s="35" t="s">
-        <v>1628</v>
+        <v>1114</v>
       </c>
       <c r="E1268" s="37" t="s">
-        <v>1992</v>
+        <v>1987</v>
       </c>
       <c r="F1268" s="12"/>
       <c r="G1268" s="12"/>
-      <c r="H1268" s="13"/>
+      <c r="H1268" s="12"/>
       <c r="I1268" s="13" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="J1268" s="13"/>
       <c r="K1268" s="13"/>
     </row>
     <row r="1269" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1269" s="35" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="B1269" s="35"/>
       <c r="C1269" s="35" t="s">
-        <v>1993</v>
+        <v>205</v>
       </c>
       <c r="D1269" s="35" t="s">
-        <v>1994</v>
-      </c>
-      <c r="E1269" s="37" t="s">
-        <v>1995</v>
-      </c>
+        <v>1988</v>
+      </c>
+      <c r="E1269" s="37"/>
       <c r="F1269" s="12"/>
       <c r="G1269" s="12"/>
-      <c r="H1269" s="13"/>
+      <c r="H1269" s="12"/>
       <c r="I1269" s="13" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="J1269" s="13"/>
       <c r="K1269" s="13"/>
     </row>
     <row r="1270" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1270" s="13" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B1270" s="13"/>
-      <c r="C1270" s="13" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D1270" s="12" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E1270" s="12" t="s">
-        <v>1999</v>
-      </c>
+      <c r="A1270" s="35" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1270" s="35"/>
+      <c r="C1270" s="35" t="s">
+        <v>850</v>
+      </c>
+      <c r="D1270" s="35" t="s">
+        <v>851</v>
+      </c>
+      <c r="E1270" s="37"/>
       <c r="F1270" s="12"/>
       <c r="G1270" s="12"/>
-      <c r="H1270" s="13"/>
+      <c r="H1270" s="12"/>
       <c r="I1270" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J1270" s="13"/>
       <c r="K1270" s="13"/>
     </row>
     <row r="1271" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1271" s="13" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B1271" s="13"/>
-      <c r="C1271" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1271" s="12" t="s">
-        <v>2000</v>
-      </c>
-      <c r="E1271" s="12" t="s">
-        <v>2001</v>
-      </c>
+      <c r="A1271" s="35" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1271" s="35"/>
+      <c r="C1271" s="35" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D1271" s="35" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E1271" s="37"/>
       <c r="F1271" s="12"/>
       <c r="G1271" s="12"/>
-      <c r="H1271" s="13"/>
+      <c r="H1271" s="12"/>
       <c r="I1271" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J1271" s="13"/>
       <c r="K1271" s="13"/>
     </row>
-    <row r="1272" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1272" s="13" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B1272" s="13"/>
-      <c r="C1272" s="13" t="s">
-        <v>992</v>
-      </c>
-      <c r="D1272" s="12" t="s">
-        <v>2005</v>
-      </c>
-      <c r="E1272" s="12" t="s">
-        <v>2006</v>
+    <row r="1272" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1272" s="35" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1272" s="35"/>
+      <c r="C1272" s="35" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D1272" s="35" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E1272" s="37" t="s">
+        <v>1992</v>
       </c>
       <c r="F1272" s="12"/>
       <c r="G1272" s="12"/>
       <c r="H1272" s="13"/>
       <c r="I1272" s="13" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="J1272" s="13"/>
       <c r="K1272" s="13"/>
     </row>
-    <row r="1273" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1273" s="13" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B1273" s="13"/>
-      <c r="C1273" s="13" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D1273" s="12" t="s">
-        <v>2011</v>
-      </c>
-      <c r="E1273" s="12" t="s">
-        <v>2012</v>
+    <row r="1273" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1273" s="35" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1273" s="35"/>
+      <c r="C1273" s="35" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D1273" s="35" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E1273" s="37" t="s">
+        <v>1995</v>
       </c>
       <c r="F1273" s="12"/>
       <c r="G1273" s="12"/>
       <c r="H1273" s="13"/>
       <c r="I1273" s="13" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="J1273" s="13"/>
       <c r="K1273" s="13"/>
     </row>
-    <row r="1274" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1274" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1274" s="13" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="B1274" s="13"/>
       <c r="C1274" s="13" t="s">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="D1274" s="12" t="s">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E1274" s="12" t="s">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="F1274" s="12"/>
       <c r="G1274" s="12"/>
@@ -42850,19 +42817,19 @@
       <c r="J1274" s="13"/>
       <c r="K1274" s="13"/>
     </row>
-    <row r="1275" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1275" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1275" s="13" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="B1275" s="13"/>
       <c r="C1275" s="13" t="s">
-        <v>75</v>
+        <v>384</v>
       </c>
       <c r="D1275" s="12" t="s">
-        <v>2003</v>
-      </c>
-      <c r="E1275" s="37" t="s">
-        <v>2004</v>
+        <v>2000</v>
+      </c>
+      <c r="E1275" s="12" t="s">
+        <v>2001</v>
       </c>
       <c r="F1275" s="12"/>
       <c r="G1275" s="12"/>
@@ -42873,100 +42840,108 @@
       <c r="J1275" s="13"/>
       <c r="K1275" s="13"/>
     </row>
-    <row r="1276" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1276" s="14" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B1276" s="14"/>
-      <c r="C1276" s="14" t="s">
-        <v>2014</v>
-      </c>
-      <c r="D1276" s="14" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1276" s="44"/>
-      <c r="F1276" s="15"/>
-      <c r="G1276" s="15"/>
-      <c r="H1276" s="14"/>
+    <row r="1276" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1276" s="13" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1276" s="13"/>
+      <c r="C1276" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="D1276" s="12" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E1276" s="12" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F1276" s="12"/>
+      <c r="G1276" s="12"/>
+      <c r="H1276" s="13"/>
       <c r="I1276" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J1276" s="14"/>
-      <c r="K1276" s="14"/>
-    </row>
-    <row r="1277" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1277" s="40" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B1277" s="40"/>
-      <c r="C1277" s="40" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D1277" s="40" t="s">
-        <v>2017</v>
-      </c>
-      <c r="E1277" s="44"/>
-      <c r="F1277" s="15"/>
-      <c r="G1277" s="15"/>
-      <c r="H1277" s="14"/>
+      <c r="J1276" s="13"/>
+      <c r="K1276" s="13"/>
+    </row>
+    <row r="1277" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1277" s="13" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1277" s="13"/>
+      <c r="C1277" s="13" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D1277" s="12" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E1277" s="12" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F1277" s="12"/>
+      <c r="G1277" s="12"/>
+      <c r="H1277" s="13"/>
       <c r="I1277" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J1277" s="14"/>
-      <c r="K1277" s="14"/>
-    </row>
-    <row r="1278" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1278" s="40" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B1278" s="40"/>
-      <c r="C1278" s="40" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D1278" s="40" t="s">
-        <v>2019</v>
-      </c>
-      <c r="E1278" s="44"/>
-      <c r="F1278" s="15"/>
-      <c r="G1278" s="15"/>
-      <c r="H1278" s="14"/>
+      <c r="J1277" s="13"/>
+      <c r="K1277" s="13"/>
+    </row>
+    <row r="1278" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1278" s="13" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1278" s="13"/>
+      <c r="C1278" s="13" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D1278" s="12" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E1278" s="12" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F1278" s="12"/>
+      <c r="G1278" s="12"/>
+      <c r="H1278" s="13"/>
       <c r="I1278" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J1278" s="14"/>
-      <c r="K1278" s="14"/>
-    </row>
-    <row r="1279" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1279" s="40" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B1279" s="40"/>
-      <c r="C1279" s="40" t="s">
-        <v>2020</v>
-      </c>
-      <c r="D1279" s="40" t="s">
-        <v>2021</v>
-      </c>
-      <c r="E1279" s="44"/>
-      <c r="F1279" s="15"/>
-      <c r="G1279" s="15"/>
-      <c r="H1279" s="14"/>
+      <c r="J1278" s="13"/>
+      <c r="K1278" s="13"/>
+    </row>
+    <row r="1279" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1279" s="13" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1279" s="13"/>
+      <c r="C1279" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1279" s="12" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E1279" s="37" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F1279" s="12"/>
+      <c r="G1279" s="12"/>
+      <c r="H1279" s="13"/>
       <c r="I1279" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J1279" s="14"/>
-      <c r="K1279" s="14"/>
+      <c r="J1279" s="13"/>
+      <c r="K1279" s="13"/>
     </row>
     <row r="1280" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1280" s="40" t="s">
+      <c r="A1280" s="14" t="s">
         <v>2013</v>
       </c>
-      <c r="B1280" s="40"/>
-      <c r="C1280" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1280" s="40" t="s">
-        <v>2022</v>
+      <c r="B1280" s="14"/>
+      <c r="C1280" s="14" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D1280" s="14" t="s">
+        <v>2015</v>
       </c>
       <c r="E1280" s="44"/>
       <c r="F1280" s="15"/>
@@ -42980,14 +42955,14 @@
     </row>
     <row r="1281" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1281" s="40" t="s">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="B1281" s="40"/>
       <c r="C1281" s="40" t="s">
-        <v>347</v>
+        <v>2016</v>
       </c>
       <c r="D1281" s="40" t="s">
-        <v>348</v>
+        <v>2017</v>
       </c>
       <c r="E1281" s="44"/>
       <c r="F1281" s="15"/>
@@ -43001,14 +42976,14 @@
     </row>
     <row r="1282" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1282" s="40" t="s">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="B1282" s="40"/>
       <c r="C1282" s="40" t="s">
-        <v>1058</v>
+        <v>2018</v>
       </c>
       <c r="D1282" s="40" t="s">
-        <v>352</v>
+        <v>2019</v>
       </c>
       <c r="E1282" s="44"/>
       <c r="F1282" s="15"/>
@@ -43022,14 +42997,14 @@
     </row>
     <row r="1283" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1283" s="40" t="s">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="B1283" s="40"/>
       <c r="C1283" s="40" t="s">
-        <v>212</v>
+        <v>2020</v>
       </c>
       <c r="D1283" s="40" t="s">
-        <v>213</v>
+        <v>2021</v>
       </c>
       <c r="E1283" s="44"/>
       <c r="F1283" s="15"/>
@@ -43041,205 +43016,181 @@
       <c r="J1283" s="14"/>
       <c r="K1283" s="14"/>
     </row>
-    <row r="1284" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1284" s="10" t="s">
+    <row r="1284" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1284" s="40" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1284" s="40"/>
+      <c r="C1284" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1284" s="40" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E1284" s="44"/>
+      <c r="F1284" s="15"/>
+      <c r="G1284" s="15"/>
+      <c r="H1284" s="14"/>
+      <c r="I1284" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1284" s="14"/>
+      <c r="K1284" s="14"/>
+    </row>
+    <row r="1285" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1285" s="40" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1285" s="40"/>
+      <c r="C1285" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1285" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1285" s="44"/>
+      <c r="F1285" s="15"/>
+      <c r="G1285" s="15"/>
+      <c r="H1285" s="14"/>
+      <c r="I1285" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1285" s="14"/>
+      <c r="K1285" s="14"/>
+    </row>
+    <row r="1286" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1286" s="40" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1286" s="40"/>
+      <c r="C1286" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D1286" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="E1286" s="44"/>
+      <c r="F1286" s="15"/>
+      <c r="G1286" s="15"/>
+      <c r="H1286" s="14"/>
+      <c r="I1286" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1286" s="14"/>
+      <c r="K1286" s="14"/>
+    </row>
+    <row r="1287" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1287" s="40" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B1287" s="40"/>
+      <c r="C1287" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1287" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1287" s="44"/>
+      <c r="F1287" s="15"/>
+      <c r="G1287" s="15"/>
+      <c r="H1287" s="14"/>
+      <c r="I1287" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1287" s="14"/>
+      <c r="K1287" s="14"/>
+    </row>
+    <row r="1288" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1288" s="10" t="s">
         <v>4297</v>
       </c>
-      <c r="B1284" s="10"/>
-      <c r="C1284" s="10" t="s">
+      <c r="B1288" s="10"/>
+      <c r="C1288" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D1284" s="11" t="s">
+      <c r="D1288" s="11" t="s">
         <v>4300</v>
       </c>
-      <c r="E1284" s="11" t="s">
+      <c r="E1288" s="11" t="s">
         <v>4304</v>
       </c>
-      <c r="F1284" s="11"/>
-      <c r="G1284" s="11"/>
-      <c r="H1284" s="10"/>
-      <c r="I1284" s="10" t="s">
+      <c r="F1288" s="11"/>
+      <c r="G1288" s="11"/>
+      <c r="H1288" s="10"/>
+      <c r="I1288" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="J1284" s="10"/>
-      <c r="K1284" s="10"/>
-    </row>
-    <row r="1285" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1285" s="10" t="s">
+      <c r="J1288" s="10"/>
+      <c r="K1288" s="10"/>
+    </row>
+    <row r="1289" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1289" s="10" t="s">
         <v>4297</v>
       </c>
-      <c r="B1285" s="10"/>
-      <c r="C1285" s="10" t="s">
+      <c r="B1289" s="10"/>
+      <c r="C1289" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="D1285" s="11" t="s">
+      <c r="D1289" s="11" t="s">
         <v>1287</v>
       </c>
-      <c r="E1285" s="11" t="s">
+      <c r="E1289" s="11" t="s">
         <v>4303</v>
       </c>
-      <c r="F1285" s="11"/>
-      <c r="G1285" s="11"/>
-      <c r="H1285" s="10"/>
-      <c r="I1285" s="10" t="s">
+      <c r="F1289" s="11"/>
+      <c r="G1289" s="11"/>
+      <c r="H1289" s="10"/>
+      <c r="I1289" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="J1285" s="10"/>
-      <c r="K1285" s="10"/>
-    </row>
-    <row r="1286" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1286" s="10" t="s">
+      <c r="J1289" s="10"/>
+      <c r="K1289" s="10"/>
+    </row>
+    <row r="1290" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1290" s="10" t="s">
         <v>4297</v>
       </c>
-      <c r="B1286" s="10"/>
-      <c r="C1286" s="10" t="s">
+      <c r="B1290" s="10"/>
+      <c r="C1290" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="D1286" s="11" t="s">
+      <c r="D1290" s="11" t="s">
         <v>4298</v>
       </c>
-      <c r="E1286" s="11" t="s">
+      <c r="E1290" s="11" t="s">
         <v>4301</v>
       </c>
-      <c r="F1286" s="11"/>
-      <c r="G1286" s="11"/>
-      <c r="H1286" s="10"/>
-      <c r="I1286" s="10" t="s">
+      <c r="F1290" s="11"/>
+      <c r="G1290" s="11"/>
+      <c r="H1290" s="10"/>
+      <c r="I1290" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="J1286" s="10"/>
-      <c r="K1286" s="10"/>
-    </row>
-    <row r="1287" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1287" s="10" t="s">
+      <c r="J1290" s="10"/>
+      <c r="K1290" s="10"/>
+    </row>
+    <row r="1291" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1291" s="10" t="s">
         <v>4297</v>
       </c>
-      <c r="B1287" s="10"/>
-      <c r="C1287" s="10" t="s">
+      <c r="B1291" s="10"/>
+      <c r="C1291" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D1287" s="11" t="s">
+      <c r="D1291" s="11" t="s">
         <v>4299</v>
       </c>
-      <c r="E1287" s="11" t="s">
+      <c r="E1291" s="11" t="s">
         <v>4302</v>
       </c>
-      <c r="F1287" s="11"/>
-      <c r="G1287" s="11"/>
-      <c r="H1287" s="10"/>
-      <c r="I1287" s="10" t="s">
+      <c r="F1291" s="11"/>
+      <c r="G1291" s="11"/>
+      <c r="H1291" s="10"/>
+      <c r="I1291" s="10" t="s">
         <v>1119</v>
       </c>
-      <c r="J1287" s="10"/>
-      <c r="K1287" s="10"/>
-    </row>
-    <row r="1288" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1288" s="39" t="s">
-        <v>2024</v>
-      </c>
-      <c r="B1288" s="39"/>
-      <c r="C1288" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1288" s="39" t="s">
-        <v>2025</v>
-      </c>
-      <c r="E1288" s="43" t="s">
-        <v>2026</v>
-      </c>
-      <c r="F1288" s="17"/>
-      <c r="G1288" s="17"/>
-      <c r="H1288" s="23" t="s">
-        <v>2027</v>
-      </c>
-      <c r="I1288" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1288" s="23" t="s">
-        <v>2028</v>
-      </c>
-      <c r="K1288" s="23"/>
-    </row>
-    <row r="1289" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1289" s="39" t="s">
-        <v>2024</v>
-      </c>
-      <c r="B1289" s="39"/>
-      <c r="C1289" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="D1289" s="39" t="s">
-        <v>2029</v>
-      </c>
-      <c r="E1289" s="43" t="s">
-        <v>2030</v>
-      </c>
-      <c r="F1289" s="17"/>
-      <c r="G1289" s="17"/>
-      <c r="H1289" s="23" t="s">
-        <v>2027</v>
-      </c>
-      <c r="I1289" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1289" s="23" t="s">
-        <v>2028</v>
-      </c>
-      <c r="K1289" s="23"/>
-    </row>
-    <row r="1290" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1290" s="39" t="s">
-        <v>2024</v>
-      </c>
-      <c r="B1290" s="39"/>
-      <c r="C1290" s="39" t="s">
-        <v>877</v>
-      </c>
-      <c r="D1290" s="39" t="s">
-        <v>2031</v>
-      </c>
-      <c r="E1290" s="43" t="s">
-        <v>2032</v>
-      </c>
-      <c r="F1290" s="17"/>
-      <c r="G1290" s="17"/>
-      <c r="H1290" s="23" t="s">
-        <v>2033</v>
-      </c>
-      <c r="I1290" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1290" s="23" t="s">
-        <v>2028</v>
-      </c>
-      <c r="K1290" s="23"/>
-    </row>
-    <row r="1291" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1291" s="39" t="s">
-        <v>2024</v>
-      </c>
-      <c r="B1291" s="39"/>
-      <c r="C1291" s="39" t="s">
-        <v>2034</v>
-      </c>
-      <c r="D1291" s="39" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E1291" s="43" t="s">
-        <v>2036</v>
-      </c>
-      <c r="F1291" s="17"/>
-      <c r="G1291" s="17"/>
-      <c r="H1291" s="23" t="s">
-        <v>2027</v>
-      </c>
-      <c r="I1291" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1291" s="23" t="s">
-        <v>2028</v>
-      </c>
-      <c r="K1291" s="23"/>
+      <c r="J1291" s="10"/>
+      <c r="K1291" s="10"/>
     </row>
     <row r="1292" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1292" s="39" t="s">
@@ -43247,13 +43198,13 @@
       </c>
       <c r="B1292" s="39"/>
       <c r="C1292" s="39" t="s">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="D1292" s="39" t="s">
-        <v>281</v>
+        <v>2025</v>
       </c>
       <c r="E1292" s="43" t="s">
-        <v>2037</v>
+        <v>2026</v>
       </c>
       <c r="F1292" s="17"/>
       <c r="G1292" s="17"/>
@@ -43274,13 +43225,13 @@
       </c>
       <c r="B1293" s="39"/>
       <c r="C1293" s="39" t="s">
-        <v>2038</v>
+        <v>379</v>
       </c>
       <c r="D1293" s="39" t="s">
-        <v>2039</v>
+        <v>2029</v>
       </c>
       <c r="E1293" s="43" t="s">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="F1293" s="17"/>
       <c r="G1293" s="17"/>
@@ -43299,20 +43250,20 @@
       <c r="A1294" s="39" t="s">
         <v>2024</v>
       </c>
-      <c r="B1294" s="23"/>
-      <c r="C1294" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="D1294" s="23" t="s">
-        <v>2041</v>
-      </c>
-      <c r="E1294" s="17" t="s">
-        <v>2042</v>
+      <c r="B1294" s="39"/>
+      <c r="C1294" s="39" t="s">
+        <v>877</v>
+      </c>
+      <c r="D1294" s="39" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E1294" s="43" t="s">
+        <v>2032</v>
       </c>
       <c r="F1294" s="17"/>
       <c r="G1294" s="17"/>
       <c r="H1294" s="23" t="s">
-        <v>2043</v>
+        <v>2033</v>
       </c>
       <c r="I1294" s="13" t="s">
         <v>15</v>
@@ -43326,15 +43277,15 @@
       <c r="A1295" s="39" t="s">
         <v>2024</v>
       </c>
-      <c r="B1295" s="23"/>
-      <c r="C1295" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1295" s="23" t="s">
-        <v>2044</v>
-      </c>
-      <c r="E1295" s="17" t="s">
-        <v>2045</v>
+      <c r="B1295" s="39"/>
+      <c r="C1295" s="39" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D1295" s="39" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E1295" s="43" t="s">
+        <v>2036</v>
       </c>
       <c r="F1295" s="17"/>
       <c r="G1295" s="17"/>
@@ -43350,18 +43301,18 @@
       <c r="K1295" s="23"/>
     </row>
     <row r="1296" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1296" s="23" t="s">
+      <c r="A1296" s="39" t="s">
         <v>2024</v>
       </c>
-      <c r="B1296" s="23"/>
-      <c r="C1296" s="23" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D1296" s="23" t="s">
-        <v>2046</v>
-      </c>
-      <c r="E1296" s="17" t="s">
-        <v>2047</v>
+      <c r="B1296" s="39"/>
+      <c r="C1296" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1296" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1296" s="43" t="s">
+        <v>2037</v>
       </c>
       <c r="F1296" s="17"/>
       <c r="G1296" s="17"/>
@@ -43377,23 +43328,23 @@
       <c r="K1296" s="23"/>
     </row>
     <row r="1297" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1297" s="23" t="s">
+      <c r="A1297" s="39" t="s">
         <v>2024</v>
       </c>
-      <c r="B1297" s="23"/>
-      <c r="C1297" s="23" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D1297" s="23" t="s">
-        <v>2049</v>
-      </c>
-      <c r="E1297" s="17" t="s">
-        <v>2050</v>
+      <c r="B1297" s="39"/>
+      <c r="C1297" s="39" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D1297" s="39" t="s">
+        <v>2039</v>
+      </c>
+      <c r="E1297" s="43" t="s">
+        <v>2040</v>
       </c>
       <c r="F1297" s="17"/>
       <c r="G1297" s="17"/>
       <c r="H1297" s="23" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="I1297" s="13" t="s">
         <v>15</v>
@@ -43404,23 +43355,23 @@
       <c r="K1297" s="23"/>
     </row>
     <row r="1298" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1298" s="23" t="s">
+      <c r="A1298" s="39" t="s">
         <v>2024</v>
       </c>
       <c r="B1298" s="23"/>
       <c r="C1298" s="23" t="s">
-        <v>229</v>
+        <v>503</v>
       </c>
       <c r="D1298" s="23" t="s">
-        <v>2051</v>
+        <v>2041</v>
       </c>
       <c r="E1298" s="17" t="s">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="F1298" s="17"/>
       <c r="G1298" s="17"/>
       <c r="H1298" s="23" t="s">
-        <v>2033</v>
+        <v>2043</v>
       </c>
       <c r="I1298" s="13" t="s">
         <v>15</v>
@@ -43431,18 +43382,18 @@
       <c r="K1298" s="23"/>
     </row>
     <row r="1299" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1299" s="23" t="s">
+      <c r="A1299" s="39" t="s">
         <v>2024</v>
       </c>
       <c r="B1299" s="23"/>
       <c r="C1299" s="23" t="s">
-        <v>2053</v>
+        <v>64</v>
       </c>
       <c r="D1299" s="23" t="s">
-        <v>2054</v>
+        <v>2044</v>
       </c>
       <c r="E1299" s="17" t="s">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="F1299" s="17"/>
       <c r="G1299" s="17"/>
@@ -43463,13 +43414,13 @@
       </c>
       <c r="B1300" s="23"/>
       <c r="C1300" s="23" t="s">
-        <v>1623</v>
+        <v>1876</v>
       </c>
       <c r="D1300" s="23" t="s">
-        <v>2056</v>
+        <v>2046</v>
       </c>
       <c r="E1300" s="17" t="s">
-        <v>2057</v>
+        <v>2047</v>
       </c>
       <c r="F1300" s="17"/>
       <c r="G1300" s="17"/>
@@ -43490,13 +43441,13 @@
       </c>
       <c r="B1301" s="23"/>
       <c r="C1301" s="23" t="s">
-        <v>1194</v>
+        <v>2048</v>
       </c>
       <c r="D1301" s="23" t="s">
-        <v>2058</v>
+        <v>2049</v>
       </c>
       <c r="E1301" s="17" t="s">
-        <v>2059</v>
+        <v>2050</v>
       </c>
       <c r="F1301" s="17"/>
       <c r="G1301" s="17"/>
@@ -43517,18 +43468,18 @@
       </c>
       <c r="B1302" s="23"/>
       <c r="C1302" s="23" t="s">
-        <v>2060</v>
+        <v>229</v>
       </c>
       <c r="D1302" s="23" t="s">
-        <v>2061</v>
+        <v>2051</v>
       </c>
       <c r="E1302" s="17" t="s">
-        <v>2062</v>
+        <v>2052</v>
       </c>
       <c r="F1302" s="17"/>
       <c r="G1302" s="17"/>
       <c r="H1302" s="23" t="s">
-        <v>2027</v>
+        <v>2033</v>
       </c>
       <c r="I1302" s="13" t="s">
         <v>15</v>
@@ -43544,18 +43495,18 @@
       </c>
       <c r="B1303" s="23"/>
       <c r="C1303" s="23" t="s">
-        <v>1980</v>
+        <v>2053</v>
       </c>
       <c r="D1303" s="23" t="s">
-        <v>2063</v>
+        <v>2054</v>
       </c>
       <c r="E1303" s="17" t="s">
-        <v>2064</v>
+        <v>2055</v>
       </c>
       <c r="F1303" s="17"/>
       <c r="G1303" s="17"/>
       <c r="H1303" s="23" t="s">
-        <v>2043</v>
+        <v>2027</v>
       </c>
       <c r="I1303" s="13" t="s">
         <v>15</v>
@@ -43566,23 +43517,23 @@
       <c r="K1303" s="23"/>
     </row>
     <row r="1304" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1304" s="23" t="s">
+      <c r="A1304" s="39" t="s">
         <v>2024</v>
       </c>
       <c r="B1304" s="23"/>
       <c r="C1304" s="23" t="s">
-        <v>2065</v>
+        <v>1623</v>
       </c>
       <c r="D1304" s="23" t="s">
-        <v>2066</v>
+        <v>2056</v>
       </c>
       <c r="E1304" s="17" t="s">
-        <v>2067</v>
+        <v>2057</v>
       </c>
       <c r="F1304" s="17"/>
       <c r="G1304" s="17"/>
       <c r="H1304" s="23" t="s">
-        <v>2043</v>
+        <v>2027</v>
       </c>
       <c r="I1304" s="13" t="s">
         <v>15</v>
@@ -43593,23 +43544,23 @@
       <c r="K1304" s="23"/>
     </row>
     <row r="1305" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1305" s="39" t="s">
+      <c r="A1305" s="23" t="s">
         <v>2024</v>
       </c>
       <c r="B1305" s="23"/>
       <c r="C1305" s="23" t="s">
-        <v>141</v>
+        <v>1194</v>
       </c>
       <c r="D1305" s="23" t="s">
-        <v>2068</v>
+        <v>2058</v>
       </c>
       <c r="E1305" s="17" t="s">
-        <v>2069</v>
+        <v>2059</v>
       </c>
       <c r="F1305" s="17"/>
       <c r="G1305" s="17"/>
       <c r="H1305" s="23" t="s">
-        <v>2043</v>
+        <v>2033</v>
       </c>
       <c r="I1305" s="13" t="s">
         <v>15</v>
@@ -43620,18 +43571,18 @@
       <c r="K1305" s="23"/>
     </row>
     <row r="1306" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1306" s="39" t="s">
+      <c r="A1306" s="23" t="s">
         <v>2024</v>
       </c>
       <c r="B1306" s="23"/>
       <c r="C1306" s="23" t="s">
-        <v>324</v>
+        <v>2060</v>
       </c>
       <c r="D1306" s="23" t="s">
-        <v>2070</v>
+        <v>2061</v>
       </c>
       <c r="E1306" s="17" t="s">
-        <v>2071</v>
+        <v>2062</v>
       </c>
       <c r="F1306" s="17"/>
       <c r="G1306" s="17"/>
@@ -43647,23 +43598,23 @@
       <c r="K1306" s="23"/>
     </row>
     <row r="1307" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1307" s="39" t="s">
+      <c r="A1307" s="23" t="s">
         <v>2024</v>
       </c>
       <c r="B1307" s="23"/>
       <c r="C1307" s="23" t="s">
-        <v>560</v>
+        <v>1980</v>
       </c>
       <c r="D1307" s="23" t="s">
-        <v>2072</v>
+        <v>2063</v>
       </c>
       <c r="E1307" s="17" t="s">
-        <v>2073</v>
+        <v>2064</v>
       </c>
       <c r="F1307" s="17"/>
       <c r="G1307" s="17"/>
       <c r="H1307" s="23" t="s">
-        <v>2027</v>
+        <v>2043</v>
       </c>
       <c r="I1307" s="13" t="s">
         <v>15</v>
@@ -43674,23 +43625,23 @@
       <c r="K1307" s="23"/>
     </row>
     <row r="1308" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1308" s="39" t="s">
+      <c r="A1308" s="23" t="s">
         <v>2024</v>
       </c>
       <c r="B1308" s="23"/>
       <c r="C1308" s="23" t="s">
-        <v>205</v>
+        <v>2065</v>
       </c>
       <c r="D1308" s="23" t="s">
-        <v>2074</v>
+        <v>2066</v>
       </c>
       <c r="E1308" s="17" t="s">
-        <v>2075</v>
+        <v>2067</v>
       </c>
       <c r="F1308" s="17"/>
       <c r="G1308" s="17"/>
       <c r="H1308" s="23" t="s">
-        <v>2027</v>
+        <v>2043</v>
       </c>
       <c r="I1308" s="13" t="s">
         <v>15</v>
@@ -43700,208 +43651,224 @@
       </c>
       <c r="K1308" s="23"/>
     </row>
-    <row r="1309" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1309" s="12" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B1309" s="12"/>
-      <c r="C1309" s="13" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D1309" s="13" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E1309" s="12" t="s">
-        <v>2078</v>
-      </c>
-      <c r="F1309" s="12"/>
-      <c r="G1309" s="12"/>
-      <c r="H1309" s="12"/>
+    <row r="1309" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1309" s="39" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1309" s="23"/>
+      <c r="C1309" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1309" s="23" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E1309" s="17" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F1309" s="17"/>
+      <c r="G1309" s="17"/>
+      <c r="H1309" s="23" t="s">
+        <v>2043</v>
+      </c>
       <c r="I1309" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1309" s="12"/>
-      <c r="K1309" s="23" t="s">
+      <c r="J1309" s="23" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K1309" s="23"/>
+    </row>
+    <row r="1310" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1310" s="39" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="1310" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1310" s="37" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B1310" s="12"/>
-      <c r="C1310" s="13" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D1310" s="13" t="s">
-        <v>2079</v>
-      </c>
-      <c r="E1310" s="12" t="s">
-        <v>2080</v>
-      </c>
-      <c r="F1310" s="12"/>
-      <c r="G1310" s="12"/>
-      <c r="H1310" s="12"/>
+      <c r="B1310" s="23"/>
+      <c r="C1310" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1310" s="23" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E1310" s="17" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F1310" s="17"/>
+      <c r="G1310" s="17"/>
+      <c r="H1310" s="23" t="s">
+        <v>2027</v>
+      </c>
       <c r="I1310" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1310" s="12"/>
-      <c r="K1310" s="23" t="s">
+      <c r="J1310" s="23" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K1310" s="23"/>
+    </row>
+    <row r="1311" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1311" s="39" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="1311" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1311" s="12" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B1311" s="12"/>
-      <c r="C1311" s="13" t="s">
-        <v>2081</v>
-      </c>
-      <c r="D1311" s="13" t="s">
-        <v>2082</v>
-      </c>
-      <c r="E1311" s="12" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F1311" s="12"/>
-      <c r="G1311" s="12"/>
-      <c r="H1311" s="12"/>
+      <c r="B1311" s="23"/>
+      <c r="C1311" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1311" s="23" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E1311" s="17" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F1311" s="17"/>
+      <c r="G1311" s="17"/>
+      <c r="H1311" s="23" t="s">
+        <v>2027</v>
+      </c>
       <c r="I1311" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1311" s="12"/>
-      <c r="K1311" s="23" t="s">
+      <c r="J1311" s="23" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K1311" s="23"/>
+    </row>
+    <row r="1312" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1312" s="39" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="1312" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1312" s="12" t="s">
-        <v>2028</v>
-      </c>
-      <c r="B1312" s="12"/>
-      <c r="C1312" s="13" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D1312" s="13" t="s">
-        <v>2085</v>
-      </c>
-      <c r="E1312" s="12" t="s">
-        <v>2086</v>
-      </c>
-      <c r="F1312" s="12"/>
-      <c r="G1312" s="12"/>
-      <c r="H1312" s="12"/>
+      <c r="B1312" s="23"/>
+      <c r="C1312" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1312" s="23" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E1312" s="17" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F1312" s="17"/>
+      <c r="G1312" s="17"/>
+      <c r="H1312" s="23" t="s">
+        <v>2027</v>
+      </c>
       <c r="I1312" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J1312" s="12"/>
-      <c r="K1312" s="23" t="s">
+      <c r="J1312" s="23" t="s">
+        <v>2028</v>
+      </c>
+      <c r="K1312" s="23"/>
+    </row>
+    <row r="1313" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A1313" s="12" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1313" s="12"/>
+      <c r="C1313" s="13" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D1313" s="13" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E1313" s="12" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F1313" s="12"/>
+      <c r="G1313" s="12"/>
+      <c r="H1313" s="12"/>
+      <c r="I1313" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1313" s="12"/>
+      <c r="K1313" s="23" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="1313" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1313" s="54" t="s">
-        <v>3753</v>
-      </c>
-      <c r="B1313" s="54"/>
-      <c r="C1313" s="54" t="s">
-        <v>3739</v>
-      </c>
-      <c r="D1313" s="20" t="s">
-        <v>3756</v>
-      </c>
-      <c r="E1313" s="20" t="s">
-        <v>4260</v>
-      </c>
-      <c r="F1313" s="20"/>
-      <c r="G1313" s="20"/>
-      <c r="H1313" s="54"/>
-      <c r="I1313" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1313" s="54"/>
-      <c r="K1313" s="54"/>
-    </row>
-    <row r="1314" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1314" s="55" t="s">
-        <v>3753</v>
-      </c>
-      <c r="B1314" s="54"/>
-      <c r="C1314" s="54" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1314" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="E1314" s="20" t="s">
-        <v>4260</v>
-      </c>
-      <c r="F1314" s="20"/>
-      <c r="G1314" s="20"/>
-      <c r="H1314" s="54"/>
-      <c r="I1314" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1314" s="54"/>
-      <c r="K1314" s="54"/>
+    <row r="1314" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1314" s="37" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1314" s="12"/>
+      <c r="C1314" s="13" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D1314" s="13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E1314" s="12" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F1314" s="12"/>
+      <c r="G1314" s="12"/>
+      <c r="H1314" s="12"/>
+      <c r="I1314" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1314" s="12"/>
+      <c r="K1314" s="23" t="s">
+        <v>2024</v>
+      </c>
     </row>
     <row r="1315" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1315" s="55" t="s">
-        <v>3753</v>
-      </c>
-      <c r="B1315" s="54"/>
-      <c r="C1315" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1315" s="20" t="s">
-        <v>3754</v>
-      </c>
-      <c r="E1315" s="20" t="s">
-        <v>4260</v>
-      </c>
-      <c r="F1315" s="20"/>
-      <c r="G1315" s="20"/>
-      <c r="H1315" s="54"/>
-      <c r="I1315" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1315" s="54"/>
-      <c r="K1315" s="54"/>
+      <c r="A1315" s="12" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1315" s="12"/>
+      <c r="C1315" s="13" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D1315" s="13" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E1315" s="12" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F1315" s="12"/>
+      <c r="G1315" s="12"/>
+      <c r="H1315" s="12"/>
+      <c r="I1315" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1315" s="12"/>
+      <c r="K1315" s="23" t="s">
+        <v>2024</v>
+      </c>
     </row>
     <row r="1316" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1316" s="55" t="s">
-        <v>3753</v>
-      </c>
-      <c r="B1316" s="54"/>
-      <c r="C1316" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1316" s="20" t="s">
-        <v>3755</v>
-      </c>
-      <c r="E1316" s="20" t="s">
-        <v>4260</v>
-      </c>
-      <c r="F1316" s="20"/>
-      <c r="G1316" s="20"/>
-      <c r="H1316" s="54"/>
-      <c r="I1316" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1316" s="54"/>
-      <c r="K1316" s="54"/>
+      <c r="A1316" s="12" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1316" s="12"/>
+      <c r="C1316" s="13" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D1316" s="13" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E1316" s="12" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F1316" s="12"/>
+      <c r="G1316" s="12"/>
+      <c r="H1316" s="12"/>
+      <c r="I1316" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1316" s="12"/>
+      <c r="K1316" s="23" t="s">
+        <v>2024</v>
+      </c>
     </row>
     <row r="1317" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1317" s="55" t="s">
+      <c r="A1317" s="54" t="s">
         <v>3753</v>
       </c>
       <c r="B1317" s="54"/>
       <c r="C1317" s="54" t="s">
-        <v>308</v>
+        <v>3739</v>
       </c>
       <c r="D1317" s="20" t="s">
-        <v>3759</v>
+        <v>3756</v>
       </c>
       <c r="E1317" s="20" t="s">
         <v>4260</v>
@@ -43921,10 +43888,10 @@
       </c>
       <c r="B1318" s="54"/>
       <c r="C1318" s="54" t="s">
-        <v>837</v>
+        <v>403</v>
       </c>
       <c r="D1318" s="20" t="s">
-        <v>3762</v>
+        <v>404</v>
       </c>
       <c r="E1318" s="20" t="s">
         <v>4260</v>
@@ -43939,15 +43906,15 @@
       <c r="K1318" s="54"/>
     </row>
     <row r="1319" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1319" s="54" t="s">
+      <c r="A1319" s="55" t="s">
         <v>3753</v>
       </c>
       <c r="B1319" s="54"/>
       <c r="C1319" s="54" t="s">
-        <v>3761</v>
+        <v>218</v>
       </c>
       <c r="D1319" s="20" t="s">
-        <v>3760</v>
+        <v>3754</v>
       </c>
       <c r="E1319" s="20" t="s">
         <v>4260</v>
@@ -43967,10 +43934,10 @@
       </c>
       <c r="B1320" s="54"/>
       <c r="C1320" s="54" t="s">
-        <v>955</v>
+        <v>369</v>
       </c>
       <c r="D1320" s="20" t="s">
-        <v>956</v>
+        <v>3755</v>
       </c>
       <c r="E1320" s="20" t="s">
         <v>4260</v>
@@ -43985,15 +43952,15 @@
       <c r="K1320" s="54"/>
     </row>
     <row r="1321" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1321" s="54" t="s">
+      <c r="A1321" s="55" t="s">
         <v>3753</v>
       </c>
       <c r="B1321" s="54"/>
       <c r="C1321" s="54" t="s">
-        <v>839</v>
+        <v>308</v>
       </c>
       <c r="D1321" s="20" t="s">
-        <v>3757</v>
+        <v>3759</v>
       </c>
       <c r="E1321" s="20" t="s">
         <v>4260</v>
@@ -44008,15 +43975,15 @@
       <c r="K1321" s="54"/>
     </row>
     <row r="1322" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1322" s="54" t="s">
+      <c r="A1322" s="55" t="s">
         <v>3753</v>
       </c>
       <c r="B1322" s="54"/>
       <c r="C1322" s="54" t="s">
-        <v>75</v>
+        <v>837</v>
       </c>
       <c r="D1322" s="20" t="s">
-        <v>3840</v>
+        <v>3762</v>
       </c>
       <c r="E1322" s="20" t="s">
         <v>4260</v>
@@ -44030,16 +43997,16 @@
       <c r="J1322" s="54"/>
       <c r="K1322" s="54"/>
     </row>
-    <row r="1323" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1323" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1323" s="54" t="s">
         <v>3753</v>
       </c>
       <c r="B1323" s="54"/>
       <c r="C1323" s="54" t="s">
-        <v>264</v>
+        <v>3761</v>
       </c>
       <c r="D1323" s="20" t="s">
-        <v>3758</v>
+        <v>3760</v>
       </c>
       <c r="E1323" s="20" t="s">
         <v>4260</v>
@@ -44054,15 +44021,15 @@
       <c r="K1323" s="54"/>
     </row>
     <row r="1324" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1324" s="54" t="s">
+      <c r="A1324" s="55" t="s">
         <v>3753</v>
       </c>
       <c r="B1324" s="54"/>
       <c r="C1324" s="54" t="s">
-        <v>625</v>
+        <v>955</v>
       </c>
       <c r="D1324" s="20" t="s">
-        <v>3763</v>
+        <v>956</v>
       </c>
       <c r="E1324" s="20" t="s">
         <v>4260</v>
@@ -44076,188 +44043,172 @@
       <c r="J1324" s="54"/>
       <c r="K1324" s="54"/>
     </row>
-    <row r="1325" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1325" s="10" t="s">
-        <v>3745</v>
-      </c>
-      <c r="B1325" s="10"/>
-      <c r="C1325" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="D1325" s="11" t="s">
-        <v>3749</v>
-      </c>
-      <c r="E1325" s="11" t="s">
-        <v>3751</v>
-      </c>
-      <c r="F1325" s="11"/>
-      <c r="G1325" s="11"/>
-      <c r="H1325" s="10"/>
-      <c r="I1325" s="10" t="s">
+    <row r="1325" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1325" s="54" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B1325" s="54"/>
+      <c r="C1325" s="54" t="s">
+        <v>839</v>
+      </c>
+      <c r="D1325" s="20" t="s">
+        <v>3757</v>
+      </c>
+      <c r="E1325" s="20" t="s">
+        <v>4260</v>
+      </c>
+      <c r="F1325" s="20"/>
+      <c r="G1325" s="20"/>
+      <c r="H1325" s="54"/>
+      <c r="I1325" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="J1325" s="10"/>
-      <c r="K1325" s="10" t="s">
-        <v>4155</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1326" s="10" t="s">
-        <v>3745</v>
-      </c>
-      <c r="B1326" s="10"/>
-      <c r="C1326" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D1326" s="11" t="s">
-        <v>3747</v>
-      </c>
-      <c r="E1326" s="11" t="s">
-        <v>3752</v>
-      </c>
-      <c r="F1326" s="11"/>
-      <c r="G1326" s="11"/>
-      <c r="H1326" s="10"/>
-      <c r="I1326" s="10" t="s">
+      <c r="J1325" s="54"/>
+      <c r="K1325" s="54"/>
+    </row>
+    <row r="1326" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1326" s="54" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B1326" s="54"/>
+      <c r="C1326" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1326" s="20" t="s">
+        <v>3840</v>
+      </c>
+      <c r="E1326" s="20" t="s">
+        <v>4260</v>
+      </c>
+      <c r="F1326" s="20"/>
+      <c r="G1326" s="20"/>
+      <c r="H1326" s="54"/>
+      <c r="I1326" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="J1326" s="10"/>
-      <c r="K1326" s="10" t="s">
-        <v>4155</v>
-      </c>
+      <c r="J1326" s="54"/>
+      <c r="K1326" s="54"/>
     </row>
     <row r="1327" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1327" s="10" t="s">
-        <v>3745</v>
-      </c>
-      <c r="B1327" s="10"/>
-      <c r="C1327" s="10" t="s">
-        <v>3746</v>
-      </c>
-      <c r="D1327" s="11" t="s">
-        <v>3748</v>
-      </c>
-      <c r="E1327" s="11" t="s">
-        <v>3750</v>
-      </c>
-      <c r="F1327" s="11"/>
-      <c r="G1327" s="11"/>
-      <c r="H1327" s="10"/>
-      <c r="I1327" s="10" t="s">
+      <c r="A1327" s="54" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B1327" s="54"/>
+      <c r="C1327" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1327" s="20" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E1327" s="20" t="s">
+        <v>4260</v>
+      </c>
+      <c r="F1327" s="20"/>
+      <c r="G1327" s="20"/>
+      <c r="H1327" s="54"/>
+      <c r="I1327" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="J1327" s="10"/>
-      <c r="K1327" s="10" t="s">
-        <v>4155</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1328" s="10" t="s">
-        <v>4259</v>
-      </c>
-      <c r="B1328" s="10"/>
-      <c r="C1328" s="10" t="s">
-        <v>4207</v>
-      </c>
-      <c r="D1328" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="E1328" s="11" t="s">
-        <v>4206</v>
-      </c>
-      <c r="F1328" s="11"/>
-      <c r="G1328" s="11"/>
-      <c r="H1328" s="10" t="s">
-        <v>4187</v>
-      </c>
-      <c r="I1328" s="10" t="s">
+      <c r="J1327" s="54"/>
+      <c r="K1327" s="54"/>
+    </row>
+    <row r="1328" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1328" s="54" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B1328" s="54"/>
+      <c r="C1328" s="54" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1328" s="20" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E1328" s="20" t="s">
+        <v>4260</v>
+      </c>
+      <c r="F1328" s="20"/>
+      <c r="G1328" s="20"/>
+      <c r="H1328" s="54"/>
+      <c r="I1328" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="J1328" s="10" t="s">
-        <v>3745</v>
-      </c>
-      <c r="K1328" s="10"/>
+      <c r="J1328" s="54"/>
+      <c r="K1328" s="54"/>
     </row>
     <row r="1329" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1329" s="10" t="s">
-        <v>4259</v>
+        <v>3745</v>
       </c>
       <c r="B1329" s="10"/>
       <c r="C1329" s="10" t="s">
-        <v>4186</v>
+        <v>540</v>
       </c>
       <c r="D1329" s="11" t="s">
-        <v>4159</v>
+        <v>3749</v>
       </c>
       <c r="E1329" s="11" t="s">
-        <v>4184</v>
+        <v>3751</v>
       </c>
       <c r="F1329" s="11"/>
       <c r="G1329" s="11"/>
-      <c r="H1329" s="10" t="s">
-        <v>4171</v>
-      </c>
+      <c r="H1329" s="10"/>
       <c r="I1329" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1329" s="10" t="s">
-        <v>3745</v>
-      </c>
-      <c r="K1329" s="10"/>
+      <c r="J1329" s="10"/>
+      <c r="K1329" s="10" t="s">
+        <v>4155</v>
+      </c>
     </row>
     <row r="1330" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1330" s="10" t="s">
-        <v>4259</v>
+        <v>3745</v>
       </c>
       <c r="B1330" s="10"/>
       <c r="C1330" s="10" t="s">
-        <v>4185</v>
+        <v>442</v>
       </c>
       <c r="D1330" s="11" t="s">
-        <v>4159</v>
+        <v>3747</v>
       </c>
       <c r="E1330" s="11" t="s">
-        <v>4170</v>
+        <v>3752</v>
       </c>
       <c r="F1330" s="11"/>
       <c r="G1330" s="11"/>
-      <c r="H1330" s="10" t="s">
-        <v>4156</v>
-      </c>
+      <c r="H1330" s="10"/>
       <c r="I1330" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1330" s="10" t="s">
+      <c r="J1330" s="10"/>
+      <c r="K1330" s="10" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1331" s="10" t="s">
         <v>3745</v>
-      </c>
-      <c r="K1330" s="10"/>
-    </row>
-    <row r="1331" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1331" s="10" t="s">
-        <v>4259</v>
       </c>
       <c r="B1331" s="10"/>
       <c r="C1331" s="10" t="s">
-        <v>381</v>
+        <v>3746</v>
       </c>
       <c r="D1331" s="11" t="s">
-        <v>4158</v>
+        <v>3748</v>
       </c>
       <c r="E1331" s="11" t="s">
-        <v>4172</v>
+        <v>3750</v>
       </c>
       <c r="F1331" s="11"/>
       <c r="G1331" s="11"/>
-      <c r="H1331" s="10" t="s">
-        <v>4156</v>
-      </c>
+      <c r="H1331" s="10"/>
       <c r="I1331" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1331" s="10" t="s">
-        <v>3745</v>
-      </c>
-      <c r="K1331" s="10"/>
+      <c r="J1331" s="10"/>
+      <c r="K1331" s="10" t="s">
+        <v>4155</v>
+      </c>
     </row>
     <row r="1332" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1332" s="10" t="s">
@@ -44265,18 +44216,18 @@
       </c>
       <c r="B1332" s="10"/>
       <c r="C1332" s="10" t="s">
-        <v>3739</v>
+        <v>4207</v>
       </c>
       <c r="D1332" s="11" t="s">
-        <v>3756</v>
+        <v>666</v>
       </c>
       <c r="E1332" s="11" t="s">
-        <v>4165</v>
+        <v>4206</v>
       </c>
       <c r="F1332" s="11"/>
       <c r="G1332" s="11"/>
       <c r="H1332" s="10" t="s">
-        <v>4156</v>
+        <v>4187</v>
       </c>
       <c r="I1332" s="10" t="s">
         <v>128</v>
@@ -44292,18 +44243,18 @@
       </c>
       <c r="B1333" s="10"/>
       <c r="C1333" s="10" t="s">
-        <v>4213</v>
+        <v>4186</v>
       </c>
       <c r="D1333" s="11" t="s">
-        <v>4193</v>
+        <v>4159</v>
       </c>
       <c r="E1333" s="11" t="s">
-        <v>4204</v>
+        <v>4184</v>
       </c>
       <c r="F1333" s="11"/>
       <c r="G1333" s="11"/>
       <c r="H1333" s="10" t="s">
-        <v>4187</v>
+        <v>4171</v>
       </c>
       <c r="I1333" s="10" t="s">
         <v>128</v>
@@ -44319,18 +44270,18 @@
       </c>
       <c r="B1334" s="10"/>
       <c r="C1334" s="10" t="s">
-        <v>2020</v>
+        <v>4185</v>
       </c>
       <c r="D1334" s="11" t="s">
-        <v>4223</v>
+        <v>4159</v>
       </c>
       <c r="E1334" s="11" t="s">
-        <v>4224</v>
+        <v>4170</v>
       </c>
       <c r="F1334" s="11"/>
       <c r="G1334" s="11"/>
       <c r="H1334" s="10" t="s">
-        <v>4187</v>
+        <v>4156</v>
       </c>
       <c r="I1334" s="10" t="s">
         <v>128</v>
@@ -44340,24 +44291,24 @@
       </c>
       <c r="K1334" s="10"/>
     </row>
-    <row r="1335" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1335" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1335" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1335" s="10"/>
       <c r="C1335" s="10" t="s">
-        <v>4227</v>
+        <v>381</v>
       </c>
       <c r="D1335" s="11" t="s">
-        <v>4226</v>
+        <v>4158</v>
       </c>
       <c r="E1335" s="11" t="s">
-        <v>4225</v>
+        <v>4172</v>
       </c>
       <c r="F1335" s="11"/>
       <c r="G1335" s="11"/>
       <c r="H1335" s="10" t="s">
-        <v>4187</v>
+        <v>4156</v>
       </c>
       <c r="I1335" s="10" t="s">
         <v>128</v>
@@ -44373,13 +44324,13 @@
       </c>
       <c r="B1336" s="10"/>
       <c r="C1336" s="10" t="s">
-        <v>403</v>
+        <v>3739</v>
       </c>
       <c r="D1336" s="11" t="s">
-        <v>404</v>
+        <v>3756</v>
       </c>
       <c r="E1336" s="11" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
       <c r="F1336" s="11"/>
       <c r="G1336" s="11"/>
@@ -44400,13 +44351,13 @@
       </c>
       <c r="B1337" s="10"/>
       <c r="C1337" s="10" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="D1337" s="11" t="s">
-        <v>4210</v>
+        <v>4193</v>
       </c>
       <c r="E1337" s="11" t="s">
-        <v>4211</v>
+        <v>4204</v>
       </c>
       <c r="F1337" s="11"/>
       <c r="G1337" s="11"/>
@@ -44427,18 +44378,18 @@
       </c>
       <c r="B1338" s="10"/>
       <c r="C1338" s="10" t="s">
-        <v>160</v>
+        <v>2020</v>
       </c>
       <c r="D1338" s="11" t="s">
-        <v>4174</v>
+        <v>4223</v>
       </c>
       <c r="E1338" s="11" t="s">
-        <v>4180</v>
+        <v>4224</v>
       </c>
       <c r="F1338" s="11"/>
       <c r="G1338" s="11"/>
       <c r="H1338" s="10" t="s">
-        <v>4171</v>
+        <v>4187</v>
       </c>
       <c r="I1338" s="10" t="s">
         <v>128</v>
@@ -44454,18 +44405,18 @@
       </c>
       <c r="B1339" s="10"/>
       <c r="C1339" s="10" t="s">
-        <v>227</v>
+        <v>4227</v>
       </c>
       <c r="D1339" s="11" t="s">
-        <v>4177</v>
+        <v>4226</v>
       </c>
       <c r="E1339" s="11" t="s">
-        <v>4183</v>
+        <v>4225</v>
       </c>
       <c r="F1339" s="11"/>
       <c r="G1339" s="11"/>
       <c r="H1339" s="10" t="s">
-        <v>4171</v>
+        <v>4187</v>
       </c>
       <c r="I1339" s="10" t="s">
         <v>128</v>
@@ -44481,18 +44432,18 @@
       </c>
       <c r="B1340" s="10"/>
       <c r="C1340" s="10" t="s">
-        <v>4234</v>
+        <v>403</v>
       </c>
       <c r="D1340" s="11" t="s">
-        <v>4235</v>
+        <v>404</v>
       </c>
       <c r="E1340" s="11" t="s">
-        <v>4236</v>
+        <v>4163</v>
       </c>
       <c r="F1340" s="11"/>
       <c r="G1340" s="11"/>
       <c r="H1340" s="10" t="s">
-        <v>4187</v>
+        <v>4156</v>
       </c>
       <c r="I1340" s="10" t="s">
         <v>128</v>
@@ -44508,13 +44459,13 @@
       </c>
       <c r="B1341" s="10"/>
       <c r="C1341" s="10" t="s">
-        <v>4199</v>
+        <v>4212</v>
       </c>
       <c r="D1341" s="11" t="s">
-        <v>4197</v>
+        <v>4210</v>
       </c>
       <c r="E1341" s="11" t="s">
-        <v>4203</v>
+        <v>4211</v>
       </c>
       <c r="F1341" s="11"/>
       <c r="G1341" s="11"/>
@@ -44529,19 +44480,19 @@
       </c>
       <c r="K1341" s="10"/>
     </row>
-    <row r="1342" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1342" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1342" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1342" s="10"/>
       <c r="C1342" s="10" t="s">
-        <v>4190</v>
+        <v>160</v>
       </c>
       <c r="D1342" s="11" t="s">
-        <v>4191</v>
+        <v>4174</v>
       </c>
       <c r="E1342" s="11" t="s">
-        <v>4178</v>
+        <v>4180</v>
       </c>
       <c r="F1342" s="11"/>
       <c r="G1342" s="11"/>
@@ -44562,18 +44513,18 @@
       </c>
       <c r="B1343" s="10"/>
       <c r="C1343" s="10" t="s">
-        <v>4198</v>
+        <v>227</v>
       </c>
       <c r="D1343" s="11" t="s">
-        <v>4192</v>
+        <v>4177</v>
       </c>
       <c r="E1343" s="11" t="s">
-        <v>4202</v>
+        <v>4183</v>
       </c>
       <c r="F1343" s="11"/>
       <c r="G1343" s="11"/>
       <c r="H1343" s="10" t="s">
-        <v>4187</v>
+        <v>4171</v>
       </c>
       <c r="I1343" s="10" t="s">
         <v>128</v>
@@ -44589,13 +44540,13 @@
       </c>
       <c r="B1344" s="10"/>
       <c r="C1344" s="10" t="s">
-        <v>4217</v>
+        <v>4234</v>
       </c>
       <c r="D1344" s="11" t="s">
-        <v>4218</v>
+        <v>4235</v>
       </c>
       <c r="E1344" s="11" t="s">
-        <v>4219</v>
+        <v>4236</v>
       </c>
       <c r="F1344" s="11"/>
       <c r="G1344" s="11"/>
@@ -44616,18 +44567,18 @@
       </c>
       <c r="B1345" s="10"/>
       <c r="C1345" s="10" t="s">
-        <v>4189</v>
+        <v>4199</v>
       </c>
       <c r="D1345" s="11" t="s">
-        <v>3755</v>
+        <v>4197</v>
       </c>
       <c r="E1345" s="11" t="s">
-        <v>4161</v>
+        <v>4203</v>
       </c>
       <c r="F1345" s="11"/>
       <c r="G1345" s="11"/>
       <c r="H1345" s="10" t="s">
-        <v>4156</v>
+        <v>4187</v>
       </c>
       <c r="I1345" s="10" t="s">
         <v>128</v>
@@ -44637,24 +44588,24 @@
       </c>
       <c r="K1345" s="10"/>
     </row>
-    <row r="1346" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1346" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1346" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1346" s="10"/>
       <c r="C1346" s="10" t="s">
-        <v>4188</v>
+        <v>4190</v>
       </c>
       <c r="D1346" s="11" t="s">
-        <v>4157</v>
+        <v>4191</v>
       </c>
       <c r="E1346" s="11" t="s">
-        <v>4160</v>
+        <v>4178</v>
       </c>
       <c r="F1346" s="11"/>
       <c r="G1346" s="11"/>
       <c r="H1346" s="10" t="s">
-        <v>4156</v>
+        <v>4171</v>
       </c>
       <c r="I1346" s="10" t="s">
         <v>128</v>
@@ -44664,24 +44615,24 @@
       </c>
       <c r="K1346" s="10"/>
     </row>
-    <row r="1347" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="1347" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1347" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1347" s="10"/>
       <c r="C1347" s="10" t="s">
-        <v>308</v>
+        <v>4198</v>
       </c>
       <c r="D1347" s="11" t="s">
-        <v>3759</v>
+        <v>4192</v>
       </c>
       <c r="E1347" s="11" t="s">
-        <v>4167</v>
+        <v>4202</v>
       </c>
       <c r="F1347" s="11"/>
       <c r="G1347" s="11"/>
       <c r="H1347" s="10" t="s">
-        <v>4156</v>
+        <v>4187</v>
       </c>
       <c r="I1347" s="10" t="s">
         <v>128</v>
@@ -44697,18 +44648,18 @@
       </c>
       <c r="B1348" s="10"/>
       <c r="C1348" s="10" t="s">
-        <v>3761</v>
+        <v>4217</v>
       </c>
       <c r="D1348" s="11" t="s">
-        <v>3760</v>
+        <v>4218</v>
       </c>
       <c r="E1348" s="11" t="s">
-        <v>4168</v>
+        <v>4219</v>
       </c>
       <c r="F1348" s="11"/>
       <c r="G1348" s="11"/>
       <c r="H1348" s="10" t="s">
-        <v>4156</v>
+        <v>4187</v>
       </c>
       <c r="I1348" s="10" t="s">
         <v>128</v>
@@ -44724,13 +44675,13 @@
       </c>
       <c r="B1349" s="10"/>
       <c r="C1349" s="10" t="s">
-        <v>837</v>
+        <v>4189</v>
       </c>
       <c r="D1349" s="11" t="s">
-        <v>838</v>
+        <v>3755</v>
       </c>
       <c r="E1349" s="11" t="s">
-        <v>4169</v>
+        <v>4161</v>
       </c>
       <c r="F1349" s="11"/>
       <c r="G1349" s="11"/>
@@ -44751,13 +44702,13 @@
       </c>
       <c r="B1350" s="10"/>
       <c r="C1350" s="10" t="s">
-        <v>839</v>
+        <v>4188</v>
       </c>
       <c r="D1350" s="11" t="s">
-        <v>3757</v>
+        <v>4157</v>
       </c>
       <c r="E1350" s="11" t="s">
-        <v>4164</v>
+        <v>4160</v>
       </c>
       <c r="F1350" s="11"/>
       <c r="G1350" s="11"/>
@@ -44772,24 +44723,24 @@
       </c>
       <c r="K1350" s="10"/>
     </row>
-    <row r="1351" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1351" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A1351" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1351" s="10"/>
       <c r="C1351" s="10" t="s">
-        <v>428</v>
+        <v>308</v>
       </c>
       <c r="D1351" s="11" t="s">
-        <v>4175</v>
+        <v>3759</v>
       </c>
       <c r="E1351" s="11" t="s">
-        <v>4181</v>
+        <v>4167</v>
       </c>
       <c r="F1351" s="11"/>
       <c r="G1351" s="11"/>
       <c r="H1351" s="10" t="s">
-        <v>4171</v>
+        <v>4156</v>
       </c>
       <c r="I1351" s="10" t="s">
         <v>128</v>
@@ -44799,19 +44750,19 @@
       </c>
       <c r="K1351" s="10"/>
     </row>
-    <row r="1352" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1352" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1352" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1352" s="10"/>
       <c r="C1352" s="10" t="s">
-        <v>4237</v>
+        <v>3761</v>
       </c>
       <c r="D1352" s="11" t="s">
-        <v>3840</v>
+        <v>3760</v>
       </c>
       <c r="E1352" s="11" t="s">
-        <v>4162</v>
+        <v>4168</v>
       </c>
       <c r="F1352" s="11"/>
       <c r="G1352" s="11"/>
@@ -44832,18 +44783,18 @@
       </c>
       <c r="B1353" s="10"/>
       <c r="C1353" s="10" t="s">
-        <v>4208</v>
+        <v>837</v>
       </c>
       <c r="D1353" s="11" t="s">
-        <v>4209</v>
+        <v>838</v>
       </c>
       <c r="E1353" s="11" t="s">
-        <v>4222</v>
+        <v>4169</v>
       </c>
       <c r="F1353" s="11"/>
       <c r="G1353" s="11"/>
       <c r="H1353" s="10" t="s">
-        <v>4187</v>
+        <v>4156</v>
       </c>
       <c r="I1353" s="10" t="s">
         <v>128</v>
@@ -44859,18 +44810,18 @@
       </c>
       <c r="B1354" s="10"/>
       <c r="C1354" s="10" t="s">
-        <v>4200</v>
+        <v>839</v>
       </c>
       <c r="D1354" s="11" t="s">
-        <v>4194</v>
+        <v>3757</v>
       </c>
       <c r="E1354" s="11" t="s">
-        <v>4205</v>
+        <v>4164</v>
       </c>
       <c r="F1354" s="11"/>
       <c r="G1354" s="11"/>
       <c r="H1354" s="10" t="s">
-        <v>4187</v>
+        <v>4156</v>
       </c>
       <c r="I1354" s="10" t="s">
         <v>128</v>
@@ -44886,18 +44837,18 @@
       </c>
       <c r="B1355" s="10"/>
       <c r="C1355" s="10" t="s">
-        <v>1909</v>
+        <v>428</v>
       </c>
       <c r="D1355" s="11" t="s">
-        <v>4220</v>
+        <v>4175</v>
       </c>
       <c r="E1355" s="11" t="s">
-        <v>4221</v>
+        <v>4181</v>
       </c>
       <c r="F1355" s="11"/>
       <c r="G1355" s="11"/>
       <c r="H1355" s="10" t="s">
-        <v>4187</v>
+        <v>4171</v>
       </c>
       <c r="I1355" s="10" t="s">
         <v>128</v>
@@ -44907,24 +44858,24 @@
       </c>
       <c r="K1355" s="10"/>
     </row>
-    <row r="1356" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1356" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1356" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1356" s="10"/>
       <c r="C1356" s="10" t="s">
-        <v>4101</v>
+        <v>4237</v>
       </c>
       <c r="D1356" s="11" t="s">
-        <v>4173</v>
+        <v>3840</v>
       </c>
       <c r="E1356" s="11" t="s">
-        <v>4179</v>
+        <v>4162</v>
       </c>
       <c r="F1356" s="11"/>
       <c r="G1356" s="11"/>
       <c r="H1356" s="10" t="s">
-        <v>4171</v>
+        <v>4156</v>
       </c>
       <c r="I1356" s="10" t="s">
         <v>128</v>
@@ -44934,19 +44885,19 @@
       </c>
       <c r="K1356" s="10"/>
     </row>
-    <row r="1357" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1357" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1357" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1357" s="10"/>
       <c r="C1357" s="10" t="s">
-        <v>4214</v>
+        <v>4208</v>
       </c>
       <c r="D1357" s="11" t="s">
-        <v>4215</v>
+        <v>4209</v>
       </c>
       <c r="E1357" s="11" t="s">
-        <v>4216</v>
+        <v>4222</v>
       </c>
       <c r="F1357" s="11"/>
       <c r="G1357" s="11"/>
@@ -44961,19 +44912,19 @@
       </c>
       <c r="K1357" s="10"/>
     </row>
-    <row r="1358" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1358" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1358" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1358" s="10"/>
       <c r="C1358" s="10" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="D1358" s="11" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="E1358" s="11" t="s">
-        <v>4196</v>
+        <v>4205</v>
       </c>
       <c r="F1358" s="11"/>
       <c r="G1358" s="11"/>
@@ -44988,19 +44939,19 @@
       </c>
       <c r="K1358" s="10"/>
     </row>
-    <row r="1359" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1359" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1359" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1359" s="10"/>
       <c r="C1359" s="10" t="s">
-        <v>4228</v>
+        <v>1909</v>
       </c>
       <c r="D1359" s="11" t="s">
-        <v>4229</v>
+        <v>4220</v>
       </c>
       <c r="E1359" s="11" t="s">
-        <v>4230</v>
+        <v>4221</v>
       </c>
       <c r="F1359" s="11"/>
       <c r="G1359" s="11"/>
@@ -45021,13 +44972,13 @@
       </c>
       <c r="B1360" s="10"/>
       <c r="C1360" s="10" t="s">
-        <v>1925</v>
+        <v>4101</v>
       </c>
       <c r="D1360" s="11" t="s">
-        <v>4176</v>
+        <v>4173</v>
       </c>
       <c r="E1360" s="11" t="s">
-        <v>4182</v>
+        <v>4179</v>
       </c>
       <c r="F1360" s="11"/>
       <c r="G1360" s="11"/>
@@ -45042,19 +44993,19 @@
       </c>
       <c r="K1360" s="10"/>
     </row>
-    <row r="1361" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1361" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1361" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1361" s="10"/>
       <c r="C1361" s="10" t="s">
-        <v>4233</v>
+        <v>4214</v>
       </c>
       <c r="D1361" s="11" t="s">
-        <v>4231</v>
+        <v>4215</v>
       </c>
       <c r="E1361" s="11" t="s">
-        <v>4232</v>
+        <v>4216</v>
       </c>
       <c r="F1361" s="11"/>
       <c r="G1361" s="11"/>
@@ -45069,24 +45020,24 @@
       </c>
       <c r="K1361" s="10"/>
     </row>
-    <row r="1362" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1362" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1362" s="10" t="s">
         <v>4259</v>
       </c>
       <c r="B1362" s="10"/>
       <c r="C1362" s="10" t="s">
-        <v>264</v>
+        <v>4201</v>
       </c>
       <c r="D1362" s="11" t="s">
-        <v>3758</v>
+        <v>4195</v>
       </c>
       <c r="E1362" s="11" t="s">
-        <v>4166</v>
+        <v>4196</v>
       </c>
       <c r="F1362" s="11"/>
       <c r="G1362" s="11"/>
       <c r="H1362" s="10" t="s">
-        <v>4156</v>
+        <v>4187</v>
       </c>
       <c r="I1362" s="10" t="s">
         <v>128</v>
@@ -45097,106 +45048,126 @@
       <c r="K1362" s="10"/>
     </row>
     <row r="1363" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A1363" s="35" t="s">
-        <v>2087</v>
-      </c>
-      <c r="B1363" s="13"/>
-      <c r="C1363" s="13" t="s">
-        <v>2088</v>
-      </c>
-      <c r="D1363" s="13" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E1363" s="12" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F1363" s="12"/>
-      <c r="G1363" s="12"/>
-      <c r="H1363" s="12"/>
-      <c r="I1363" s="13" t="s">
+      <c r="A1363" s="10" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B1363" s="10"/>
+      <c r="C1363" s="10" t="s">
+        <v>4228</v>
+      </c>
+      <c r="D1363" s="11" t="s">
+        <v>4229</v>
+      </c>
+      <c r="E1363" s="11" t="s">
+        <v>4230</v>
+      </c>
+      <c r="F1363" s="11"/>
+      <c r="G1363" s="11"/>
+      <c r="H1363" s="10" t="s">
+        <v>4187</v>
+      </c>
+      <c r="I1363" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1363" s="13"/>
-      <c r="K1363" s="13"/>
-    </row>
-    <row r="1364" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1364" s="35" t="s">
-        <v>2087</v>
-      </c>
-      <c r="B1364" s="13"/>
-      <c r="C1364" s="13" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D1364" s="13" t="s">
-        <v>2092</v>
-      </c>
-      <c r="E1364" s="12"/>
-      <c r="F1364" s="12"/>
-      <c r="G1364" s="12"/>
-      <c r="H1364" s="12"/>
-      <c r="I1364" s="13" t="s">
+      <c r="J1363" s="10" t="s">
+        <v>3745</v>
+      </c>
+      <c r="K1363" s="10"/>
+    </row>
+    <row r="1364" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1364" s="10" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B1364" s="10"/>
+      <c r="C1364" s="10" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D1364" s="11" t="s">
+        <v>4176</v>
+      </c>
+      <c r="E1364" s="11" t="s">
+        <v>4182</v>
+      </c>
+      <c r="F1364" s="11"/>
+      <c r="G1364" s="11"/>
+      <c r="H1364" s="10" t="s">
+        <v>4171</v>
+      </c>
+      <c r="I1364" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1364" s="13"/>
-      <c r="K1364" s="13"/>
+      <c r="J1364" s="10" t="s">
+        <v>3745</v>
+      </c>
+      <c r="K1364" s="10"/>
     </row>
     <row r="1365" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1365" s="35" t="s">
-        <v>2087</v>
-      </c>
-      <c r="B1365" s="13"/>
-      <c r="C1365" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1365" s="13" t="s">
-        <v>2093</v>
-      </c>
-      <c r="E1365" s="12" t="s">
-        <v>2094</v>
-      </c>
-      <c r="F1365" s="12"/>
-      <c r="G1365" s="12"/>
-      <c r="H1365" s="12"/>
-      <c r="I1365" s="13" t="s">
+      <c r="A1365" s="10" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B1365" s="10"/>
+      <c r="C1365" s="10" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D1365" s="11" t="s">
+        <v>4231</v>
+      </c>
+      <c r="E1365" s="11" t="s">
+        <v>4232</v>
+      </c>
+      <c r="F1365" s="11"/>
+      <c r="G1365" s="11"/>
+      <c r="H1365" s="10" t="s">
+        <v>4187</v>
+      </c>
+      <c r="I1365" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1365" s="13"/>
-      <c r="K1365" s="13"/>
-    </row>
-    <row r="1366" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1366" s="13" t="s">
-        <v>2087</v>
-      </c>
-      <c r="B1366" s="13"/>
-      <c r="C1366" s="13" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D1366" s="13" t="s">
-        <v>2095</v>
-      </c>
-      <c r="E1366" s="12"/>
-      <c r="F1366" s="12"/>
-      <c r="G1366" s="12"/>
-      <c r="H1366" s="12"/>
-      <c r="I1366" s="13" t="s">
+      <c r="J1365" s="10" t="s">
+        <v>3745</v>
+      </c>
+      <c r="K1365" s="10"/>
+    </row>
+    <row r="1366" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1366" s="10" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B1366" s="10"/>
+      <c r="C1366" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1366" s="11" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E1366" s="11" t="s">
+        <v>4166</v>
+      </c>
+      <c r="F1366" s="11"/>
+      <c r="G1366" s="11"/>
+      <c r="H1366" s="10" t="s">
+        <v>4156</v>
+      </c>
+      <c r="I1366" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J1366" s="13"/>
-      <c r="K1366" s="13"/>
-    </row>
-    <row r="1367" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1367" s="13" t="s">
+      <c r="J1366" s="10" t="s">
+        <v>3745</v>
+      </c>
+      <c r="K1366" s="10"/>
+    </row>
+    <row r="1367" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A1367" s="35" t="s">
         <v>2087</v>
       </c>
       <c r="B1367" s="13"/>
       <c r="C1367" s="13" t="s">
-        <v>2096</v>
+        <v>2088</v>
       </c>
       <c r="D1367" s="13" t="s">
-        <v>2097</v>
+        <v>2089</v>
       </c>
       <c r="E1367" s="12" t="s">
-        <v>2098</v>
+        <v>2090</v>
       </c>
       <c r="F1367" s="12"/>
       <c r="G1367" s="12"/>
@@ -45208,19 +45179,17 @@
       <c r="K1367" s="13"/>
     </row>
     <row r="1368" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1368" s="13" t="s">
+      <c r="A1368" s="35" t="s">
         <v>2087</v>
       </c>
       <c r="B1368" s="13"/>
       <c r="C1368" s="13" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
       <c r="D1368" s="13" t="s">
-        <v>2100</v>
-      </c>
-      <c r="E1368" s="12" t="s">
-        <v>2101</v>
-      </c>
+        <v>2092</v>
+      </c>
+      <c r="E1368" s="12"/>
       <c r="F1368" s="12"/>
       <c r="G1368" s="12"/>
       <c r="H1368" s="12"/>
@@ -45230,19 +45199,19 @@
       <c r="J1368" s="13"/>
       <c r="K1368" s="13"/>
     </row>
-    <row r="1369" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1369" s="13" t="s">
+    <row r="1369" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1369" s="35" t="s">
         <v>2087</v>
       </c>
       <c r="B1369" s="13"/>
       <c r="C1369" s="13" t="s">
-        <v>521</v>
+        <v>351</v>
       </c>
       <c r="D1369" s="13" t="s">
-        <v>2102</v>
+        <v>2093</v>
       </c>
       <c r="E1369" s="12" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="F1369" s="12"/>
       <c r="G1369" s="12"/>
@@ -45253,20 +45222,18 @@
       <c r="J1369" s="13"/>
       <c r="K1369" s="13"/>
     </row>
-    <row r="1370" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="1370" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1370" s="13" t="s">
         <v>2087</v>
       </c>
       <c r="B1370" s="13"/>
       <c r="C1370" s="13" t="s">
-        <v>617</v>
+        <v>1903</v>
       </c>
       <c r="D1370" s="13" t="s">
-        <v>2104</v>
-      </c>
-      <c r="E1370" s="12" t="s">
-        <v>2105</v>
-      </c>
+        <v>2095</v>
+      </c>
+      <c r="E1370" s="12"/>
       <c r="F1370" s="12"/>
       <c r="G1370" s="12"/>
       <c r="H1370" s="12"/>
@@ -45282,13 +45249,13 @@
       </c>
       <c r="B1371" s="13"/>
       <c r="C1371" s="13" t="s">
-        <v>2106</v>
+        <v>2096</v>
       </c>
       <c r="D1371" s="13" t="s">
-        <v>2107</v>
+        <v>2097</v>
       </c>
       <c r="E1371" s="12" t="s">
-        <v>2108</v>
+        <v>2098</v>
       </c>
       <c r="F1371" s="12"/>
       <c r="G1371" s="12"/>
@@ -45300,80 +45267,96 @@
       <c r="K1371" s="13"/>
     </row>
     <row r="1372" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1372" s="10" t="s">
-        <v>4319</v>
-      </c>
-      <c r="B1372" s="10"/>
-      <c r="C1372" s="10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D1372" s="11" t="s">
-        <v>4320</v>
-      </c>
-      <c r="E1372" s="11"/>
-      <c r="F1372" s="11"/>
-      <c r="G1372" s="11"/>
-      <c r="H1372" s="10"/>
-      <c r="I1372" s="10"/>
-      <c r="J1372" s="10"/>
-      <c r="K1372" s="10"/>
+      <c r="A1372" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1372" s="13"/>
+      <c r="C1372" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D1372" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E1372" s="12" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F1372" s="12"/>
+      <c r="G1372" s="12"/>
+      <c r="H1372" s="12"/>
+      <c r="I1372" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1372" s="13"/>
+      <c r="K1372" s="13"/>
     </row>
     <row r="1373" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1373" s="10" t="s">
-        <v>4319</v>
-      </c>
-      <c r="B1373" s="10"/>
-      <c r="C1373" s="10" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D1373" s="11" t="s">
-        <v>4095</v>
-      </c>
-      <c r="E1373" s="11"/>
-      <c r="F1373" s="11"/>
-      <c r="G1373" s="11"/>
-      <c r="H1373" s="10"/>
-      <c r="I1373" s="10"/>
-      <c r="J1373" s="10"/>
-      <c r="K1373" s="10"/>
-    </row>
-    <row r="1374" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1374" s="10" t="s">
-        <v>4319</v>
-      </c>
-      <c r="B1374" s="10"/>
-      <c r="C1374" s="10" t="s">
-        <v>4326</v>
-      </c>
-      <c r="D1374" s="11" t="s">
-        <v>4321</v>
-      </c>
-      <c r="E1374" s="11"/>
-      <c r="F1374" s="11"/>
-      <c r="G1374" s="11"/>
-      <c r="H1374" s="10"/>
-      <c r="I1374" s="10"/>
-      <c r="J1374" s="10"/>
-      <c r="K1374" s="10"/>
-    </row>
-    <row r="1375" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1375" s="10" t="s">
-        <v>4319</v>
-      </c>
-      <c r="B1375" s="10"/>
-      <c r="C1375" s="10" t="s">
-        <v>916</v>
-      </c>
-      <c r="D1375" s="11" t="s">
-        <v>4322</v>
-      </c>
-      <c r="E1375" s="11"/>
-      <c r="F1375" s="11"/>
-      <c r="G1375" s="11"/>
-      <c r="H1375" s="10"/>
-      <c r="I1375" s="10"/>
-      <c r="J1375" s="10"/>
-      <c r="K1375" s="10"/>
+      <c r="A1373" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1373" s="13"/>
+      <c r="C1373" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1373" s="13" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E1373" s="12" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F1373" s="12"/>
+      <c r="G1373" s="12"/>
+      <c r="H1373" s="12"/>
+      <c r="I1373" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1373" s="13"/>
+      <c r="K1373" s="13"/>
+    </row>
+    <row r="1374" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A1374" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1374" s="13"/>
+      <c r="C1374" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1374" s="13" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E1374" s="12" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F1374" s="12"/>
+      <c r="G1374" s="12"/>
+      <c r="H1374" s="12"/>
+      <c r="I1374" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1374" s="13"/>
+      <c r="K1374" s="13"/>
+    </row>
+    <row r="1375" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1375" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1375" s="13"/>
+      <c r="C1375" s="13" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D1375" s="13" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E1375" s="12" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F1375" s="12"/>
+      <c r="G1375" s="12"/>
+      <c r="H1375" s="12"/>
+      <c r="I1375" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1375" s="13"/>
+      <c r="K1375" s="13"/>
     </row>
     <row r="1376" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1376" s="10" t="s">
@@ -45381,10 +45364,10 @@
       </c>
       <c r="B1376" s="10"/>
       <c r="C1376" s="10" t="s">
-        <v>4327</v>
+        <v>1117</v>
       </c>
       <c r="D1376" s="11" t="s">
-        <v>4323</v>
+        <v>4320</v>
       </c>
       <c r="E1376" s="11"/>
       <c r="F1376" s="11"/>
@@ -45400,10 +45383,10 @@
       </c>
       <c r="B1377" s="10"/>
       <c r="C1377" s="10" t="s">
-        <v>1880</v>
+        <v>1104</v>
       </c>
       <c r="D1377" s="11" t="s">
-        <v>4325</v>
+        <v>4095</v>
       </c>
       <c r="E1377" s="11"/>
       <c r="F1377" s="11"/>
@@ -45419,10 +45402,10 @@
       </c>
       <c r="B1378" s="10"/>
       <c r="C1378" s="10" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="D1378" s="11" t="s">
-        <v>4324</v>
+        <v>4321</v>
       </c>
       <c r="E1378" s="11"/>
       <c r="F1378" s="11"/>
@@ -45433,110 +45416,94 @@
       <c r="K1378" s="10"/>
     </row>
     <row r="1379" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1379" s="13" t="s">
-        <v>2109</v>
-      </c>
-      <c r="B1379" s="13"/>
-      <c r="C1379" s="13" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D1379" s="12" t="s">
-        <v>2110</v>
-      </c>
-      <c r="E1379" s="12" t="s">
-        <v>2110</v>
-      </c>
-      <c r="F1379" s="12"/>
-      <c r="G1379" s="12"/>
-      <c r="H1379" s="12"/>
-      <c r="I1379" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1379" s="13"/>
-      <c r="K1379" s="13"/>
-    </row>
-    <row r="1380" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1380" s="13" t="s">
-        <v>2109</v>
-      </c>
-      <c r="B1380" s="13"/>
-      <c r="C1380" s="13" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D1380" s="12" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E1380" s="12" t="s">
-        <v>2112</v>
-      </c>
-      <c r="F1380" s="12"/>
-      <c r="G1380" s="12"/>
-      <c r="H1380" s="12"/>
-      <c r="I1380" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1380" s="13"/>
-      <c r="K1380" s="13"/>
-    </row>
-    <row r="1381" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1381" s="13" t="s">
-        <v>2109</v>
-      </c>
-      <c r="B1381" s="13"/>
-      <c r="C1381" s="13" t="s">
-        <v>2113</v>
-      </c>
-      <c r="D1381" s="12" t="s">
-        <v>2114</v>
-      </c>
-      <c r="E1381" s="12" t="s">
-        <v>2114</v>
-      </c>
-      <c r="F1381" s="12"/>
-      <c r="G1381" s="12"/>
-      <c r="H1381" s="12"/>
-      <c r="I1381" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1381" s="13"/>
-      <c r="K1381" s="13"/>
+      <c r="A1379" s="10" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B1379" s="10"/>
+      <c r="C1379" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="D1379" s="11" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E1379" s="11"/>
+      <c r="F1379" s="11"/>
+      <c r="G1379" s="11"/>
+      <c r="H1379" s="10"/>
+      <c r="I1379" s="10"/>
+      <c r="J1379" s="10"/>
+      <c r="K1379" s="10"/>
+    </row>
+    <row r="1380" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1380" s="10" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B1380" s="10"/>
+      <c r="C1380" s="10" t="s">
+        <v>4327</v>
+      </c>
+      <c r="D1380" s="11" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E1380" s="11"/>
+      <c r="F1380" s="11"/>
+      <c r="G1380" s="11"/>
+      <c r="H1380" s="10"/>
+      <c r="I1380" s="10"/>
+      <c r="J1380" s="10"/>
+      <c r="K1380" s="10"/>
+    </row>
+    <row r="1381" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1381" s="10" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B1381" s="10"/>
+      <c r="C1381" s="10" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D1381" s="11" t="s">
+        <v>4325</v>
+      </c>
+      <c r="E1381" s="11"/>
+      <c r="F1381" s="11"/>
+      <c r="G1381" s="11"/>
+      <c r="H1381" s="10"/>
+      <c r="I1381" s="10"/>
+      <c r="J1381" s="10"/>
+      <c r="K1381" s="10"/>
     </row>
     <row r="1382" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1382" s="35" t="s">
-        <v>2109</v>
-      </c>
-      <c r="B1382" s="13"/>
-      <c r="C1382" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1382" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="E1382" s="12" t="s">
-        <v>2115</v>
-      </c>
-      <c r="F1382" s="12"/>
-      <c r="G1382" s="12"/>
-      <c r="H1382" s="12"/>
-      <c r="I1382" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1382" s="13"/>
-      <c r="K1382" s="13"/>
+      <c r="A1382" s="10" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B1382" s="10"/>
+      <c r="C1382" s="10" t="s">
+        <v>4328</v>
+      </c>
+      <c r="D1382" s="11" t="s">
+        <v>4324</v>
+      </c>
+      <c r="E1382" s="11"/>
+      <c r="F1382" s="11"/>
+      <c r="G1382" s="11"/>
+      <c r="H1382" s="10"/>
+      <c r="I1382" s="10"/>
+      <c r="J1382" s="10"/>
+      <c r="K1382" s="10"/>
     </row>
     <row r="1383" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1383" s="35" t="s">
+      <c r="A1383" s="13" t="s">
         <v>2109</v>
       </c>
       <c r="B1383" s="13"/>
       <c r="C1383" s="13" t="s">
-        <v>2116</v>
+        <v>1285</v>
       </c>
       <c r="D1383" s="12" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="E1383" s="12" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="F1383" s="12"/>
       <c r="G1383" s="12"/>
@@ -45548,18 +45515,18 @@
       <c r="K1383" s="13"/>
     </row>
     <row r="1384" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A1384" s="35" t="s">
+      <c r="A1384" s="13" t="s">
         <v>2109</v>
       </c>
       <c r="B1384" s="13"/>
       <c r="C1384" s="13" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="D1384" s="12" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="E1384" s="12" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="F1384" s="12"/>
       <c r="G1384" s="12"/>
@@ -45570,19 +45537,19 @@
       <c r="J1384" s="13"/>
       <c r="K1384" s="13"/>
     </row>
-    <row r="1385" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1385" s="35" t="s">
+    <row r="1385" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1385" s="13" t="s">
         <v>2109</v>
       </c>
       <c r="B1385" s="13"/>
       <c r="C1385" s="13" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="D1385" s="12" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="E1385" s="12" t="s">
-        <v>2122</v>
+        <v>2114</v>
       </c>
       <c r="F1385" s="12"/>
       <c r="G1385" s="12"/>
@@ -45594,80 +45561,96 @@
       <c r="K1385" s="13"/>
     </row>
     <row r="1386" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1386" s="10" t="s">
-        <v>4343</v>
-      </c>
-      <c r="B1386" s="10"/>
-      <c r="C1386" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1386" s="11" t="s">
-        <v>4050</v>
-      </c>
-      <c r="E1386" s="11"/>
-      <c r="F1386" s="11"/>
-      <c r="G1386" s="11"/>
-      <c r="H1386" s="10"/>
-      <c r="I1386" s="10"/>
-      <c r="J1386" s="10"/>
-      <c r="K1386" s="10"/>
+      <c r="A1386" s="35" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1386" s="13"/>
+      <c r="C1386" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1386" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1386" s="12" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F1386" s="12"/>
+      <c r="G1386" s="12"/>
+      <c r="H1386" s="12"/>
+      <c r="I1386" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1386" s="13"/>
+      <c r="K1386" s="13"/>
     </row>
     <row r="1387" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1387" s="10" t="s">
-        <v>4343</v>
-      </c>
-      <c r="B1387" s="10"/>
-      <c r="C1387" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1387" s="11" t="s">
-        <v>4344</v>
-      </c>
-      <c r="E1387" s="11"/>
-      <c r="F1387" s="11"/>
-      <c r="G1387" s="11"/>
-      <c r="H1387" s="10"/>
-      <c r="I1387" s="10"/>
-      <c r="J1387" s="10"/>
-      <c r="K1387" s="10"/>
-    </row>
-    <row r="1388" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1388" s="10" t="s">
-        <v>4343</v>
-      </c>
-      <c r="B1388" s="10"/>
-      <c r="C1388" s="10" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D1388" s="11" t="s">
-        <v>4345</v>
-      </c>
-      <c r="E1388" s="11"/>
-      <c r="F1388" s="11"/>
-      <c r="G1388" s="11"/>
-      <c r="H1388" s="10"/>
-      <c r="I1388" s="10"/>
-      <c r="J1388" s="10"/>
-      <c r="K1388" s="10"/>
+      <c r="A1387" s="35" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1387" s="13"/>
+      <c r="C1387" s="13" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D1387" s="12" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E1387" s="12" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F1387" s="12"/>
+      <c r="G1387" s="12"/>
+      <c r="H1387" s="12"/>
+      <c r="I1387" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1387" s="13"/>
+      <c r="K1387" s="13"/>
+    </row>
+    <row r="1388" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A1388" s="35" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1388" s="13"/>
+      <c r="C1388" s="13" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D1388" s="12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E1388" s="12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F1388" s="12"/>
+      <c r="G1388" s="12"/>
+      <c r="H1388" s="12"/>
+      <c r="I1388" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1388" s="13"/>
+      <c r="K1388" s="13"/>
     </row>
     <row r="1389" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1389" s="10" t="s">
-        <v>4343</v>
-      </c>
-      <c r="B1389" s="10"/>
-      <c r="C1389" s="10" t="s">
-        <v>979</v>
-      </c>
-      <c r="D1389" s="11" t="s">
-        <v>4346</v>
-      </c>
-      <c r="E1389" s="11"/>
-      <c r="F1389" s="11"/>
-      <c r="G1389" s="11"/>
-      <c r="H1389" s="10"/>
-      <c r="I1389" s="10"/>
-      <c r="J1389" s="10"/>
-      <c r="K1389" s="10"/>
+      <c r="A1389" s="35" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B1389" s="13"/>
+      <c r="C1389" s="13" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D1389" s="12" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E1389" s="12" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F1389" s="12"/>
+      <c r="G1389" s="12"/>
+      <c r="H1389" s="12"/>
+      <c r="I1389" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1389" s="13"/>
+      <c r="K1389" s="13"/>
     </row>
     <row r="1390" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1390" s="10"/>
@@ -51930,15 +51913,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFD438D9B9ABE14A977C2E01E1E997E9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="238b4f00df057bc2742cc7aff66473ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41b44f4d-acd5-45c0-8ca7-9032ca64d707" xmlns:ns3="bc2bfcf0-0204-42b7-916d-bc08fc5e6372" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfb8db5c6f5549a83cd0326992bdc891" ns2:_="" ns3:_="">
     <xsd:import namespace="41b44f4d-acd5-45c0-8ca7-9032ca64d707"/>
@@ -52141,6 +52115,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E3AA29B-E85A-4662-AF70-E41EEBB4502A}">
   <ds:schemaRefs>
@@ -52151,14 +52134,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EB239C-D482-4083-A20F-2310AB45B47F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9FCA9DB-B654-4D97-A1BC-1B4528FD4E25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52175,4 +52150,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6EB239C-D482-4083-A20F-2310AB45B47F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>